--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="105">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -279,6 +279,39 @@
   </si>
   <si>
     <t xml:space="preserve">pduSetString</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduLogFun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、报警 日志 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、日志数量 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">第几条\页</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一页多少条日志 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、操作日志 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、读一条日志 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、系统日志 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、读一页日志</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、电能记录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、清除日志</t>
   </si>
   <si>
     <t xml:space="preserve">result</t>
@@ -312,12 +345,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -333,6 +367,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -377,7 +417,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -388,6 +428,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -415,20 +463,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:L122"/>
+  <dimension ref="A2:L132"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D99" activeCellId="0" sqref="D99"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F137" activeCellId="0" sqref="F137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="14.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="0" width="20.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="29.5"/>
   </cols>
@@ -1126,6 +1174,64 @@
     <row r="122" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G122" s="0" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C129" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F129" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C130" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C131" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C132" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1154,7 +1260,7 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.25"/>
@@ -1168,18 +1274,18 @@
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="C1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="4" t="s">
-        <v>87</v>
+      <c r="C2" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>10</v>
@@ -1280,7 +1386,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>37</v>
@@ -1291,7 +1397,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>40</v>
@@ -1299,7 +1405,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>42</v>
@@ -1307,17 +1413,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="106">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -134,61 +134,64 @@
     <t xml:space="preserve">6：功率因数</t>
   </si>
   <si>
+    <t xml:space="preserve">5：最小值（复位时间）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7：传感器（门禁其他传感器）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7：视在功率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6：下临界值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8：无功功率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7：上临界值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11：温度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8：使能状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12：湿度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21：门禁1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22：门禁2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23：水禁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24：烟雾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduSetData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">具体值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1：当前值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2：额定值 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4：最大值</t>
+  </si>
+  <si>
     <t xml:space="preserve">5：最小值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7：传感器（门禁其他传感器）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7：视在功率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6：下临界值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8：无功功率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7：上临界值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11：温度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8：使能状态</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12：湿度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21：门禁1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22：门禁2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23：水禁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24：烟雾</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pduSetData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">具体值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1：当前值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2：额定值 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4：最大值</t>
   </si>
   <si>
     <t xml:space="preserve">pduReadCfg</t>
@@ -345,7 +348,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -367,12 +370,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -434,7 +431,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -465,11 +462,11 @@
   </sheetPr>
   <dimension ref="A2:L132"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F137" activeCellId="0" sqref="F137"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="14.25"/>
@@ -786,7 +783,7 @@
         <v>36</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -843,7 +840,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>9</v>
@@ -866,74 +863,74 @@
     </row>
     <row r="43" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D47" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E48" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E49" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E50" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E51" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E52" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E53" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E54" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E64" s="0" t="s">
         <v>11</v>
@@ -950,68 +947,68 @@
     </row>
     <row r="65" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D65" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E66" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E67" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D69" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E70" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E71" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E72" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E73" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E74" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E75" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E76" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>9</v>
@@ -1034,7 +1031,7 @@
         <v>14</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G82" s="0" t="s">
         <v>28</v>
@@ -1042,58 +1039,58 @@
     </row>
     <row r="86" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D86" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G87" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G88" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G89" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G90" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G91" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D95" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G96" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G97" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>9</v>
@@ -1119,7 +1116,7 @@
         <v>14</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G107" s="0" t="s">
         <v>28</v>
@@ -1127,64 +1124,64 @@
     </row>
     <row r="111" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D111" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G112" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G113" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G114" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G115" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G116" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D120" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G121" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G122" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>13</v>
@@ -1198,40 +1195,40 @@
     </row>
     <row r="129" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C129" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C130" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C131" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C132" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1260,7 +1257,7 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.25"/>
@@ -1275,7 +1272,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -1285,7 +1282,7 @@
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>10</v>
@@ -1386,10 +1383,10 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1397,7 +1394,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>40</v>
@@ -1405,7 +1402,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>42</v>
@@ -1413,17 +1410,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="120">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -233,10 +233,55 @@
     <t xml:space="preserve">7、执行版的数量</t>
   </si>
   <si>
+    <t xml:space="preserve">15、Modbus配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、RTU是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、RTU地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、波特率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、校验位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、数据位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、停止位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、TCP是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、TCP端口号</t>
+  </si>
+  <si>
     <t xml:space="preserve">pduSetCfg</t>
   </si>
   <si>
     <t xml:space="preserve">fc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 不开启 1开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9600, 19200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NoParity = 0,        EvenParity = 2,         OddParity = 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data8 = 8,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OneStop = 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">502,</t>
   </si>
   <si>
     <t xml:space="preserve">pduReadString</t>
@@ -417,7 +462,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -430,11 +475,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -463,13 +512,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:L132"/>
+  <dimension ref="A2:L159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F137" activeCellId="0" sqref="F137"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H97" activeCellId="0" sqref="H97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="14.25"/>
@@ -925,313 +974,417 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="0" t="s">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D56" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="E56" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E57" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E58" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E59" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E60" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E61" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E62" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E63" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E64" s="0" t="s">
+      <c r="D72" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E72" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F64" s="0" t="s">
+      <c r="F72" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="0" t="s">
+      <c r="G72" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H64" s="0" t="s">
+      <c r="H72" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D65" s="0" t="s">
+    <row r="73" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D73" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="E65" s="0" t="s">
+      <c r="E73" s="0" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E66" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E67" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D69" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E70" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E71" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E72" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E73" s="0" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E74" s="0" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E75" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D77" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E78" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E79" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E80" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E81" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E82" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E83" s="0" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E76" s="0" t="s">
+    <row r="84" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E84" s="0" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="0" t="s">
+    <row r="86" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D86" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E87" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C81" s="0" t="s">
+    </row>
+    <row r="88" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E88" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H88" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E89" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H89" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E90" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E91" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="H91" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E92" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E93" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C108" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D108" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="0" t="s">
+      <c r="E108" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F81" s="0" t="s">
+      <c r="F108" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G81" s="0" t="s">
+      <c r="G108" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="0" t="s">
+    <row r="109" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="G82" s="0" t="s">
+      <c r="D109" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G109" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D86" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="G86" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G87" s="0" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G88" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G89" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G90" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G91" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D95" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G95" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G96" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G97" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C106" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E106" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D107" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="G107" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D111" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="G111" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G112" s="0" t="s">
-        <v>76</v>
-      </c>
-    </row>
     <row r="113" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D113" s="0" t="s">
+        <v>89</v>
+      </c>
       <c r="G113" s="0" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G114" s="0" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G115" s="0" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G116" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G117" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G118" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D122" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G122" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G123" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G124" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H133" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C134" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G134" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D138" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G138" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G139" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G140" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G141" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G142" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G143" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D147" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G147" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G148" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G149" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" s="0" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="120" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D120" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G120" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G121" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G122" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D128" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E128" s="4" t="s">
+      <c r="E155" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F128" s="0" t="s">
+      <c r="F155" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="G128" s="4" t="s">
+      <c r="G155" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C129" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="D129" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F129" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C130" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D130" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C131" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="D131" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C132" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="D132" s="0" t="s">
-        <v>96</v>
+    <row r="156" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C156" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F156" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C157" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C158" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C159" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1260,7 +1413,7 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.25"/>
@@ -1274,18 +1427,18 @@
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="6" t="s">
-        <v>98</v>
+      <c r="C2" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>10</v>
@@ -1386,7 +1539,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>37</v>
@@ -1397,7 +1550,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>40</v>
@@ -1405,7 +1558,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>42</v>
@@ -1413,17 +1566,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -287,34 +287,34 @@
     <t xml:space="preserve">pduLogFun</t>
   </si>
   <si>
+    <t xml:space="preserve">从第几条开始</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51、日志信息</t>
+  </si>
+  <si>
     <t xml:space="preserve">1、报警 日志 </t>
   </si>
   <si>
     <t xml:space="preserve">1、日志数量 </t>
   </si>
   <si>
-    <t xml:space="preserve">第几条\页</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一页多少条日志 </t>
+    <t xml:space="preserve">多少条日志 </t>
   </si>
   <si>
     <t xml:space="preserve">2、操作日志 </t>
   </si>
   <si>
-    <t xml:space="preserve">2、读一条日志 </t>
+    <t xml:space="preserve">2、读日志 </t>
   </si>
   <si>
     <t xml:space="preserve">3、系统日志 </t>
   </si>
   <si>
-    <t xml:space="preserve">3、读一页日志</t>
+    <t xml:space="preserve">3、清除日志</t>
   </si>
   <si>
     <t xml:space="preserve">4、电能记录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、清除日志</t>
   </si>
   <si>
     <t xml:space="preserve">result</t>
@@ -348,7 +348,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -370,6 +370,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -414,7 +420,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -432,6 +438,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -462,8 +472,8 @@
   </sheetPr>
   <dimension ref="A2:L132"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C129" activeCellId="0" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1177,57 +1187,57 @@
       <c r="B128" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D128" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E128" s="4" t="s">
+      <c r="E128" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F128" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="129" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C129" s="0" t="s">
+      <c r="C129" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="E129" s="4" t="s">
+      <c r="E129" s="0" t="s">
         <v>90</v>
       </c>
       <c r="F129" s="0" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C130" s="0" t="s">
+      <c r="G129" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D130" s="0" t="s">
+    </row>
+    <row r="130" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E130" s="0" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C131" s="0" t="s">
+      <c r="F130" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="D131" s="0" t="s">
+    </row>
+    <row r="131" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E131" s="0" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C132" s="0" t="s">
+      <c r="F131" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="D132" s="0" t="s">
+    </row>
+    <row r="132" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E132" s="0" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1271,17 +1281,17 @@
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>99</v>
       </c>
       <c r="D2" s="0" t="s">

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -329,34 +329,52 @@
     <t xml:space="preserve">pduLogFun</t>
   </si>
   <si>
+    <t xml:space="preserve">从第几条开始</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51、日志信息</t>
+  </si>
+  <si>
     <t xml:space="preserve">1、报警 日志 </t>
   </si>
   <si>
     <t xml:space="preserve">1、日志数量 </t>
   </si>
   <si>
-    <t xml:space="preserve">第几条\页</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一页多少条日志 </t>
+    <t xml:space="preserve">读取多少条</t>
   </si>
   <si>
     <t xml:space="preserve">2、操作日志 </t>
   </si>
   <si>
-    <t xml:space="preserve">2、读一条日志 </t>
+    <t xml:space="preserve">2、读日志 </t>
   </si>
   <si>
     <t xml:space="preserve">3、系统日志 </t>
   </si>
   <si>
-    <t xml:space="preserve">3、读一页日志</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">清除日志</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">4、电能记录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、清除日志</t>
   </si>
   <si>
     <t xml:space="preserve">result</t>
@@ -462,7 +480,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -475,16 +493,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -514,8 +528,8 @@
   </sheetPr>
   <dimension ref="A2:L159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H97" activeCellId="0" sqref="H97"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F93" activeCellId="0" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1333,20 +1347,20 @@
       <c r="B155" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="C155" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D155" s="0" t="s">
+      <c r="E155" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="E155" s="5" t="s">
+      <c r="F155" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G155" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="F155" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G155" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1356,34 +1370,34 @@
       <c r="D156" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="E156" s="5" t="s">
+      <c r="E156" s="0" t="s">
         <v>104</v>
       </c>
       <c r="F156" s="0" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C157" s="0" t="s">
+      <c r="G156" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D157" s="0" t="s">
+    </row>
+    <row r="157" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E157" s="0" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C158" s="0" t="s">
+      <c r="F157" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="D158" s="0" t="s">
+    </row>
+    <row r="158" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E158" s="0" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C159" s="0" t="s">
+      <c r="F158" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="D159" s="0" t="s">
+    </row>
+    <row r="159" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E159" s="0" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1427,17 +1441,17 @@
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>113</v>
       </c>
       <c r="D2" s="0" t="s">

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="130">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -132,225 +132,6 @@
   </si>
   <si>
     <t xml:space="preserve">6：功率因数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5：最小值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7：传感器（门禁其他传感器）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7：视在功率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6：下临界值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8：无功功率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7：上临界值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11：温度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8：使能状态</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12：湿度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21：门禁1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22：门禁2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23：水禁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24：烟雾</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pduSetData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">具体值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1：当前值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2：额定值 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4：最大值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pduReadCfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、相</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、回路</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、输出位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13、配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0、离线标识</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、系列号（A，B，C）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、副机的数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、modbus地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、版本号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、蜂鸣器开关</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、频率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7、执行版的数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15、Modbus配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、RTU是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、RTU地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、波特率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、校验位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、数据位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、停止位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、TCP是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、TCP端口号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pduSetCfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 不开启 1开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9600, 19200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NoParity = 0,        EvenParity = 2,         OddParity = 3,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data8 = 8,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OneStop = 1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">502,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pduReadString</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10、输出位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、uut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、idc名称（数据中心）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、机房名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、模块名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、机柜名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、A,B路名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、设备名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14、用户登录信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、用户名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、预留信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pduSetString</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pduLogFun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">从第几条开始</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51、日志信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、报警 日志 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、日志数量 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">读取多少条</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、操作日志 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、读日志 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、系统日志 </t>
   </si>
   <si>
     <r>
@@ -361,7 +142,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3、</t>
+      <t xml:space="preserve">5：最小值</t>
     </r>
     <r>
       <rPr>
@@ -370,8 +151,275 @@
         <rFont val="等线"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">清除日志</t>
+      <t xml:space="preserve">（复位延时）</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">7：传感器（门禁其他传感器）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7：视在功率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6：下临界值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8：无功功率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7：上临界值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11：温度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8：使能状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12：湿度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21：门禁1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22：门禁2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23：水禁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24：烟雾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduSetData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">具体值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1：当前值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2：额定值 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4：最大值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5：最小值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduReadCfg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、相</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、回路</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、输出位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13、配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0、离线标识</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、系列号（A，B，C）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、副机的数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、modbus地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、版本号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、蜂鸣器开关</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、频率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、执行版的数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addr ＝ 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15、Modbus配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、RTU是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、RTU地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、波特率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、校验位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、数据位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、停止位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、TCP是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、TCP端口号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduSetCfg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 不开启 1开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9600, 19200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NoParity = 0,        EvenParity = 2,         OddParity = 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data8 = 8,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OneStop = 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">502,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduReadString</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10、输出位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、uut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、idc名称（数据中心）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、机房名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、模块名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、机柜名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、A,B路名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、设备名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addr ＝ 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14、用户登录信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、用户名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、预留信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16、SNMP配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、trap1地址</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">trap2地址</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">3、snmp v3 是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、账号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、密钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduSetString</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduLogFun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">从第几条开始</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51、日志信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、报警 日志 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、日志数量 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">读取多少条</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、操作日志 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、读日志 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、系统日志 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、清除日志</t>
   </si>
   <si>
     <t xml:space="preserve">4、电能记录</t>
@@ -480,7 +528,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -491,6 +539,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -526,10 +578,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:L159"/>
+  <dimension ref="A2:L177"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F93" activeCellId="0" sqref="F93"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E123" activeCellId="0" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -677,7 +729,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="0" t="s">
         <v>35</v>
       </c>
@@ -849,7 +901,7 @@
         <v>36</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -906,7 +958,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>9</v>
@@ -929,117 +981,120 @@
     </row>
     <row r="43" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D47" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E48" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E49" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E50" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E51" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E52" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E53" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E54" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="D56" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E57" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E58" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E59" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E60" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E61" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E62" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E63" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E72" s="0" t="s">
         <v>11</v>
@@ -1056,129 +1111,132 @@
     </row>
     <row r="73" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D73" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E74" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E75" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D77" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E78" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E79" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E80" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E81" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E82" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E83" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E84" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="D86" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E88" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E89" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E90" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E91" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E92" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>9</v>
@@ -1201,7 +1259,7 @@
         <v>14</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G109" s="0" t="s">
         <v>28</v>
@@ -1209,196 +1267,274 @@
     </row>
     <row r="113" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D113" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G114" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G115" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G116" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G117" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G118" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C122" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="D122" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G123" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G124" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C133" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C126" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G126" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G127" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G128" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G129" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G130" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G131" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C141" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D133" s="0" t="s">
+      <c r="D141" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E133" s="0" t="s">
+      <c r="E141" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F133" s="0" t="s">
+      <c r="F141" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G133" s="0" t="s">
+      <c r="G141" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H133" s="0" t="s">
+      <c r="H141" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C134" s="0" t="s">
+    <row r="142" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C142" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D134" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="G134" s="0" t="s">
+      <c r="D142" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G142" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D138" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="G138" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G139" s="0" t="s">
+    <row r="146" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D146" s="0" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="140" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G140" s="0" t="s">
+      <c r="G146" s="0" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G141" s="0" t="s">
+    <row r="147" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G147" s="0" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G142" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G143" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D147" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="G147" s="0" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G148" s="0" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G149" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G150" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G151" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C155" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D155" s="0" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="155" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="4" t="s">
+      <c r="G155" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G156" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="C155" s="0" t="s">
+    </row>
+    <row r="157" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G157" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C159" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G159" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G160" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G161" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G162" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G163" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G164" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B173" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C173" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="D173" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E155" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F155" s="3" t="s">
+      <c r="E173" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F173" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G155" s="3" t="s">
+      <c r="G173" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C156" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="D156" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E156" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="F156" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="G156" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E157" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="F157" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E158" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="F158" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E159" s="0" t="s">
-        <v>111</v>
+    <row r="174" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C174" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D174" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E174" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F174" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E175" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F175" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E176" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F176" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E177" s="0" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1441,18 +1577,18 @@
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="6" t="s">
-        <v>113</v>
+      <c r="C2" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>10</v>
@@ -1553,10 +1689,10 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1564,7 +1700,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>40</v>
@@ -1572,7 +1708,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>42</v>
@@ -1580,17 +1716,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="134">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -134,25 +134,7 @@
     <t xml:space="preserve">6：功率因数</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5：最小值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">（复位延时）</t>
-    </r>
+    <t xml:space="preserve">5：最小值（复位延时）</t>
   </si>
   <si>
     <t xml:space="preserve">7：传感器（门禁其他传感器）</t>
@@ -284,6 +266,18 @@
     <t xml:space="preserve">12、TCP端口号</t>
   </si>
   <si>
+    <t xml:space="preserve">17、RPC配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、RPC是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 不开启 1开启TCP 2开启Websocket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、RPC端口</t>
+  </si>
+  <si>
     <t xml:space="preserve">pduSetCfg</t>
   </si>
   <si>
@@ -356,25 +350,7 @@
     <t xml:space="preserve">1、trap1地址</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">trap2地址</t>
-    </r>
+    <t xml:space="preserve">2、trap2地址</t>
   </si>
   <si>
     <t xml:space="preserve">3、snmp v3 是否开启</t>
@@ -456,7 +432,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -478,12 +454,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -528,7 +498,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -539,10 +509,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -578,10 +544,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:L177"/>
+  <dimension ref="A2:L183"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E123" activeCellId="0" sqref="E123"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F106" activeCellId="0" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1086,455 +1052,493 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="0" t="s">
+    <row r="65" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="E65" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E66" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E72" s="0" t="s">
+      <c r="D78" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E78" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F72" s="0" t="s">
+      <c r="F78" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G72" s="0" t="s">
+      <c r="G78" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H72" s="0" t="s">
+      <c r="H78" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D73" s="0" t="s">
+    <row r="79" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D79" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="E79" s="0" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E74" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E75" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D77" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E78" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E79" s="0" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E80" s="0" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E81" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E82" s="0" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D83" s="0" t="s">
+        <v>62</v>
+      </c>
       <c r="E83" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E84" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E85" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E86" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E87" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E88" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E89" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E90" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="3" t="s">
+    <row r="92" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D92" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="E86" s="0" t="s">
+      <c r="E92" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="H86" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E87" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E88" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="H88" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E89" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H89" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E90" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="H90" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E91" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="H91" s="0" t="s">
+      <c r="H92" s="0" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E92" s="0" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E94" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="H94" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E95" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="H95" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E96" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H96" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E97" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H97" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E98" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E99" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="H93" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C108" s="0" t="s">
+      <c r="H99" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C101" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H101" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E102" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C114" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D108" s="0" t="s">
+      <c r="D114" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E108" s="0" t="s">
+      <c r="E114" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F108" s="0" t="s">
+      <c r="F114" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G108" s="0" t="s">
+      <c r="G114" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="0" t="s">
+    <row r="115" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C115" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D109" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="G109" s="0" t="s">
+      <c r="D115" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G115" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D113" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G113" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G114" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G115" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G116" s="0" t="s">
+    <row r="119" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D119" s="0" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G117" s="0" t="s">
+      <c r="G119" s="0" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G118" s="0" t="s">
+    <row r="120" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G120" s="0" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="3" t="s">
+    <row r="121" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G121" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="D122" s="0" t="s">
+    </row>
+    <row r="122" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G122" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="G122" s="0" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G123" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G124" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C128" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="126" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C126" s="3" t="s">
+      <c r="D128" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G128" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G129" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G130" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C132" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D126" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="G126" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G127" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G128" s="0" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G129" s="0" t="s">
+      <c r="D132" s="0" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="130" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G130" s="0" t="s">
+      <c r="G132" s="0" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G131" s="0" t="s">
+    <row r="133" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G133" s="0" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="0" t="s">
+    <row r="134" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G134" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="C141" s="0" t="s">
+    </row>
+    <row r="135" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G135" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G136" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G137" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C147" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D141" s="0" t="s">
+      <c r="D147" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E141" s="0" t="s">
+      <c r="E147" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F141" s="0" t="s">
+      <c r="F147" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G141" s="0" t="s">
+      <c r="G147" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H141" s="0" t="s">
+      <c r="H147" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C142" s="0" t="s">
+    <row r="148" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C148" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D142" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="G142" s="0" t="s">
+      <c r="D148" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G148" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D146" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G146" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G147" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G148" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G149" s="0" t="s">
+    <row r="152" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D152" s="0" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="150" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G150" s="0" t="s">
+      <c r="G152" s="0" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G151" s="0" t="s">
+    <row r="153" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G153" s="0" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C155" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D155" s="0" t="s">
+    <row r="154" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G154" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G155" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="G155" s="0" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G156" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G157" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C161" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G161" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G162" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G163" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C165" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="159" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C159" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D159" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="G159" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G160" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G161" s="0" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G162" s="0" t="s">
+      <c r="D165" s="0" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="163" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G163" s="0" t="s">
+      <c r="G165" s="0" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G164" s="0" t="s">
+    <row r="166" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G166" s="0" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="5" t="s">
+    <row r="167" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G167" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G168" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="C173" s="0" t="s">
+    </row>
+    <row r="169" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G169" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G170" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B179" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C179" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D173" s="4" t="s">
+      <c r="D179" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E173" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="F173" s="4" t="s">
+      <c r="E179" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F179" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G173" s="4" t="s">
+      <c r="G179" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C174" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="D174" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="E174" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="F174" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="G174" s="4" t="s">
+    <row r="180" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C180" s="0" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="175" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E175" s="0" t="s">
+      <c r="D180" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="F175" s="0" t="s">
+      <c r="E180" s="0" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="176" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E176" s="0" t="s">
+      <c r="F180" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="F176" s="0" t="s">
+      <c r="G180" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E177" s="0" t="s">
+    <row r="181" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E181" s="0" t="s">
         <v>121</v>
+      </c>
+      <c r="F181" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E182" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F182" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E183" s="0" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1577,18 +1581,18 @@
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="C1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="7" t="s">
-        <v>123</v>
+      <c r="C2" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>10</v>
@@ -1689,7 +1693,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>56</v>
@@ -1700,7 +1704,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>40</v>
@@ -1708,7 +1712,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>42</v>
@@ -1716,17 +1720,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="150">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -278,6 +278,155 @@
     <t xml:space="preserve">2、RPC端口</t>
   </si>
   <si>
+    <t xml:space="preserve">18、主动推送配置信息</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1、UDP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">推送1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">是否开启</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">UDP推送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">端口1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4、UDP推送2是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、UDP推送端口2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、设备反控模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8、设备反控端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 不开启 1UDP 2TCP 3Websocket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9、时间间隔</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">11、http</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">推送是否开启</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">13、http推送延时时间</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">14、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">http接收加密是否开启</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">15、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">http接收端口</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">pduSetCfg</t>
   </si>
   <si>
@@ -363,6 +512,43 @@
   </si>
   <si>
     <t xml:space="preserve">6、密钥</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">UDP推送地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">5、UDP推送地址2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、http推送地址</t>
   </si>
   <si>
     <t xml:space="preserve">pduSetString</t>
@@ -432,7 +618,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -454,6 +640,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -498,7 +690,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -512,6 +704,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -544,10 +740,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:L183"/>
+  <dimension ref="A2:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F106" activeCellId="0" sqref="F106"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A181" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G117" activeCellId="0" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1071,476 +1267,663 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="0" t="s">
+    <row r="68" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="E68" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E69" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E70" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E71" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E72" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D73" s="4"/>
+      <c r="E73" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D74" s="4"/>
+      <c r="E74" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D75" s="4"/>
+      <c r="E75" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E76" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E77" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E78" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E78" s="0" t="s">
+      <c r="D85" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E85" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F78" s="0" t="s">
+      <c r="F85" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G78" s="0" t="s">
+      <c r="G85" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="0" t="s">
+      <c r="H85" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D79" s="0" t="s">
+    <row r="86" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D86" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E79" s="0" t="s">
+      <c r="E86" s="0" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E80" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E81" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D83" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="E83" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E84" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E85" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E86" s="0" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E88" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D90" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E91" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E92" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E93" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E94" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E95" s="0" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E89" s="0" t="s">
+    <row r="96" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E96" s="0" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E90" s="0" t="s">
+    <row r="97" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E97" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="3" t="s">
+    <row r="99" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D99" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="E92" s="0" t="s">
+      <c r="E99" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="H92" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E93" s="0" t="s">
+      <c r="H99" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E100" s="0" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E94" s="0" t="s">
+    <row r="101" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E101" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="H94" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E95" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H95" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E96" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="H96" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E97" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="H97" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E98" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E99" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D101" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E101" s="0" t="s">
-        <v>82</v>
-      </c>
       <c r="H101" s="0" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E102" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="H102" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E103" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H103" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E104" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H104" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E105" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E106" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H108" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E109" s="0" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="0" t="s">
+    <row r="111" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E112" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E113" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E114" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D115" s="4"/>
+      <c r="E115" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D116" s="4"/>
+      <c r="E116" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H116" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D117" s="4"/>
+      <c r="E117" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C114" s="0" t="s">
+    </row>
+    <row r="118" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D118" s="4"/>
+      <c r="E118" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E119" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E120" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E121" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C132" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D132" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E114" s="0" t="s">
+      <c r="E132" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F114" s="0" t="s">
+      <c r="F132" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G114" s="0" t="s">
+      <c r="G132" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C115" s="0" t="s">
+    <row r="133" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C133" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D115" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="G115" s="0" t="s">
+      <c r="D133" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G133" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D119" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="G119" s="0" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G120" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G121" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G122" s="0" t="s">
+    <row r="137" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D137" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G137" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G138" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G139" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G140" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G141" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G142" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C146" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="G146" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G147" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G148" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C150" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G150" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G151" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G152" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G153" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G154" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G155" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C157" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G157" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G158" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G159" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D160" s="4"/>
+      <c r="G160" s="4"/>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B173" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F173" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G173" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H173" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C174" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D174" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G174" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D178" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G178" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G179" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G180" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G181" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G182" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G183" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C187" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D187" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="G187" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G188" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G189" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C191" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D191" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G191" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G192" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G193" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G194" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G195" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G196" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C198" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D198" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G198" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G199" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G200" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D202" s="4"/>
+      <c r="G202" s="4"/>
+    </row>
+    <row r="211" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B211" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E211" s="0" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="123" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G123" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G124" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C128" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D128" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="G128" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G129" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G130" s="0" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C132" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D132" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="G132" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G133" s="0" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G134" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G135" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G136" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G137" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="C147" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E147" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F147" s="0" t="s">
+      <c r="F211" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G147" s="0" t="s">
+      <c r="G211" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H147" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C148" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D148" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="G148" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D152" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="G152" s="0" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G153" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G154" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G155" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G156" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G157" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C161" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D161" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="G161" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G162" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G163" s="0" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C165" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D165" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="G165" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G166" s="0" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G167" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G168" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G169" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G170" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C179" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E179" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G179" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C180" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="D180" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="E180" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="F180" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="G180" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E181" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="F181" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E182" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F182" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E183" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
+    </row>
+    <row r="212" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C212" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D212" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E212" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F212" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E213" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="F213" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E214" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F214" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E215" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C2:G2"/>
@@ -1581,18 +1964,18 @@
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="6" t="s">
-        <v>127</v>
+      <c r="C2" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>10</v>
@@ -1693,7 +2076,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>56</v>
@@ -1704,7 +2087,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>40</v>
@@ -1712,7 +2095,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>42</v>
@@ -1720,17 +2103,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="151">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -132,6 +132,213 @@
   </si>
   <si>
     <t xml:space="preserve">6：功率因数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5：最小值（复位延时）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7：传感器（门禁其他传感器）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7：视在功率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6：下临界值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8：无功功率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7：上临界值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11：温度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8：使能状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12：湿度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21：门禁1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22：门禁2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23：水禁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24：烟雾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduSetData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">具体值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1：当前值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2：额定值 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4：最大值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5：最小值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduReadCfg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、相</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、回路</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、输出位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13、配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0、离线标识</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、系列号（A，B，C）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、副机的数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、modbus地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、版本号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、蜂鸣器开关</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、频率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、执行版的数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addr ＝ 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15、Modbus配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、RTU是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、RTU地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、波特率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、校验位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、数据位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、停止位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、TCP是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、TCP端口号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17、RPC配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、RPC是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 不开启 1开启TCP 2开启Websocket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、RPC端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18、主动推送配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、UDP推送1是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、UDP推送端口1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、UDP推送2是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、UDP推送端口2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、设备反控模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8、设备反控端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 不开启 1UDP 2TCP 3Websocket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9、时间间隔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、http推送是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13、http推送延时时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14、http接收加密是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15、http接收端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduSetCfg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 不开启 1开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9600, 19200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NoParity = 0,        EvenParity = 2,         OddParity = 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data8 = 8,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OneStop = 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">502,</t>
   </si>
   <si>
     <r>
@@ -142,7 +349,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5：最小值</t>
+      <t xml:space="preserve">0</t>
     </r>
     <r>
       <rPr>
@@ -151,163 +358,10 @@
         <rFont val="等线"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">（复位延时）</t>
+      <t xml:space="preserve">不开启 1POST 2PUT</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">7：传感器（门禁其他传感器）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7：视在功率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6：下临界值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8：无功功率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7：上临界值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11：温度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8：使能状态</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12：湿度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21：门禁1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22：门禁2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23：水禁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24：烟雾</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pduSetData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">具体值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1：当前值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2：额定值 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4：最大值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5：最小值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pduReadCfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、相</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、回路</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、输出位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13、配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0、离线标识</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、系列号（A，B，C）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、副机的数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、modbus地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、版本号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、蜂鸣器开关</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、频率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7、执行版的数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addr ＝ 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15、Modbus配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、RTU是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、RTU地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、波特率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、校验位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、数据位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、停止位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、TCP是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、TCP端口号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pduSetCfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 不开启 1开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9600, 19200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NoParity = 0,        EvenParity = 2,         OddParity = 3,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data8 = 8,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OneStop = 1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">502,</t>
-  </si>
-  <si>
     <t xml:space="preserve">pduReadString</t>
   </si>
   <si>
@@ -356,25 +410,7 @@
     <t xml:space="preserve">1、trap1地址</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">trap2地址</t>
-    </r>
+    <t xml:space="preserve">2、trap2地址</t>
   </si>
   <si>
     <t xml:space="preserve">3、snmp v3 是否开启</t>
@@ -387,6 +423,15 @@
   </si>
   <si>
     <t xml:space="preserve">6、密钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、UDP推送地址1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、UDP推送地址2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、http推送地址</t>
   </si>
   <si>
     <t xml:space="preserve">pduSetString</t>
@@ -528,7 +573,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -539,10 +584,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -578,10 +619,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:L177"/>
+  <dimension ref="A2:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E123" activeCellId="0" sqref="E123"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G162" activeCellId="0" sqref="G162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1086,457 +1127,685 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="0" t="s">
+    <row r="65" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="E65" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E66" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E69" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E70" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E71" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E72" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D73" s="3"/>
+      <c r="E73" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D74" s="3"/>
+      <c r="E74" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D75" s="3"/>
+      <c r="E75" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E76" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E77" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E78" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D85" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D86" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E87" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E88" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D90" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E91" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E92" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E93" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E94" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E95" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E96" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E97" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H99" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E100" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E101" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="H101" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E102" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="H102" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E103" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H103" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E104" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H104" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E105" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E106" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E108" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="H108" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E109" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E112" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E113" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E114" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D115" s="3"/>
+      <c r="E115" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="H115" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D116" s="3"/>
+      <c r="E116" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D117" s="3"/>
+      <c r="E117" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H117" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D118" s="3"/>
+      <c r="E118" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E119" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E120" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E121" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F72" s="0" t="s">
+      <c r="F132" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G72" s="0" t="s">
+      <c r="G132" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H72" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D73" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E73" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E74" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E75" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D77" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E78" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E79" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E80" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E81" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E82" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E83" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E84" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E86" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="H86" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E87" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E88" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="H88" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E89" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H89" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E90" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="H90" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E91" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="H91" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E92" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E93" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="0" t="s">
+    </row>
+    <row r="133" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C133" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D109" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="G109" s="0" t="s">
+      <c r="D133" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G133" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D113" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G113" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G114" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G115" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G116" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G117" s="0" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G118" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D122" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="G122" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G123" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G124" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C126" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D126" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="G126" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G127" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G128" s="0" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G129" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G130" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G131" s="0" t="s">
+    <row r="137" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D137" s="0" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="0" t="s">
+      <c r="G137" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="C141" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E141" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F141" s="0" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="138" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G138" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G139" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G140" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G141" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H141" s="0" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C142" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D142" s="0" t="s">
-        <v>90</v>
-      </c>
       <c r="G142" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C146" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="D146" s="0" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G147" s="0" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G148" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G149" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C150" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>121</v>
+      </c>
       <c r="G150" s="0" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G151" s="0" t="s">
-        <v>97</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G152" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G153" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G154" s="0" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C155" s="3" t="s">
+      <c r="G155" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C157" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D155" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="G155" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G156" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D157" s="0" t="s">
+        <v>85</v>
+      </c>
       <c r="G157" s="0" t="s">
-        <v>102</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G158" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C159" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D159" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="G159" s="0" t="s">
-        <v>104</v>
+      <c r="G159" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G160" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G161" s="0" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G162" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G163" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G164" s="0" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="5" t="s">
-        <v>111</v>
+      <c r="D160" s="3"/>
+      <c r="G160" s="3"/>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B173" s="0" t="s">
+        <v>131</v>
       </c>
       <c r="C173" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D173" s="4" t="s">
+      <c r="D173" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="F173" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F173" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G173" s="4" t="s">
+      <c r="G173" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="174" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H173" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C174" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D174" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G174" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D178" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="G178" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G179" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G180" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="D174" s="0" t="s">
+    </row>
+    <row r="181" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G181" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="E174" s="0" t="s">
+    </row>
+    <row r="182" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G182" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="F174" s="0" t="s">
+    </row>
+    <row r="183" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G183" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="G174" s="4" t="s">
+    </row>
+    <row r="187" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C187" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D187" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="G187" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G188" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G189" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C191" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="175" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E175" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="F175" s="0" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E176" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="F176" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E177" s="0" t="s">
+      <c r="D191" s="0" t="s">
         <v>121</v>
       </c>
-    </row>
+      <c r="G191" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G192" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G193" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G194" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G195" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G196" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C198" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D198" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G198" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G199" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G200" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D202" s="3"/>
+      <c r="G202" s="3"/>
+    </row>
+    <row r="211" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B211" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E211" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C212" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D212" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E212" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F212" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E213" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F213" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E214" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F214" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E215" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C2:G2"/>
@@ -1577,18 +1846,18 @@
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="C1" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="7" t="s">
-        <v>123</v>
+      <c r="C2" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>10</v>
@@ -1689,7 +1958,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>56</v>
@@ -1700,7 +1969,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>40</v>
@@ -1708,7 +1977,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>42</v>
@@ -1716,17 +1985,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -326,40 +326,22 @@
     <t xml:space="preserve">0 不开启 1开启</t>
   </si>
   <si>
-    <t xml:space="preserve">9600, 19200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NoParity = 0,        EvenParity = 2,         OddParity = 3,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data8 = 8,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OneStop = 1,</t>
+    <t xml:space="preserve">0:9600, 1:19200,2:38400,3:57600,4:115200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NoParity = 0,        EvenParity = 1,         OddParity = 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data5 = 0,Data6 = 1,Data7 = 2,Data8 = 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OneStop = 0, TwoStop=1</t>
   </si>
   <si>
     <t xml:space="preserve">502,</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">不开启 1POST 2PUT</t>
-    </r>
+    <t xml:space="preserve">0不开启 1POST 2PUT</t>
   </si>
   <si>
     <t xml:space="preserve">pduReadString</t>
@@ -501,7 +483,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -523,12 +505,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -621,8 +597,8 @@
   </sheetPr>
   <dimension ref="A2:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G162" activeCellId="0" sqref="G162"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F106" activeCellId="0" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="154">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -110,352 +110,361 @@
     <t xml:space="preserve">第几个输出位</t>
   </si>
   <si>
+    <t xml:space="preserve">4：分组数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4：功率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3：报警状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5：保留</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5：电能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4：最大值（顺序延时）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6：环境（温湿度）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6：功率因数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5：最小值（复位延时）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7：传感器（门禁其他传感器）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7：视在功率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6：下临界值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8：无功功率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7：上临界值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11：温度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8：使能状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12：湿度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21：门禁1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22：门禁2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23：水禁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24：烟雾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduSetData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">具体值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1：当前值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2：额定值 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4：最大值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5：最小值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduReadCfg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、相</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、回路</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、输出位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13、配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0、离线标识</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、系列号（A，B，C）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、副机的数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、modbus地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、版本号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、蜂鸣器开关</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、频率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、执行版的数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addr ＝ 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15、Modbus配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、RTU是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、RTU地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、波特率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、校验位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、数据位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、停止位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、TCP是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、TCP端口号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17、RPC配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、RPC是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 不开启 1开启TCP 2开启Websocket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、RPC端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18、主动推送配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、UDP推送1是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、UDP推送端口1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、UDP推送2是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、UDP推送端口2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、设备反控模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8、设备反控端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 不开启 1UDP 2TCP 3Websocket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9、时间间隔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、http推送是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13、http推送延时时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14、http接收加密是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15、http接收端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduSetCfg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 不开启 1开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:9600, 1:19200,2:38400,3:57600,4:115200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NoParity = 0,        EvenParity = 1,         OddParity = 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data5 = 0,Data6 = 1,Data7 = 2,Data8 = 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OneStop = 0, TwoStop=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">502,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0不开启 1POST 2PUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduReadString</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10、输出位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、uut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、idc名称（数据中心）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、机房名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、模块名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、机柜名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、A,B路名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、设备名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addr ＝ 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14、用户登录信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、用户名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、预留信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16、SNMP配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、trap1地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、trap2地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、snmp v3 是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、账号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、密钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、UDP推送地址1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、UDP推送地址2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、http推送地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20、组名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第几个组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduSetString</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduLogFun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">从第几条开始</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51、日志信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、报警 日志 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、日志数量 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">读取多少条</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、操作日志 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、读日志 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、系统日志 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、清除日志</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、电能记录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addr(主从机)</t>
+  </si>
+  <si>
     <t xml:space="preserve">4：保留</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4：功率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3：报警状态</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5：保留</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5：电能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4：最大值（顺序延时）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6：环境（温湿度）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6：功率因数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5：最小值（复位延时）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7：传感器（门禁其他传感器）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7：视在功率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6：下临界值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8：无功功率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7：上临界值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11：温度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8：使能状态</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12：湿度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21：门禁1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22：门禁2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23：水禁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24：烟雾</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pduSetData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">具体值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1：当前值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2：额定值 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4：最大值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5：最小值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pduReadCfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、相</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、回路</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、输出位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13、配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0、离线标识</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、系列号（A，B，C）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、副机的数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、modbus地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、版本号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、蜂鸣器开关</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、频率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7、执行版的数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addr ＝ 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15、Modbus配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、RTU是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、RTU地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、波特率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、校验位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、数据位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、停止位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、TCP是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、TCP端口号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17、RPC配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、RPC是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 不开启 1开启TCP 2开启Websocket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、RPC端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18、主动推送配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、UDP推送1是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、UDP推送端口1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、UDP推送2是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、UDP推送端口2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7、设备反控模式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8、设备反控端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 不开启 1UDP 2TCP 3Websocket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9、时间间隔</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、http推送是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13、http推送延时时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14、http接收加密是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15、http接收端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pduSetCfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 不开启 1开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0:9600, 1:19200,2:38400,3:57600,4:115200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NoParity = 0,        EvenParity = 1,         OddParity = 2,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data5 = 0,Data6 = 1,Data7 = 2,Data8 = 3,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OneStop = 0, TwoStop=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">502,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0不开启 1POST 2PUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pduReadString</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10、输出位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、uut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、idc名称（数据中心）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、机房名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、模块名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、机柜名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、A,B路名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、设备名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Addr ＝ 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14、用户登录信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、用户名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、预留信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16、SNMP配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、trap1地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、trap2地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、snmp v3 是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、账号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、密钥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、UDP推送地址1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、UDP推送地址2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、http推送地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pduSetString</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pduLogFun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">从第几条开始</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51、日志信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、报警 日志 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、日志数量 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">读取多少条</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、操作日志 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、读日志 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、系统日志 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、清除日志</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、电能记录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addr(主从机)</t>
   </si>
   <si>
     <t xml:space="preserve">6：温度</t>
@@ -597,8 +606,8 @@
   </sheetPr>
   <dimension ref="A2:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F106" activeCellId="0" sqref="F106"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A181" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D206" activeCellId="0" sqref="D206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -888,7 +897,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="0" t="s">
         <v>29</v>
       </c>
@@ -1573,9 +1582,20 @@
       <c r="D160" s="3"/>
       <c r="G160" s="3"/>
     </row>
+    <row r="161" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C161" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G161" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C173" s="0" t="s">
         <v>9</v>
@@ -1719,12 +1739,19 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D202" s="3"/>
-      <c r="G202" s="3"/>
+      <c r="C202" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D202" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G202" s="0" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C211" s="0" t="s">
         <v>9</v>
@@ -1744,40 +1771,40 @@
     </row>
     <row r="212" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C212" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F212" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E213" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F213" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E214" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F214" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E215" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1823,7 +1850,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -1833,7 +1860,7 @@
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>10</v>
@@ -1909,7 +1936,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>30</v>
@@ -1934,7 +1961,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>56</v>
@@ -1945,7 +1972,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>40</v>
@@ -1953,7 +1980,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>42</v>
@@ -1961,17 +1988,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="157">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -236,6 +236,9 @@
     <t xml:space="preserve">7、执行版的数量</t>
   </si>
   <si>
+    <t xml:space="preserve">8、组开关使能</t>
+  </si>
+  <si>
     <t xml:space="preserve">addr ＝ 0</t>
   </si>
   <si>
@@ -416,10 +419,16 @@
     <t xml:space="preserve">12、http推送地址</t>
   </si>
   <si>
-    <t xml:space="preserve">20、组名称</t>
+    <t xml:space="preserve">21、各输出位分组信息</t>
   </si>
   <si>
     <t xml:space="preserve">第几个组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0; 1; 2; 3;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22、组名称</t>
   </si>
   <si>
     <t xml:space="preserve">pduSetString</t>
@@ -492,7 +501,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -514,6 +523,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -558,7 +573,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -569,6 +584,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -604,10 +623,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:L1048576"/>
+  <dimension ref="A2:L218"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A181" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D206" activeCellId="0" sqref="D206"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F171" activeCellId="0" sqref="F171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1066,18 +1085,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="3" t="s">
+    <row r="55" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E55" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D56" s="0" t="s">
+    </row>
+    <row r="57" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="D57" s="0" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E57" s="0" t="s">
         <v>74</v>
       </c>
@@ -1102,7 +1121,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E62" s="0" t="s">
         <v>79</v>
       </c>
@@ -1112,84 +1131,84 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D65" s="0" t="s">
+    <row r="64" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E64" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="E65" s="0" t="s">
+    </row>
+    <row r="66" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="H65" s="0" t="s">
+      <c r="E66" s="0" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E66" s="0" t="s">
+      <c r="H66" s="0" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D68" s="0" t="s">
+    <row r="67" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E67" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="E68" s="0" t="s">
+    </row>
+    <row r="69" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" s="0" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E69" s="0" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="0" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E72" s="0" t="s">
+      <c r="E72" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D73" s="3"/>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="H73" s="0" t="s">
+    </row>
+    <row r="74" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D74" s="4"/>
+      <c r="E74" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D74" s="3"/>
-      <c r="E74" s="3" t="s">
+      <c r="H74" s="0" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D75" s="3"/>
-      <c r="E75" s="0" t="s">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D75" s="4"/>
+      <c r="E75" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E76" s="3" t="s">
+      <c r="D76" s="4"/>
+      <c r="E76" s="0" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E77" s="0" t="s">
+      <c r="E77" s="4" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1198,617 +1217,653 @@
         <v>97</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="0" t="s">
+    <row r="79" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E79" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C85" s="0" t="s">
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E85" s="0" t="s">
+      <c r="D86" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E86" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F85" s="0" t="s">
+      <c r="F86" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G85" s="0" t="s">
+      <c r="G86" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H85" s="0" t="s">
+      <c r="H86" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D86" s="0" t="s">
+    <row r="87" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D87" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E86" s="0" t="s">
+      <c r="E87" s="0" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E87" s="0" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E88" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E89" s="0" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D90" s="0" t="s">
+    <row r="91" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D91" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="E90" s="0" t="s">
+      <c r="E91" s="0" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E91" s="0" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E92" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E94" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E95" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E96" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E97" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E98" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="3" t="s">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E99" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="D99" s="0" t="s">
+    </row>
+    <row r="102" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E99" s="0" t="s">
+      <c r="D102" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="H99" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E100" s="0" t="s">
+      <c r="E102" s="0" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E101" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="H101" s="0" t="s">
+      <c r="H102" s="0" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E102" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H102" s="0" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="H103" s="0" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E105" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="H105" s="0" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E106" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H106" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E107" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H107" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E108" s="0" t="s">
         <v>80</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E108" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="H108" s="0" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E109" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="H111" s="0" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D111" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="E111" s="0" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E112" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C114" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E114" s="0" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E113" s="3" t="s">
+    <row r="115" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E115" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E114" s="3" t="s">
+    <row r="116" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E116" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D115" s="3"/>
-      <c r="E115" s="0" t="s">
+    <row r="117" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E117" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H115" s="0" t="s">
+    </row>
+    <row r="118" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D118" s="4"/>
+      <c r="E118" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="H118" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D119" s="4"/>
+      <c r="E119" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D116" s="3"/>
-      <c r="E116" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D117" s="3"/>
-      <c r="E117" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H117" s="0" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D118" s="3"/>
-      <c r="E118" s="0" t="s">
+    <row r="120" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D120" s="4"/>
+      <c r="E120" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="119" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E119" s="3" t="s">
+      <c r="H120" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D121" s="4"/>
+      <c r="E121" s="0" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E120" s="0" t="s">
+    <row r="122" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E122" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E121" s="0" t="s">
+    <row r="123" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E123" s="0" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="C132" s="0" t="s">
+    <row r="124" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E124" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C135" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D132" s="0" t="s">
+      <c r="D135" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E132" s="0" t="s">
+      <c r="E135" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F132" s="0" t="s">
+      <c r="F135" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G132" s="0" t="s">
+      <c r="G135" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C133" s="0" t="s">
+    <row r="136" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C136" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D133" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="G133" s="0" t="s">
+      <c r="D136" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="G136" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D137" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G137" s="0" t="s">
+    <row r="140" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D140" s="0" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="138" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G138" s="0" t="s">
+      <c r="G140" s="0" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G139" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G140" s="0" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G141" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G142" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G143" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G144" s="0" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C146" s="3" t="s">
+    <row r="145" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G145" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="D146" s="0" t="s">
+    </row>
+    <row r="149" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C149" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G146" s="0" t="s">
+      <c r="D149" s="0" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="147" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G147" s="0" t="s">
+      <c r="G149" s="0" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G148" s="0" t="s">
+    <row r="150" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G150" s="0" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C150" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D150" s="0" t="s">
+    <row r="151" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G151" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="G150" s="0" t="s">
+    </row>
+    <row r="153" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C153" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D153" s="0" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="151" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G151" s="0" t="s">
+      <c r="G153" s="0" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G152" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G153" s="0" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G154" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G155" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G156" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G157" s="0" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C157" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D157" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G157" s="0" t="s">
+    <row r="158" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G158" s="0" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G158" s="3" t="s">
+    <row r="160" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C160" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D160" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="G160" s="0" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G159" s="3" t="s">
+    <row r="161" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G161" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D160" s="3"/>
-      <c r="G160" s="3"/>
-    </row>
-    <row r="161" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C161" s="0" t="s">
+    <row r="162" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G162" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D163" s="4"/>
+      <c r="G163" s="4"/>
+    </row>
+    <row r="165" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C165" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D161" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G161" s="0" t="s">
+      <c r="D165" s="0" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="0" t="s">
+      <c r="G165" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C173" s="0" t="s">
+      <c r="H165" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C166" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="G166" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B176" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C176" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D173" s="0" t="s">
+      <c r="D176" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E173" s="0" t="s">
+      <c r="E176" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F173" s="0" t="s">
+      <c r="F176" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G173" s="0" t="s">
+      <c r="G176" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H173" s="0" t="s">
+      <c r="H176" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C174" s="0" t="s">
+    <row r="177" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C177" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D174" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="G174" s="0" t="s">
+      <c r="D177" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="G177" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D178" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G178" s="0" t="s">
+    <row r="181" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D181" s="0" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="179" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G179" s="0" t="s">
+      <c r="G181" s="0" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G180" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G181" s="0" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G182" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G183" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G184" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G185" s="0" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C187" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D187" s="0" t="s">
+    <row r="186" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G186" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C190" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D190" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="G190" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G191" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G192" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C194" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G187" s="0" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G188" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G189" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C191" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D191" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="G191" s="0" t="s">
+      <c r="D194" s="0" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="192" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G192" s="0" t="s">
+      <c r="G194" s="0" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G193" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G194" s="0" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G195" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G196" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G197" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G198" s="0" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C198" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D198" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G198" s="0" t="s">
+    <row r="199" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G199" s="0" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G199" s="3" t="s">
+    <row r="201" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C201" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D201" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="G201" s="0" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G200" s="3" t="s">
+    <row r="202" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G202" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C202" s="0" t="s">
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G203" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C205" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D202" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G202" s="0" t="s">
+      <c r="D205" s="0" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="211" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B211" s="4" t="s">
+      <c r="G205" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H205" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="C211" s="0" t="s">
+    </row>
+    <row r="206" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C206" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D206" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="G206" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B214" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C214" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D211" s="3" t="s">
+      <c r="D214" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E211" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="F211" s="3" t="s">
+      <c r="E214" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F214" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G211" s="3" t="s">
+      <c r="G214" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C212" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D212" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="E212" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="F212" s="0" t="s">
+    <row r="215" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C215" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="G212" s="3" t="s">
+      <c r="D215" s="0" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="213" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E213" s="0" t="s">
+      <c r="E215" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="F213" s="0" t="s">
+      <c r="F215" s="0" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="214" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E214" s="0" t="s">
+      <c r="G215" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F214" s="0" t="s">
+    </row>
+    <row r="216" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E216" s="0" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="215" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E215" s="0" t="s">
+      <c r="F216" s="0" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E217" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="F217" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E218" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C2:G2"/>
@@ -1849,18 +1904,18 @@
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="6" t="s">
-        <v>146</v>
+      <c r="C2" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>10</v>
@@ -1936,7 +1991,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>30</v>
@@ -1961,7 +2016,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>56</v>
@@ -1972,7 +2027,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>40</v>
@@ -1980,7 +2035,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>42</v>
@@ -1988,17 +2043,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="158">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -429,6 +429,9 @@
   </si>
   <si>
     <t xml:space="preserve">22、组名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23、二维码</t>
   </si>
   <si>
     <t xml:space="preserve">pduSetString</t>
@@ -501,7 +504,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -523,12 +526,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -573,7 +570,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -584,10 +581,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -625,8 +618,8 @@
   </sheetPr>
   <dimension ref="A2:L218"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F171" activeCellId="0" sqref="F171"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A157" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D175" activeCellId="0" sqref="D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1091,7 +1084,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D57" s="0" t="s">
@@ -1137,7 +1130,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D66" s="0" t="s">
@@ -1156,7 +1149,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D69" s="0" t="s">
@@ -1172,12 +1165,12 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1187,8 +1180,8 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D74" s="4"/>
-      <c r="E74" s="4" t="s">
+      <c r="D74" s="3"/>
+      <c r="E74" s="3" t="s">
         <v>92</v>
       </c>
       <c r="H74" s="0" t="s">
@@ -1196,19 +1189,19 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D75" s="4"/>
-      <c r="E75" s="4" t="s">
+      <c r="D75" s="3"/>
+      <c r="E75" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D76" s="4"/>
+      <c r="D76" s="3"/>
       <c r="E76" s="0" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="3" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1312,7 +1305,7 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D102" s="0" t="s">
@@ -1371,12 +1364,12 @@
       <c r="E109" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="H109" s="4" t="s">
+      <c r="H109" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D111" s="0" t="s">
@@ -1395,7 +1388,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D114" s="0" t="s">
@@ -1411,17 +1404,17 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E116" s="4" t="s">
+      <c r="E116" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E117" s="4" t="s">
+      <c r="E117" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D118" s="4"/>
+      <c r="D118" s="3"/>
       <c r="E118" s="0" t="s">
         <v>91</v>
       </c>
@@ -1430,14 +1423,14 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D119" s="4"/>
-      <c r="E119" s="4" t="s">
+      <c r="D119" s="3"/>
+      <c r="E119" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D120" s="4"/>
-      <c r="E120" s="4" t="s">
+      <c r="D120" s="3"/>
+      <c r="E120" s="3" t="s">
         <v>94</v>
       </c>
       <c r="H120" s="0" t="s">
@@ -1445,13 +1438,13 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D121" s="4"/>
+      <c r="D121" s="3"/>
       <c r="E121" s="0" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E122" s="4" t="s">
+      <c r="E122" s="3" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1530,7 +1523,7 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C149" s="4" t="s">
+      <c r="C149" s="3" t="s">
         <v>117</v>
       </c>
       <c r="D149" s="0" t="s">
@@ -1551,7 +1544,7 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C153" s="4" t="s">
+      <c r="C153" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D153" s="0" t="s">
@@ -1587,7 +1580,7 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C160" s="4" t="s">
+      <c r="C160" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D160" s="0" t="s">
@@ -1598,18 +1591,18 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G161" s="4" t="s">
+      <c r="G161" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G162" s="4" t="s">
+      <c r="G162" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D163" s="4"/>
-      <c r="G163" s="4"/>
+      <c r="D163" s="3"/>
+      <c r="G163" s="3"/>
     </row>
     <row r="165" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C165" s="3" t="s">
@@ -1636,9 +1629,17 @@
         <v>133</v>
       </c>
     </row>
+    <row r="167" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C167" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D167" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C176" s="0" t="s">
         <v>9</v>
@@ -1704,7 +1705,7 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C190" s="4" t="s">
+      <c r="C190" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D190" s="0" t="s">
@@ -1725,7 +1726,7 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C194" s="4" t="s">
+      <c r="C194" s="3" t="s">
         <v>117</v>
       </c>
       <c r="D194" s="0" t="s">
@@ -1761,7 +1762,7 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C201" s="4" t="s">
+      <c r="C201" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D201" s="0" t="s">
@@ -1772,12 +1773,12 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G202" s="4" t="s">
+      <c r="G202" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G203" s="4" t="s">
+      <c r="G203" s="3" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1806,62 +1807,70 @@
         <v>133</v>
       </c>
     </row>
+    <row r="207" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C207" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D207" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
     <row r="214" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B214" s="5" t="s">
-        <v>137</v>
+      <c r="B214" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="C214" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D214" s="4" t="s">
+      <c r="D214" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E214" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="F214" s="4" t="s">
+      <c r="F214" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G214" s="4" t="s">
+      <c r="G214" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C215" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G215" s="4" t="s">
         <v>142</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E216" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F216" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E217" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E218" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1904,18 +1913,18 @@
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="C1" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="7" t="s">
-        <v>149</v>
+      <c r="C2" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>10</v>
@@ -1991,7 +2000,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>30</v>
@@ -2016,7 +2025,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>56</v>
@@ -2027,7 +2036,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>40</v>
@@ -2035,7 +2044,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>42</v>
@@ -2043,17 +2052,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="161">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -272,13 +272,78 @@
     <t xml:space="preserve">17、RPC配置信息</t>
   </si>
   <si>
-    <t xml:space="preserve">1、RPC是否开启</t>
+    <t xml:space="preserve">1、JSON-RPC是否开启</t>
   </si>
   <si>
     <t xml:space="preserve">0 不开启 1开启TCP 2开启Websocket</t>
   </si>
   <si>
-    <t xml:space="preserve">2、RPC端口</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">JSON-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">RPC端口</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4、XML-RPC是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 不开启 1开启Http</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5、XML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">RPC端口</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">18、主动推送配置信息</t>
@@ -504,7 +569,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -526,6 +591,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -616,10 +687,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:L218"/>
+  <dimension ref="A2:L224"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A157" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D175" activeCellId="0" sqref="D175"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D126" activeCellId="0" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1148,29 +1219,27 @@
         <v>85</v>
       </c>
     </row>
+    <row r="68" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E68" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
     <row r="69" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="3" t="s">
+      <c r="E69" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D69" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E70" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E71" s="3" t="s">
+      <c r="D72" s="0" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="0" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1180,176 +1249,167 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H74" s="0" t="s">
+    </row>
+    <row r="75" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E75" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D75" s="3"/>
-      <c r="E75" s="3" t="s">
+    <row r="76" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E76" s="0" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D76" s="3"/>
-      <c r="E76" s="0" t="s">
+    <row r="77" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D77" s="3"/>
+      <c r="E77" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E77" s="3" t="s">
+      <c r="H77" s="0" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E78" s="0" t="s">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D78" s="3"/>
+      <c r="E78" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D79" s="3"/>
       <c r="E79" s="0" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="0" t="s">
+    <row r="80" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E80" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C86" s="0" t="s">
+    </row>
+    <row r="81" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E81" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E82" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D86" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="E86" s="0" t="s">
+      <c r="D89" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E89" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F86" s="0" t="s">
+      <c r="F89" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G86" s="0" t="s">
+      <c r="G89" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H86" s="0" t="s">
+      <c r="H89" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D87" s="0" t="s">
+    <row r="90" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D90" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E87" s="0" t="s">
+      <c r="E90" s="0" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E88" s="0" t="s">
+    <row r="91" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E91" s="0" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E89" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D91" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="E91" s="0" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E92" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E93" s="0" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D94" s="0" t="s">
+        <v>62</v>
+      </c>
       <c r="E94" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E95" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E96" s="0" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E97" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E98" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E99" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E100" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E101" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E99" s="0" t="s">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E102" s="0" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="3" t="s">
+    <row r="105" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="D105" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="E102" s="0" t="s">
+      <c r="E105" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="H102" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E103" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E104" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H104" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E105" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="H105" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E106" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="H106" s="0" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E107" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H107" s="0" t="s">
         <v>105</v>
@@ -1357,34 +1417,39 @@
     </row>
     <row r="108" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E108" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="H108" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E109" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>106</v>
+        <v>78</v>
+      </c>
+      <c r="H109" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E110" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H110" s="0" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D111" s="0" t="s">
-        <v>82</v>
-      </c>
       <c r="E111" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="H111" s="0" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E112" s="0" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1392,485 +1457,517 @@
         <v>72</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="H114" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E115" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E116" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="H116" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E117" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E116" s="3" t="s">
+    <row r="120" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C120" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D120" s="0" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E117" s="3" t="s">
+      <c r="E120" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D118" s="3"/>
-      <c r="E118" s="0" t="s">
+    <row r="121" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E121" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="H118" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D119" s="3"/>
-      <c r="E119" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D120" s="3"/>
-      <c r="E120" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H120" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D121" s="3"/>
-      <c r="E121" s="0" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E122" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E123" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D124" s="3"/>
+      <c r="E124" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="H124" s="0" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E123" s="0" t="s">
+    <row r="125" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D125" s="3"/>
+      <c r="E125" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D126" s="3"/>
+      <c r="E126" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E124" s="0" t="s">
+      <c r="H126" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D127" s="3"/>
+      <c r="E127" s="0" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C135" s="0" t="s">
+    <row r="128" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E128" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E129" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E130" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C141" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D135" s="0" t="s">
+      <c r="D141" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E135" s="0" t="s">
+      <c r="E141" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F135" s="0" t="s">
+      <c r="F141" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G135" s="0" t="s">
+      <c r="G141" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C136" s="0" t="s">
+    <row r="142" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C142" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D136" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G136" s="0" t="s">
+      <c r="D142" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G142" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D140" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="G140" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G141" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G142" s="0" t="s">
+    <row r="146" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D146" s="0" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="143" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G143" s="0" t="s">
+      <c r="G146" s="0" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G144" s="0" t="s">
+    <row r="147" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G147" s="0" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G145" s="0" t="s">
+    <row r="148" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G148" s="0" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C149" s="3" t="s">
+    <row r="149" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G149" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="D149" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="G149" s="0" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G150" s="0" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G151" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C155" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D155" s="0" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="153" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C153" s="3" t="s">
+      <c r="G155" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G156" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G157" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C159" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D153" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="G153" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G154" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G155" s="0" t="s">
+      <c r="D159" s="0" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="156" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G156" s="0" t="s">
+      <c r="G159" s="0" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G157" s="0" t="s">
+    <row r="160" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G160" s="0" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G158" s="0" t="s">
+    <row r="161" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G161" s="0" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C160" s="3" t="s">
+    <row r="162" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G162" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G163" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G164" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C166" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D160" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="G160" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G161" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G162" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D163" s="3"/>
-      <c r="G163" s="3"/>
-    </row>
-    <row r="165" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C165" s="3" t="s">
+      <c r="D166" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G166" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G167" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G168" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D169" s="3"/>
+      <c r="G169" s="3"/>
+    </row>
+    <row r="171" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C171" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D165" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G165" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H165" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C166" s="0" t="s">
+      <c r="D171" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C172" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D166" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="G166" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C167" s="0" t="s">
+      <c r="D172" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="G172" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C173" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D167" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="C176" s="0" t="s">
+      <c r="D173" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B182" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C182" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D176" s="0" t="s">
+      <c r="D182" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E176" s="0" t="s">
+      <c r="E182" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F176" s="0" t="s">
+      <c r="F182" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G176" s="0" t="s">
+      <c r="G182" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H176" s="0" t="s">
+      <c r="H182" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C177" s="0" t="s">
+    <row r="183" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C183" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D177" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G177" s="0" t="s">
+      <c r="D183" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G183" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D181" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="G181" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G182" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G183" s="0" t="s">
+    <row r="187" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D187" s="0" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="184" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G184" s="0" t="s">
+      <c r="G187" s="0" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G185" s="0" t="s">
+    <row r="188" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G188" s="0" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G186" s="0" t="s">
+    <row r="189" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G189" s="0" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C190" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D190" s="0" t="s">
-        <v>118</v>
-      </c>
+    <row r="190" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G190" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G191" s="0" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G192" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C196" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D196" s="0" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="194" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C194" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D194" s="0" t="s">
+      <c r="G196" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="G194" s="0" t="s">
+    </row>
+    <row r="197" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G197" s="0" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G195" s="0" t="s">
+    <row r="198" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G198" s="0" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G196" s="0" t="s">
+    <row r="200" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C200" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D200" s="0" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="197" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G197" s="0" t="s">
+      <c r="G200" s="0" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G198" s="0" t="s">
+    <row r="201" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G201" s="0" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G199" s="0" t="s">
+    <row r="202" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G202" s="0" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C201" s="3" t="s">
+    <row r="203" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G203" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G204" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G205" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C207" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D201" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="G201" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G202" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G203" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C205" s="3" t="s">
+      <c r="D207" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G207" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G208" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G209" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C211" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D205" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G205" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H205" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C206" s="0" t="s">
+      <c r="D211" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H211" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C212" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D206" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="G206" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C207" s="0" t="s">
+      <c r="D212" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="G212" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C213" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D207" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B214" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C214" s="0" t="s">
+      <c r="D213" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B220" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C220" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D214" s="3" t="s">
+      <c r="D220" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E214" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="F214" s="3" t="s">
+      <c r="E220" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F220" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G214" s="3" t="s">
+      <c r="G220" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C215" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="D215" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E215" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="F215" s="0" t="s">
+    <row r="221" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C221" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="G215" s="3" t="s">
+      <c r="D221" s="0" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="216" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E216" s="0" t="s">
+      <c r="E221" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="F216" s="0" t="s">
+      <c r="F221" s="0" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="217" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E217" s="0" t="s">
+      <c r="G221" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F217" s="0" t="s">
+    </row>
+    <row r="222" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E222" s="0" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="218" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E218" s="0" t="s">
+      <c r="F222" s="0" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E223" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F223" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E224" s="0" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1914,7 +2011,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -1924,7 +2021,7 @@
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>10</v>
@@ -2000,7 +2097,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>30</v>
@@ -2025,7 +2122,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>56</v>
@@ -2036,7 +2133,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>40</v>
@@ -2044,7 +2141,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>42</v>
@@ -2052,17 +2149,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="163">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -278,35 +278,7 @@
     <t xml:space="preserve">0 不开启 1开启TCP 2开启Websocket</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">JSON-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">RPC端口</t>
-    </r>
+    <t xml:space="preserve">2、JSON-RPC端口</t>
   </si>
   <si>
     <t xml:space="preserve">4、XML-RPC是否开启</t>
@@ -315,35 +287,7 @@
     <t xml:space="preserve">0 不开启 1开启Http</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5、XML</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">RPC端口</t>
-    </r>
+    <t xml:space="preserve">5、XML-RPC端口</t>
   </si>
   <si>
     <t xml:space="preserve">18、主动推送配置信息</t>
@@ -454,6 +398,9 @@
     <t xml:space="preserve">3、预留信息</t>
   </si>
   <si>
+    <t xml:space="preserve">4、权限</t>
+  </si>
+  <si>
     <t xml:space="preserve">16、SNMP配置信息</t>
   </si>
   <si>
@@ -500,6 +447,9 @@
   </si>
   <si>
     <t xml:space="preserve">pduSetString</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、登陆验证</t>
   </si>
   <si>
     <t xml:space="preserve">pduLogFun</t>
@@ -569,7 +519,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -591,12 +541,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -687,10 +631,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:L224"/>
+  <dimension ref="A2:L228"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D126" activeCellId="0" sqref="D126"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H161" activeCellId="0" sqref="H161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1640,334 +1584,349 @@
         <v>124</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C159" s="3" t="s">
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G158" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C161" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D159" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="G159" s="0" t="s">
+      <c r="D161" s="0" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="160" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G160" s="0" t="s">
+      <c r="G161" s="0" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G161" s="0" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G162" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G163" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G164" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G165" s="0" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C166" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D166" s="0" t="s">
-        <v>89</v>
-      </c>
       <c r="G166" s="0" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G167" s="3" t="s">
+    <row r="168" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C168" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D168" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G168" s="0" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G168" s="3" t="s">
+    <row r="169" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G169" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D169" s="3"/>
-      <c r="G169" s="3"/>
+    <row r="170" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G170" s="3" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C171" s="3" t="s">
+      <c r="D171" s="3"/>
+      <c r="G171" s="3"/>
+    </row>
+    <row r="173" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C173" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D171" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="G171" s="3" t="s">
+      <c r="D173" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="H171" s="3" t="s">
+      <c r="G173" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="172" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C172" s="0" t="s">
+      <c r="H173" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C174" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D172" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="G172" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C173" s="0" t="s">
+      <c r="D174" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G174" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C175" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D173" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B182" s="0" t="s">
+      <c r="D175" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="C182" s="0" t="s">
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B184" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C184" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D182" s="0" t="s">
+      <c r="D184" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E182" s="0" t="s">
+      <c r="E184" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F182" s="0" t="s">
+      <c r="F184" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G182" s="0" t="s">
+      <c r="G184" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H182" s="0" t="s">
+      <c r="H184" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C183" s="0" t="s">
+    <row r="185" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C185" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D183" s="0" t="s">
+      <c r="D185" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="G183" s="0" t="s">
+      <c r="G185" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D187" s="0" t="s">
+    <row r="189" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D189" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="G187" s="0" t="s">
+      <c r="G189" s="0" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G188" s="0" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G189" s="0" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G190" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G191" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G192" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G193" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G194" s="0" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C196" s="3" t="s">
+    <row r="198" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C198" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D196" s="0" t="s">
+      <c r="D198" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="G196" s="0" t="s">
+      <c r="G198" s="0" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G197" s="0" t="s">
+    <row r="199" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G199" s="0" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G198" s="0" t="s">
+    <row r="200" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G200" s="0" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C200" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D200" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="G200" s="0" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G201" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G202" s="0" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G203" s="0" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C204" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D204" s="0" t="s">
+        <v>126</v>
+      </c>
       <c r="G204" s="0" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G205" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G206" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G207" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G208" s="0" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C207" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D207" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="G207" s="0" t="s">
+    <row r="209" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G209" s="0" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G208" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G209" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C211" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D211" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G211" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G212" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G213" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C215" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D211" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="G211" s="3" t="s">
+      <c r="D215" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="H211" s="0" t="s">
+      <c r="G215" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="212" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C212" s="0" t="s">
+      <c r="H215" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C216" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D212" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="G212" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C213" s="0" t="s">
+      <c r="D216" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G216" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C217" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D213" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B220" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C220" s="0" t="s">
+      <c r="D217" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B224" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C224" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D220" s="3" t="s">
+      <c r="D224" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E220" s="0" t="s">
+      <c r="E224" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="F220" s="3" t="s">
+      <c r="F224" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G220" s="3" t="s">
+      <c r="G224" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C221" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D221" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="E221" s="0" t="s">
+    <row r="225" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C225" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="F221" s="0" t="s">
+      <c r="D225" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="G221" s="3" t="s">
+      <c r="E225" s="0" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="222" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E222" s="0" t="s">
+      <c r="F225" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="F222" s="0" t="s">
+      <c r="G225" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E223" s="0" t="s">
+    <row r="226" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E226" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="F223" s="0" t="s">
+      <c r="F226" s="0" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E224" s="0" t="s">
+    <row r="227" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E227" s="0" t="s">
         <v>151</v>
+      </c>
+      <c r="F227" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E228" s="0" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +1970,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -2021,7 +1980,7 @@
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>10</v>
@@ -2097,7 +2056,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>30</v>
@@ -2122,7 +2081,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>56</v>
@@ -2133,7 +2092,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>40</v>
@@ -2141,7 +2100,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>42</v>
@@ -2149,17 +2108,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="164">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t xml:space="preserve">14、http接收加密是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0不开启 1HTTP 2HTTPS</t>
   </si>
   <si>
     <t xml:space="preserve">15、http接收端口</t>
@@ -519,7 +522,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -541,6 +544,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -585,7 +594,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -599,6 +608,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -633,8 +646,8 @@
   </sheetPr>
   <dimension ref="A2:L228"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H161" activeCellId="0" sqref="H161"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H81" activeCellId="0" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1237,21 +1250,24 @@
       <c r="E81" s="0" t="s">
         <v>100</v>
       </c>
+      <c r="H81" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E82" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E89" s="0" t="s">
         <v>11</v>
@@ -1343,7 +1359,7 @@
         <v>74</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1356,7 +1372,7 @@
         <v>76</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1364,7 +1380,7 @@
         <v>77</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1372,7 +1388,7 @@
         <v>78</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1380,7 +1396,7 @@
         <v>79</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1393,7 +1409,7 @@
         <v>81</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1475,7 +1491,7 @@
         <v>97</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,15 +1509,18 @@
       <c r="E129" s="0" t="s">
         <v>100</v>
       </c>
+      <c r="H129" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E130" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C141" s="0" t="s">
         <v>9</v>
@@ -1524,7 +1543,7 @@
         <v>14</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G142" s="0" t="s">
         <v>28</v>
@@ -1532,61 +1551,61 @@
     </row>
     <row r="146" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D146" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G147" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G148" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G149" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G150" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G151" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C155" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G156" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G157" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G158" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1594,35 +1613,35 @@
         <v>72</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G162" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G163" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G164" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G165" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G166" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1633,17 +1652,17 @@
         <v>89</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G169" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G170" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1655,13 +1674,13 @@
         <v>14</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1669,10 +1688,10 @@
         <v>14</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1680,12 +1699,12 @@
         <v>14</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C184" s="0" t="s">
         <v>9</v>
@@ -1711,7 +1730,7 @@
         <v>14</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G185" s="0" t="s">
         <v>28</v>
@@ -1719,35 +1738,35 @@
     </row>
     <row r="189" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D189" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G190" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G191" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G192" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G193" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G194" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1755,66 +1774,66 @@
         <v>72</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G199" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G200" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G201" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G202" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C204" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G205" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G206" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G207" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G208" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G209" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1825,17 +1844,17 @@
         <v>89</v>
       </c>
       <c r="G211" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G212" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G213" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1843,13 +1862,13 @@
         <v>14</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H215" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1857,10 +1876,10 @@
         <v>14</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G216" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1868,12 +1887,12 @@
         <v>14</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B224" s="4" t="s">
-        <v>143</v>
+      <c r="B224" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="C224" s="0" t="s">
         <v>9</v>
@@ -1882,7 +1901,7 @@
         <v>10</v>
       </c>
       <c r="E224" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>12</v>
@@ -1893,40 +1912,40 @@
     </row>
     <row r="225" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C225" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E225" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E226" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E227" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E228" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1952,7 +1971,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="H81 D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1969,18 +1988,18 @@
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="6" t="s">
-        <v>155</v>
+      <c r="C2" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>10</v>
@@ -2056,7 +2075,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>30</v>
@@ -2081,7 +2100,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>56</v>
@@ -2092,7 +2111,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>40</v>
@@ -2100,7 +2119,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>42</v>
@@ -2108,17 +2127,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="165">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -386,6 +386,12 @@
     <t xml:space="preserve">6、设备名称</t>
   </si>
   <si>
+    <t xml:space="preserve">7、设备SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8、二维码</t>
+  </si>
+  <si>
     <t xml:space="preserve">Addr ＝ 0</t>
   </si>
   <si>
@@ -444,9 +450,6 @@
   </si>
   <si>
     <t xml:space="preserve">22、组名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23、二维码</t>
   </si>
   <si>
     <t xml:space="preserve">pduSetString</t>
@@ -522,7 +525,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -544,12 +547,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -594,7 +591,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -608,10 +605,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -646,8 +639,8 @@
   </sheetPr>
   <dimension ref="A2:L228"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H81" activeCellId="0" sqref="H81"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C175" activeCellId="0" sqref="C175:D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1250,7 +1243,7 @@
       <c r="E81" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="H81" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1509,7 +1502,7 @@
       <c r="E129" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="H129" s="4" t="s">
+      <c r="H129" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1582,30 +1575,40 @@
         <v>120</v>
       </c>
     </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G152" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G153" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
     <row r="155" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C155" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G156" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G157" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G158" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1613,35 +1616,35 @@
         <v>72</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G162" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G163" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G164" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G165" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G166" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1652,17 +1655,17 @@
         <v>89</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G169" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G170" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1674,13 +1677,13 @@
         <v>14</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1688,23 +1691,15 @@
         <v>14</v>
       </c>
       <c r="D174" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="G174" s="0" t="s">
         <v>140</v>
-      </c>
-      <c r="G174" s="0" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C175" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D175" s="0" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C184" s="0" t="s">
         <v>9</v>
@@ -1769,71 +1764,81 @@
         <v>120</v>
       </c>
     </row>
+    <row r="195" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G195" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G196" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
     <row r="198" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C198" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G199" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G200" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G201" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G202" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C204" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G205" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G206" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G207" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G208" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G209" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1844,17 +1849,17 @@
         <v>89</v>
       </c>
       <c r="G211" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G212" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G213" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1862,13 +1867,13 @@
         <v>14</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H215" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1876,23 +1881,15 @@
         <v>14</v>
       </c>
       <c r="D216" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="G216" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="G216" s="0" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C217" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D217" s="0" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="224" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B224" s="5" t="s">
-        <v>144</v>
+      <c r="B224" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="C224" s="0" t="s">
         <v>9</v>
@@ -1912,40 +1909,40 @@
     </row>
     <row r="225" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C225" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E225" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E226" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E227" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E228" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1971,7 +1968,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="H81 D4"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="C175:D175 D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1988,18 +1985,18 @@
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="C1" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="7" t="s">
-        <v>156</v>
+      <c r="C2" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>10</v>
@@ -2075,7 +2072,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>30</v>
@@ -2100,7 +2097,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>56</v>
@@ -2111,7 +2108,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>40</v>
@@ -2119,7 +2116,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>42</v>
@@ -2127,17 +2124,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="166">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -489,6 +489,9 @@
   </si>
   <si>
     <t xml:space="preserve">4、电能记录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、硬件故障记录</t>
   </si>
   <si>
     <t xml:space="preserve">result</t>
@@ -637,10 +640,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:L228"/>
+  <dimension ref="A2:L229"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C175" activeCellId="0" sqref="C175:D175"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A214" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F235" activeCellId="0" sqref="F235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1943,6 +1946,11 @@
     <row r="228" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E228" s="0" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E229" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1968,7 +1976,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="C175:D175 D4"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1986,7 +1994,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -1996,7 +2004,7 @@
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>10</v>
@@ -2072,7 +2080,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>30</v>
@@ -2097,7 +2105,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>56</v>
@@ -2108,7 +2116,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>40</v>
@@ -2116,7 +2124,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>42</v>
@@ -2124,17 +2132,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -640,10 +640,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:L229"/>
+  <dimension ref="A2:L249"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A214" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F235" activeCellId="0" sqref="F235"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D89" activeCellId="0" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1255,701 +1255,701 @@
         <v>102</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="0" t="s">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C109" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D109" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="E89" s="0" t="s">
+      <c r="E109" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F89" s="0" t="s">
+      <c r="F109" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G89" s="0" t="s">
+      <c r="G109" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H89" s="0" t="s">
+      <c r="H109" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D90" s="0" t="s">
+    <row r="110" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D110" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E90" s="0" t="s">
+      <c r="E110" s="0" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E91" s="0" t="s">
+    <row r="111" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E111" s="0" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E92" s="0" t="s">
+    <row r="112" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E112" s="0" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D94" s="0" t="s">
+    <row r="114" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D114" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="E94" s="0" t="s">
+      <c r="E114" s="0" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E95" s="0" t="s">
+    <row r="115" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E115" s="0" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E96" s="0" t="s">
+    <row r="116" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E116" s="0" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E97" s="0" t="s">
+    <row r="117" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E117" s="0" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E98" s="0" t="s">
+    <row r="118" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E118" s="0" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E99" s="0" t="s">
+    <row r="119" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E119" s="0" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E100" s="0" t="s">
+    <row r="120" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E120" s="0" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E101" s="0" t="s">
+    <row r="121" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E121" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E102" s="0" t="s">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E122" s="0" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="3" t="s">
+    <row r="125" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C125" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D125" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="E105" s="0" t="s">
+      <c r="E125" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="H105" s="0" t="s">
+      <c r="H125" s="0" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E106" s="0" t="s">
+    <row r="126" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E126" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E107" s="0" t="s">
+    <row r="127" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E127" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="H107" s="0" t="s">
+      <c r="H127" s="0" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E108" s="0" t="s">
+    <row r="128" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E128" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="H108" s="0" t="s">
+      <c r="H128" s="0" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E109" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="H109" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E110" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="H110" s="0" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E111" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E112" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C114" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D114" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E114" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="H114" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E115" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E116" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="H116" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E117" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D120" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="E120" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E121" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E122" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E123" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D124" s="3"/>
-      <c r="E124" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="H124" s="0" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D125" s="3"/>
-      <c r="E125" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D126" s="3"/>
-      <c r="E126" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H126" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D127" s="3"/>
-      <c r="E127" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E128" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E129" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="H129" s="3" t="s">
-        <v>101</v>
+        <v>78</v>
+      </c>
+      <c r="H129" s="0" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E130" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H130" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E131" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E132" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C134" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="H134" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E135" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E136" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="H136" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E137" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C140" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E141" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E142" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E143" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D144" s="3"/>
+      <c r="E144" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="H144" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D145" s="3"/>
+      <c r="E145" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D146" s="3"/>
+      <c r="E146" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H146" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D147" s="3"/>
+      <c r="E147" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E148" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E149" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E150" s="0" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="0" t="s">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="C141" s="0" t="s">
+      <c r="C161" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D141" s="0" t="s">
+      <c r="D161" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E141" s="0" t="s">
+      <c r="E161" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F141" s="0" t="s">
+      <c r="F161" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G141" s="0" t="s">
+      <c r="G161" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C142" s="0" t="s">
+    <row r="162" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C162" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D142" s="0" t="s">
+      <c r="D162" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="G142" s="0" t="s">
+      <c r="G162" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D146" s="0" t="s">
+    <row r="166" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D166" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="G146" s="0" t="s">
+      <c r="G166" s="0" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G147" s="0" t="s">
+    <row r="167" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G167" s="0" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G148" s="0" t="s">
+    <row r="168" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G168" s="0" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G149" s="0" t="s">
+    <row r="169" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G169" s="0" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G150" s="0" t="s">
+    <row r="170" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G170" s="0" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G151" s="0" t="s">
+    <row r="171" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G171" s="0" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G152" s="0" t="s">
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G172" s="0" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G153" s="0" t="s">
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G173" s="0" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C155" s="3" t="s">
+    <row r="175" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C175" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D155" s="0" t="s">
+      <c r="D175" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="G155" s="0" t="s">
+      <c r="G175" s="0" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G156" s="0" t="s">
+    <row r="176" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G176" s="0" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G157" s="0" t="s">
+    <row r="177" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G177" s="0" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G158" s="0" t="s">
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G178" s="0" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C161" s="3" t="s">
+    <row r="181" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C181" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D161" s="0" t="s">
+      <c r="D181" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="G161" s="0" t="s">
+      <c r="G181" s="0" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G162" s="0" t="s">
+    <row r="182" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G182" s="0" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G163" s="0" t="s">
+    <row r="183" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G183" s="0" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G164" s="0" t="s">
+    <row r="184" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G184" s="0" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G165" s="0" t="s">
+    <row r="185" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G185" s="0" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G166" s="0" t="s">
+    <row r="186" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G186" s="0" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C168" s="3" t="s">
+    <row r="188" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C188" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D168" s="0" t="s">
+      <c r="D188" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="G168" s="0" t="s">
+      <c r="G188" s="0" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G169" s="3" t="s">
+    <row r="189" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G189" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G170" s="3" t="s">
+    <row r="190" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G190" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D171" s="3"/>
-      <c r="G171" s="3"/>
-    </row>
-    <row r="173" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C173" s="3" t="s">
+    <row r="191" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D191" s="3"/>
+      <c r="G191" s="3"/>
+    </row>
+    <row r="193" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C193" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D173" s="0" t="s">
+      <c r="D193" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="G173" s="3" t="s">
+      <c r="G193" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H173" s="3" t="s">
+      <c r="H193" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C174" s="0" t="s">
+    <row r="194" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C194" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D174" s="0" t="s">
+      <c r="D194" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="G174" s="0" t="s">
+      <c r="G194" s="0" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B184" s="0" t="s">
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B204" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="C184" s="0" t="s">
+      <c r="C204" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D184" s="0" t="s">
+      <c r="D204" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E184" s="0" t="s">
+      <c r="E204" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F184" s="0" t="s">
+      <c r="F204" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G184" s="0" t="s">
+      <c r="G204" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H184" s="0" t="s">
+      <c r="H204" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C185" s="0" t="s">
+    <row r="205" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C205" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D185" s="0" t="s">
+      <c r="D205" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="G185" s="0" t="s">
+      <c r="G205" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D189" s="0" t="s">
+    <row r="209" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D209" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="G189" s="0" t="s">
+      <c r="G209" s="0" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G190" s="0" t="s">
+    <row r="210" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G210" s="0" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G191" s="0" t="s">
+    <row r="211" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G211" s="0" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G192" s="0" t="s">
+    <row r="212" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G212" s="0" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G193" s="0" t="s">
+    <row r="213" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G213" s="0" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G194" s="0" t="s">
+    <row r="214" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G214" s="0" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G195" s="0" t="s">
+    <row r="215" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G215" s="0" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G196" s="0" t="s">
+    <row r="216" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G216" s="0" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C198" s="3" t="s">
+    <row r="218" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C218" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D198" s="0" t="s">
+      <c r="D218" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="G198" s="0" t="s">
+      <c r="G218" s="0" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G199" s="0" t="s">
+    <row r="219" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G219" s="0" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G200" s="0" t="s">
+    <row r="220" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G220" s="0" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G201" s="0" t="s">
+    <row r="221" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G221" s="0" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G202" s="0" t="s">
+    <row r="222" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G222" s="0" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C204" s="3" t="s">
+    <row r="224" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C224" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D204" s="0" t="s">
+      <c r="D224" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="G204" s="0" t="s">
+      <c r="G224" s="0" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G205" s="0" t="s">
+    <row r="225" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G225" s="0" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G206" s="0" t="s">
+    <row r="226" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G226" s="0" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G207" s="0" t="s">
+    <row r="227" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G227" s="0" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G208" s="0" t="s">
+    <row r="228" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G228" s="0" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G209" s="0" t="s">
+    <row r="229" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G229" s="0" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C211" s="3" t="s">
+    <row r="231" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C231" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D211" s="0" t="s">
+      <c r="D231" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="G211" s="0" t="s">
+      <c r="G231" s="0" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G212" s="3" t="s">
+    <row r="232" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G232" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G213" s="3" t="s">
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G233" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C215" s="3" t="s">
+    <row r="235" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C235" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D215" s="0" t="s">
+      <c r="D235" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="G215" s="3" t="s">
+      <c r="G235" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H215" s="0" t="s">
+      <c r="H235" s="0" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C216" s="0" t="s">
+    <row r="236" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C236" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D216" s="0" t="s">
+      <c r="D236" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="G216" s="0" t="s">
+      <c r="G236" s="0" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B224" s="4" t="s">
+    <row r="244" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B244" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C224" s="0" t="s">
+      <c r="C244" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D224" s="3" t="s">
+      <c r="D244" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E224" s="0" t="s">
+      <c r="E244" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="F224" s="3" t="s">
+      <c r="F244" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G224" s="3" t="s">
+      <c r="G244" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C225" s="0" t="s">
+    <row r="245" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C245" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="D225" s="0" t="s">
+      <c r="D245" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="E225" s="0" t="s">
+      <c r="E245" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="F225" s="0" t="s">
+      <c r="F245" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="G225" s="3" t="s">
+      <c r="G245" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E226" s="0" t="s">
+    <row r="246" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E246" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="F226" s="0" t="s">
+      <c r="F246" s="0" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E227" s="0" t="s">
+    <row r="247" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E247" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="F227" s="0" t="s">
+      <c r="F247" s="0" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E228" s="0" t="s">
+    <row r="248" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E248" s="0" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E229" s="0" t="s">
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E249" s="0" t="s">
         <v>156</v>
       </c>
     </row>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="169">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -296,6 +296,9 @@
     <t xml:space="preserve">4、权限</t>
   </si>
   <si>
+    <t xml:space="preserve">11、登陆验证</t>
+  </si>
+  <si>
     <t xml:space="preserve">addr ＝ 0</t>
   </si>
   <si>
@@ -498,9 +501,6 @@
   </si>
   <si>
     <t xml:space="preserve">pduSetString</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、登陆验证</t>
   </si>
   <si>
     <t xml:space="preserve">result</t>
@@ -537,7 +537,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -559,12 +559,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -628,7 +622,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -735,8 +729,8 @@
   </sheetPr>
   <dimension ref="A2:L353"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F116" activeCellId="0" sqref="F116"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H64" activeCellId="0" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1260,15 +1254,15 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E67" s="4"/>
+      <c r="E67" s="3"/>
     </row>
     <row r="68" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D68" s="0" t="s">
@@ -1293,243 +1287,245 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E72" s="4"/>
+    <row r="72" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E72" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E73" s="4"/>
+      <c r="E73" s="3"/>
     </row>
     <row r="75" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C75" s="4" t="s">
-        <v>91</v>
+      <c r="C75" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E76" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E77" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E78" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E79" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E80" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E81" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E82" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="H82" s="4" t="s">
         <v>105</v>
       </c>
+      <c r="H82" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="4" t="s">
-        <v>91</v>
+      <c r="C84" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E85" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E86" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E88" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E89" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="4" t="s">
-        <v>91</v>
+      <c r="C91" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E92" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E94" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="4" t="s">
-        <v>91</v>
+      <c r="C97" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="4"/>
+      <c r="C98" s="3"/>
       <c r="E98" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E99" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E100" s="4" t="s">
-        <v>124</v>
+      <c r="E100" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E101" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E102" s="4" t="s">
-        <v>126</v>
+      <c r="E102" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D104" s="4"/>
-      <c r="E104" s="4" t="s">
-        <v>129</v>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D105" s="4"/>
-      <c r="E105" s="4" t="s">
-        <v>130</v>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D106" s="4"/>
+      <c r="D106" s="3"/>
       <c r="E106" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D107" s="4"/>
+      <c r="D107" s="3"/>
       <c r="E107" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E108" s="4" t="s">
-        <v>134</v>
+      <c r="E108" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E109" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="H109" s="4" t="s">
         <v>136</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E110" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="E112" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="H112" s="4" t="s">
+      <c r="E112" s="3" t="s">
         <v>140</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1537,88 +1533,88 @@
         <v>14</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D118" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E118" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="F118" s="4" t="s">
+      <c r="F118" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G118" s="4" t="s">
+      <c r="G118" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C119" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="G119" s="4" t="s">
         <v>147</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E120" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E121" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E122" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E123" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G142" s="4"/>
+      <c r="G142" s="3"/>
     </row>
     <row r="143" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G143" s="4"/>
+      <c r="G143" s="3"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D144" s="4"/>
-      <c r="G144" s="4"/>
+      <c r="D144" s="3"/>
+      <c r="G144" s="3"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>9</v>
@@ -1811,13 +1807,13 @@
     <row r="174" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="6"/>
       <c r="C174" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
@@ -1829,7 +1825,7 @@
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
       <c r="E175" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
@@ -1841,7 +1837,7 @@
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
       <c r="E176" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
@@ -1853,7 +1849,7 @@
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
       <c r="E177" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
@@ -1865,7 +1861,7 @@
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
       <c r="E178" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
@@ -1877,7 +1873,7 @@
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
       <c r="E179" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
@@ -1889,7 +1885,7 @@
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
       <c r="E180" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
@@ -1901,7 +1897,7 @@
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
       <c r="E181" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
@@ -1921,18 +1917,18 @@
     <row r="183" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="6"/>
       <c r="C183" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
       <c r="H183" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I183" s="6"/>
     </row>
@@ -1941,7 +1937,7 @@
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
       <c r="E184" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="6"/>
@@ -1953,12 +1949,12 @@
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
       <c r="E185" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F185" s="6"/>
       <c r="G185" s="6"/>
       <c r="H185" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I185" s="6"/>
     </row>
@@ -1967,7 +1963,7 @@
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
       <c r="E186" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F186" s="6"/>
       <c r="G186" s="6"/>
@@ -1997,13 +1993,13 @@
     <row r="189" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="6"/>
       <c r="C189" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F189" s="6"/>
       <c r="G189" s="6"/>
@@ -2015,7 +2011,7 @@
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
       <c r="E190" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
@@ -2027,7 +2023,7 @@
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
       <c r="E191" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
@@ -2039,7 +2035,7 @@
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
       <c r="E192" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
@@ -2051,12 +2047,12 @@
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
       <c r="E193" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
       <c r="H193" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I193" s="6"/>
     </row>
@@ -2065,7 +2061,7 @@
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
       <c r="E194" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
@@ -2077,7 +2073,7 @@
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
       <c r="E195" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
@@ -2089,7 +2085,7 @@
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
       <c r="E196" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
@@ -2101,7 +2097,7 @@
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
       <c r="E197" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
@@ -2113,12 +2109,12 @@
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
       <c r="E198" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
       <c r="H198" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I198" s="6"/>
     </row>
@@ -2127,7 +2123,7 @@
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
       <c r="E199" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F199" s="6"/>
       <c r="G199" s="6"/>
@@ -2396,7 +2392,7 @@
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C226" s="6" t="s">
         <v>9</v>
@@ -2599,18 +2595,18 @@
     <row r="242" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="6"/>
       <c r="C242" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F242" s="6"/>
       <c r="G242" s="6"/>
       <c r="H242" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I242" s="6"/>
     </row>
@@ -2619,7 +2615,7 @@
       <c r="C243" s="6"/>
       <c r="D243" s="6"/>
       <c r="E243" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F243" s="6"/>
       <c r="G243" s="6"/>
@@ -2631,12 +2627,12 @@
       <c r="C244" s="6"/>
       <c r="D244" s="6"/>
       <c r="E244" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F244" s="6"/>
       <c r="G244" s="6"/>
       <c r="H244" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I244" s="6"/>
     </row>
@@ -2645,12 +2641,12 @@
       <c r="C245" s="6"/>
       <c r="D245" s="6"/>
       <c r="E245" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F245" s="6"/>
       <c r="G245" s="6"/>
       <c r="H245" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I245" s="6"/>
     </row>
@@ -2659,12 +2655,12 @@
       <c r="C246" s="6"/>
       <c r="D246" s="6"/>
       <c r="E246" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F246" s="6"/>
       <c r="G246" s="6"/>
       <c r="H246" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I246" s="6"/>
     </row>
@@ -2673,12 +2669,12 @@
       <c r="C247" s="6"/>
       <c r="D247" s="6"/>
       <c r="E247" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F247" s="6"/>
       <c r="G247" s="6"/>
       <c r="H247" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I247" s="6"/>
     </row>
@@ -2687,7 +2683,7 @@
       <c r="C248" s="6"/>
       <c r="D248" s="6"/>
       <c r="E248" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F248" s="6"/>
       <c r="G248" s="6"/>
@@ -2699,12 +2695,12 @@
       <c r="C249" s="6"/>
       <c r="D249" s="6"/>
       <c r="E249" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F249" s="6"/>
       <c r="G249" s="6"/>
       <c r="H249" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I249" s="6"/>
     </row>
@@ -2721,18 +2717,18 @@
     <row r="251" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="6"/>
       <c r="C251" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F251" s="6"/>
       <c r="G251" s="6"/>
       <c r="H251" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I251" s="6"/>
     </row>
@@ -2741,7 +2737,7 @@
       <c r="C252" s="6"/>
       <c r="D252" s="6"/>
       <c r="E252" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F252" s="6"/>
       <c r="G252" s="6"/>
@@ -2753,12 +2749,12 @@
       <c r="C253" s="6"/>
       <c r="D253" s="6"/>
       <c r="E253" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F253" s="6"/>
       <c r="G253" s="6"/>
       <c r="H253" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I253" s="6"/>
     </row>
@@ -2767,7 +2763,7 @@
       <c r="C254" s="6"/>
       <c r="D254" s="6"/>
       <c r="E254" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F254" s="6"/>
       <c r="G254" s="6"/>
@@ -2797,13 +2793,13 @@
     <row r="257" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="6"/>
       <c r="C257" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F257" s="6"/>
       <c r="G257" s="6"/>
@@ -2815,7 +2811,7 @@
       <c r="C258" s="6"/>
       <c r="D258" s="6"/>
       <c r="E258" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F258" s="6"/>
       <c r="G258" s="6"/>
@@ -2827,7 +2823,7 @@
       <c r="C259" s="6"/>
       <c r="D259" s="6"/>
       <c r="E259" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F259" s="6"/>
       <c r="G259" s="6"/>
@@ -2839,7 +2835,7 @@
       <c r="C260" s="6"/>
       <c r="D260" s="6"/>
       <c r="E260" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F260" s="6"/>
       <c r="G260" s="6"/>
@@ -2851,12 +2847,12 @@
       <c r="C261" s="6"/>
       <c r="D261" s="6"/>
       <c r="E261" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F261" s="6"/>
       <c r="G261" s="6"/>
       <c r="H261" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I261" s="6"/>
     </row>
@@ -2865,7 +2861,7 @@
       <c r="C262" s="6"/>
       <c r="D262" s="6"/>
       <c r="E262" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F262" s="6"/>
       <c r="G262" s="6"/>
@@ -2877,12 +2873,12 @@
       <c r="C263" s="6"/>
       <c r="D263" s="6"/>
       <c r="E263" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F263" s="6"/>
       <c r="G263" s="6"/>
       <c r="H263" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I263" s="6"/>
     </row>
@@ -2891,7 +2887,7 @@
       <c r="C264" s="6"/>
       <c r="D264" s="6"/>
       <c r="E264" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F264" s="6"/>
       <c r="G264" s="6"/>
@@ -2903,7 +2899,7 @@
       <c r="C265" s="6"/>
       <c r="D265" s="6"/>
       <c r="E265" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F265" s="6"/>
       <c r="G265" s="6"/>
@@ -2915,12 +2911,12 @@
       <c r="C266" s="6"/>
       <c r="D266" s="6"/>
       <c r="E266" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F266" s="6"/>
       <c r="G266" s="6"/>
       <c r="H266" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I266" s="6"/>
     </row>
@@ -2929,7 +2925,7 @@
       <c r="C267" s="6"/>
       <c r="D267" s="6"/>
       <c r="E267" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F267" s="6"/>
       <c r="G267" s="6"/>
@@ -3038,7 +3034,7 @@
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C278" s="6" t="s">
         <v>9</v>
@@ -3287,15 +3283,15 @@
     <row r="298" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="6"/>
       <c r="C298" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E298" s="6"/>
       <c r="F298" s="6"/>
       <c r="G298" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H298" s="6"/>
       <c r="I298" s="6"/>
@@ -3307,7 +3303,7 @@
       <c r="E299" s="6"/>
       <c r="F299" s="6"/>
       <c r="G299" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H299" s="6"/>
       <c r="I299" s="6"/>
@@ -3319,7 +3315,7 @@
       <c r="E300" s="6"/>
       <c r="F300" s="6"/>
       <c r="G300" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H300" s="6"/>
       <c r="I300" s="6"/>
@@ -3331,7 +3327,7 @@
       <c r="E301" s="6"/>
       <c r="F301" s="6"/>
       <c r="G301" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H301" s="6"/>
       <c r="I301" s="6"/>
@@ -3343,7 +3339,7 @@
       <c r="E302" s="6"/>
       <c r="F302" s="6"/>
       <c r="G302" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H302" s="6"/>
       <c r="I302" s="6"/>
@@ -3355,7 +3351,7 @@
       <c r="E303" s="6"/>
       <c r="F303" s="6"/>
       <c r="G303" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H303" s="6"/>
       <c r="I303" s="6"/>
@@ -3373,15 +3369,15 @@
     <row r="305" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B305" s="6"/>
       <c r="C305" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E305" s="6"/>
       <c r="F305" s="6"/>
       <c r="G305" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H305" s="6"/>
       <c r="I305" s="6"/>
@@ -3393,7 +3389,7 @@
       <c r="E306" s="6"/>
       <c r="F306" s="6"/>
       <c r="G306" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H306" s="6"/>
       <c r="I306" s="6"/>
@@ -3405,7 +3401,7 @@
       <c r="E307" s="6"/>
       <c r="F307" s="6"/>
       <c r="G307" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H307" s="6"/>
       <c r="I307" s="6"/>
@@ -3436,15 +3432,15 @@
         <v>14</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E310" s="6"/>
       <c r="F310" s="6"/>
       <c r="G310" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H310" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I310" s="6"/>
     </row>
@@ -3454,12 +3450,12 @@
         <v>14</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E311" s="6"/>
       <c r="F311" s="6"/>
       <c r="G311" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H311" s="6"/>
       <c r="I311" s="6"/>
@@ -3556,7 +3552,7 @@
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B321" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C321" s="6" t="s">
         <v>9</v>
@@ -3735,7 +3731,7 @@
     <row r="335" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="6"/>
       <c r="C335" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D335" s="6" t="s">
         <v>86</v>
@@ -3791,7 +3787,7 @@
       <c r="E339" s="6"/>
       <c r="F339" s="6"/>
       <c r="G339" s="6" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="H339" s="6"/>
       <c r="I339" s="6"/>
@@ -3812,12 +3808,12 @@
         <v>85</v>
       </c>
       <c r="D341" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E341" s="6"/>
       <c r="F341" s="6"/>
       <c r="G341" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H341" s="6"/>
       <c r="I341" s="6"/>
@@ -3829,7 +3825,7 @@
       <c r="E342" s="6"/>
       <c r="F342" s="6"/>
       <c r="G342" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H342" s="6"/>
       <c r="I342" s="6"/>
@@ -3841,7 +3837,7 @@
       <c r="E343" s="6"/>
       <c r="F343" s="6"/>
       <c r="G343" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H343" s="6"/>
       <c r="I343" s="6"/>
@@ -3853,7 +3849,7 @@
       <c r="E344" s="6"/>
       <c r="F344" s="6"/>
       <c r="G344" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H344" s="6"/>
       <c r="I344" s="6"/>
@@ -3865,7 +3861,7 @@
       <c r="E345" s="6"/>
       <c r="F345" s="6"/>
       <c r="G345" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H345" s="6"/>
       <c r="I345" s="6"/>
@@ -3877,7 +3873,7 @@
       <c r="E346" s="6"/>
       <c r="F346" s="6"/>
       <c r="G346" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H346" s="6"/>
       <c r="I346" s="6"/>
@@ -3895,15 +3891,15 @@
     <row r="348" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="6"/>
       <c r="C348" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D348" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E348" s="6"/>
       <c r="F348" s="6"/>
       <c r="G348" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H348" s="6"/>
       <c r="I348" s="6"/>
@@ -3915,7 +3911,7 @@
       <c r="E349" s="6"/>
       <c r="F349" s="6"/>
       <c r="G349" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H349" s="6"/>
       <c r="I349" s="6"/>
@@ -3927,7 +3923,7 @@
       <c r="E350" s="6"/>
       <c r="F350" s="6"/>
       <c r="G350" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H350" s="6"/>
       <c r="I350" s="6"/>
@@ -3948,15 +3944,15 @@
         <v>14</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E352" s="6"/>
       <c r="F352" s="6"/>
       <c r="G352" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H352" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I352" s="6"/>
     </row>
@@ -3966,12 +3962,12 @@
         <v>14</v>
       </c>
       <c r="D353" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E353" s="6"/>
       <c r="F353" s="6"/>
       <c r="G353" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H353" s="6"/>
       <c r="I353" s="6"/>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="184">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -278,6 +278,18 @@
     <t xml:space="preserve">8、组开关使能</t>
   </si>
   <si>
+    <t xml:space="preserve">9、最近一次运行时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单位分钟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10、出厂来总运行时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单位小时</t>
+  </si>
+  <si>
     <t xml:space="preserve">Addr ＝ 0</t>
   </si>
   <si>
@@ -450,6 +462,39 @@
   </si>
   <si>
     <t xml:space="preserve">22、组名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23、软件版本号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、核心业务程序版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、核心业务程序编译时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、守护进程版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、守护进程编译时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、屏幕UI版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、屏幕UI编译时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、第一块执行板软件版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、第二块执行板软件版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13、第三块执行板软件版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14、第四块执行板软件版本</t>
   </si>
   <si>
     <t xml:space="preserve">pduLogFun</t>
@@ -537,7 +582,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -559,6 +604,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -626,7 +677,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -727,10 +778,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:L353"/>
+  <dimension ref="A2:L366"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H64" activeCellId="0" sqref="H64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F128" activeCellId="0" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -739,7 +790,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="0" width="20.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="20.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.62"/>
@@ -1259,110 +1311,110 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="3" t="s">
+      <c r="E67" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="F67" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="E68" s="0" t="s">
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E68" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E69" s="0" t="s">
+      <c r="F68" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E70" s="0" t="s">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D71" s="0" t="s">
+        <v>90</v>
+      </c>
       <c r="E71" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E72" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E73" s="3"/>
+      <c r="E72" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E73" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E74" s="0" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C75" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E76" s="0" t="s">
+      <c r="E75" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E77" s="0" t="s">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E76" s="3"/>
+    </row>
+    <row r="78" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H77" s="0" t="s">
+      <c r="D78" s="0" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E78" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="H78" s="0" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="79" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E79" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="H79" s="0" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E80" s="0" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E81" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="H81" s="0" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E82" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="H82" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="H82" s="3" t="s">
+    </row>
+    <row r="83" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E83" s="0" t="s">
         <v>106</v>
       </c>
+      <c r="H83" s="0" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>107</v>
-      </c>
       <c r="E84" s="0" t="s">
         <v>108</v>
       </c>
@@ -1371,38 +1423,38 @@
       <c r="E85" s="0" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E86" s="0" t="s">
+      <c r="H85" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>111</v>
+      </c>
       <c r="E87" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E88" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E89" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E90" s="0" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>114</v>
-      </c>
       <c r="E91" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="H91" s="0" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1411,82 +1463,80 @@
         <v>117</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E93" s="0" t="s">
+    <row r="94" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C94" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D94" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="H93" s="0" t="s">
+      <c r="E94" s="0" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E94" s="0" t="s">
+      <c r="H94" s="0" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D97" s="0" t="s">
+    <row r="95" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E95" s="0" t="s">
         <v>121</v>
       </c>
+    </row>
+    <row r="96" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E96" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H96" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E97" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="3"/>
-      <c r="E98" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E99" s="0" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E100" s="3" t="s">
+    <row r="100" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C100" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D100" s="0" t="s">
         <v>125</v>
       </c>
+      <c r="E100" s="0" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C101" s="3"/>
       <c r="E101" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E102" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H102" s="0" t="s">
+      <c r="E102" s="0" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E103" s="0" t="s">
+      <c r="E103" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D104" s="3"/>
       <c r="E104" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D105" s="3"/>
       <c r="E105" s="3" t="s">
         <v>131</v>
       </c>
+      <c r="H105" s="0" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D106" s="3"/>
       <c r="E106" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="H106" s="0" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1497,31 +1547,33 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D108" s="3"/>
       <c r="E108" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D109" s="3"/>
       <c r="E109" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="H109" s="3" t="s">
+      <c r="H109" s="0" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E110" s="0" t="s">
+      <c r="D110" s="3"/>
+      <c r="E110" s="3" t="s">
         <v>138</v>
       </c>
     </row>
+    <row r="111" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E111" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
     <row r="112" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C112" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D112" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="E112" s="3" t="s">
+      <c r="E112" s="0" t="s">
         <v>140</v>
       </c>
       <c r="H112" s="3" t="s">
@@ -1529,276 +1581,197 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="0" t="s">
+      <c r="E113" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C115" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D113" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="E113" s="0" t="s">
-        <v>140</v>
+      <c r="D115" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C116" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="C118" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="E119" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="F119" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>148</v>
+      <c r="E119" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E120" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="F120" s="0" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E121" s="0" t="s">
+      <c r="E121" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="F121" s="0" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E122" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E123" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E123" s="0" t="s">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E124" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G142" s="3"/>
-    </row>
-    <row r="143" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G143" s="3"/>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D144" s="3"/>
-      <c r="G144" s="3"/>
-    </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="6" t="s">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E125" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C159" s="6" t="s">
+    </row>
+    <row r="126" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E126" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E127" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C131" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D159" s="6" t="s">
+      <c r="D131" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E159" s="6" t="s">
+      <c r="E131" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C132" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="F132" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E133" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F133" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E134" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F134" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E135" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E136" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G155" s="3"/>
+    </row>
+    <row r="156" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G156" s="3"/>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D157" s="3"/>
+      <c r="G157" s="3"/>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B172" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F159" s="6" t="s">
+      <c r="F172" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G159" s="6" t="s">
+      <c r="G172" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H159" s="6" t="s">
+      <c r="H172" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I159" s="6"/>
-    </row>
-    <row r="160" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="6"/>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E160" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F160" s="6"/>
-      <c r="G160" s="6"/>
-      <c r="H160" s="6"/>
-      <c r="I160" s="6"/>
-    </row>
-    <row r="161" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="6"/>
-      <c r="C161" s="6"/>
-      <c r="D161" s="6"/>
-      <c r="E161" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F161" s="6"/>
-      <c r="G161" s="6"/>
-      <c r="H161" s="6"/>
-      <c r="I161" s="6"/>
-    </row>
-    <row r="162" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="6"/>
-      <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
-      <c r="E162" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F162" s="6"/>
-      <c r="G162" s="6"/>
-      <c r="H162" s="6"/>
-      <c r="I162" s="6"/>
-    </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="6"/>
-      <c r="C163" s="6"/>
-      <c r="D163" s="6"/>
-      <c r="E163" s="6"/>
-      <c r="F163" s="6"/>
-      <c r="G163" s="6"/>
-      <c r="H163" s="6"/>
-      <c r="I163" s="6"/>
-    </row>
-    <row r="164" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="6"/>
-      <c r="C164" s="6"/>
-      <c r="D164" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E164" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F164" s="6"/>
-      <c r="G164" s="6"/>
-      <c r="H164" s="6"/>
-      <c r="I164" s="6"/>
-    </row>
-    <row r="165" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="6"/>
-      <c r="C165" s="6"/>
-      <c r="D165" s="6"/>
-      <c r="E165" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F165" s="6"/>
-      <c r="G165" s="6"/>
-      <c r="H165" s="6"/>
-      <c r="I165" s="6"/>
-    </row>
-    <row r="166" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="6"/>
-      <c r="C166" s="6"/>
-      <c r="D166" s="6"/>
-      <c r="E166" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F166" s="6"/>
-      <c r="G166" s="6"/>
-      <c r="H166" s="6"/>
-      <c r="I166" s="6"/>
-    </row>
-    <row r="167" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="6"/>
-      <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
-      <c r="E167" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F167" s="6"/>
-      <c r="G167" s="6"/>
-      <c r="H167" s="6"/>
-      <c r="I167" s="6"/>
-    </row>
-    <row r="168" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="6"/>
-      <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
-      <c r="E168" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F168" s="6"/>
-      <c r="G168" s="6"/>
-      <c r="H168" s="6"/>
-      <c r="I168" s="6"/>
-    </row>
-    <row r="169" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="6"/>
-      <c r="C169" s="6"/>
-      <c r="D169" s="6"/>
-      <c r="E169" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F169" s="6"/>
-      <c r="G169" s="6"/>
-      <c r="H169" s="6"/>
-      <c r="I169" s="6"/>
-    </row>
-    <row r="170" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="6"/>
-      <c r="C170" s="6"/>
-      <c r="D170" s="6"/>
-      <c r="E170" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F170" s="6"/>
-      <c r="G170" s="6"/>
-      <c r="H170" s="6"/>
-      <c r="I170" s="6"/>
-    </row>
-    <row r="171" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="6"/>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F171" s="6"/>
-      <c r="G171" s="6"/>
-      <c r="H171" s="6"/>
-      <c r="I171" s="6"/>
-    </row>
-    <row r="172" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F172" s="6"/>
-      <c r="G172" s="6"/>
-      <c r="H172" s="6"/>
       <c r="I172" s="6"/>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
-      <c r="D173" s="6"/>
-      <c r="E173" s="6"/>
+      <c r="D173" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
       <c r="H173" s="6"/>
@@ -1806,26 +1779,22 @@
     </row>
     <row r="174" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="6"/>
-      <c r="C174" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D174" s="6" t="s">
-        <v>93</v>
-      </c>
+      <c r="C174" s="6"/>
+      <c r="D174" s="6"/>
       <c r="E174" s="6" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
       <c r="H174" s="6"/>
       <c r="I174" s="6"/>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
       <c r="E175" s="6" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
@@ -1836,79 +1805,81 @@
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
-      <c r="E176" s="6" t="s">
-        <v>96</v>
-      </c>
+      <c r="E176" s="6"/>
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
       <c r="H176" s="6"/>
       <c r="I176" s="6"/>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
-      <c r="D177" s="6"/>
+      <c r="D177" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="E177" s="6" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
       <c r="H177" s="6"/>
       <c r="I177" s="6"/>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
       <c r="E178" s="6" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
       <c r="H178" s="6"/>
       <c r="I178" s="6"/>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
       <c r="E179" s="6" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
       <c r="H179" s="6"/>
       <c r="I179" s="6"/>
     </row>
-    <row r="180" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
       <c r="E180" s="6" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
       <c r="H180" s="6"/>
       <c r="I180" s="6"/>
     </row>
-    <row r="181" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
       <c r="E181" s="6" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
       <c r="H181" s="6"/>
       <c r="I181" s="6"/>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
-      <c r="E182" s="6"/>
+      <c r="E182" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
       <c r="H182" s="6"/>
@@ -1916,28 +1887,22 @@
     </row>
     <row r="183" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="6"/>
-      <c r="C183" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D183" s="6" t="s">
-        <v>114</v>
-      </c>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
       <c r="E183" s="6" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
-      <c r="H183" s="6" t="s">
-        <v>116</v>
-      </c>
+      <c r="H183" s="6"/>
       <c r="I183" s="6"/>
     </row>
-    <row r="184" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
       <c r="E184" s="6" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="6"/>
@@ -1949,32 +1914,34 @@
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
       <c r="E185" s="6" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="F185" s="6"/>
       <c r="G185" s="6"/>
-      <c r="H185" s="6" t="s">
-        <v>119</v>
-      </c>
+      <c r="H185" s="6"/>
       <c r="I185" s="6"/>
     </row>
-    <row r="186" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
-      <c r="E186" s="6" t="s">
-        <v>120</v>
-      </c>
+      <c r="E186" s="6"/>
       <c r="F186" s="6"/>
       <c r="G186" s="6"/>
       <c r="H186" s="6"/>
       <c r="I186" s="6"/>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="6"/>
-      <c r="C187" s="6"/>
-      <c r="D187" s="6"/>
-      <c r="E187" s="6"/>
+      <c r="C187" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
       <c r="H187" s="6"/>
@@ -1984,58 +1951,56 @@
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
-      <c r="E188" s="6"/>
+      <c r="E188" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
       <c r="H188" s="6"/>
       <c r="I188" s="6"/>
     </row>
-    <row r="189" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="6"/>
-      <c r="C189" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D189" s="6" t="s">
-        <v>121</v>
-      </c>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
       <c r="E189" s="6" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="F189" s="6"/>
       <c r="G189" s="6"/>
       <c r="H189" s="6"/>
       <c r="I189" s="6"/>
     </row>
-    <row r="190" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
       <c r="E190" s="6" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
       <c r="H190" s="6"/>
       <c r="I190" s="6"/>
     </row>
-    <row r="191" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
       <c r="E191" s="6" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
       <c r="H191" s="6"/>
       <c r="I191" s="6"/>
     </row>
-    <row r="192" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
       <c r="E192" s="6" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
@@ -2047,13 +2012,11 @@
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
       <c r="E193" s="6" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
-      <c r="H193" s="6" t="s">
-        <v>128</v>
-      </c>
+      <c r="H193" s="6"/>
       <c r="I193" s="6"/>
     </row>
     <row r="194" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2061,35 +2024,39 @@
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
       <c r="E194" s="6" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
-      <c r="H194" s="7"/>
+      <c r="H194" s="6"/>
       <c r="I194" s="6"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
-      <c r="E195" s="6" t="s">
-        <v>131</v>
-      </c>
+      <c r="E195" s="6"/>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
       <c r="H195" s="6"/>
       <c r="I195" s="6"/>
     </row>
-    <row r="196" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="6"/>
-      <c r="C196" s="6"/>
-      <c r="D196" s="6"/>
+      <c r="C196" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="E196" s="6" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
-      <c r="H196" s="7"/>
+      <c r="H196" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="I196" s="6"/>
     </row>
     <row r="197" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2097,7 +2064,7 @@
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
       <c r="E197" s="6" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
@@ -2109,12 +2076,12 @@
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
       <c r="E198" s="6" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
       <c r="H198" s="6" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="I198" s="6"/>
     </row>
@@ -2123,7 +2090,7 @@
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
       <c r="E199" s="6" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F199" s="6"/>
       <c r="G199" s="6"/>
@@ -2150,111 +2117,141 @@
       <c r="H201" s="6"/>
       <c r="I201" s="6"/>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="6"/>
-      <c r="C202" s="6"/>
-      <c r="D202" s="6"/>
-      <c r="E202" s="6"/>
+      <c r="C202" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E202" s="6" t="s">
+        <v>126</v>
+      </c>
       <c r="F202" s="6"/>
-      <c r="G202" s="7"/>
+      <c r="G202" s="6"/>
       <c r="H202" s="6"/>
       <c r="I202" s="6"/>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
-      <c r="E203" s="6"/>
+      <c r="E203" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="F203" s="6"/>
       <c r="G203" s="6"/>
       <c r="H203" s="6"/>
       <c r="I203" s="6"/>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
-      <c r="E204" s="6"/>
+      <c r="E204" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="F204" s="6"/>
-      <c r="G204" s="7"/>
+      <c r="G204" s="6"/>
       <c r="H204" s="6"/>
       <c r="I204" s="6"/>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
-      <c r="E205" s="6"/>
+      <c r="E205" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="F205" s="6"/>
       <c r="G205" s="6"/>
       <c r="H205" s="6"/>
       <c r="I205" s="6"/>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
-      <c r="E206" s="6"/>
+      <c r="E206" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="F206" s="6"/>
       <c r="G206" s="6"/>
-      <c r="H206" s="6"/>
+      <c r="H206" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="I206" s="6"/>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
-      <c r="E207" s="6"/>
+      <c r="E207" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="F207" s="6"/>
       <c r="G207" s="6"/>
-      <c r="H207" s="6"/>
+      <c r="H207" s="7"/>
       <c r="I207" s="6"/>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
-      <c r="E208" s="6"/>
+      <c r="E208" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
       <c r="H208" s="6"/>
       <c r="I208" s="6"/>
     </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
       <c r="D209" s="6"/>
-      <c r="E209" s="6"/>
+      <c r="E209" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="F209" s="6"/>
       <c r="G209" s="6"/>
-      <c r="H209" s="6"/>
+      <c r="H209" s="7"/>
       <c r="I209" s="6"/>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
       <c r="D210" s="6"/>
-      <c r="E210" s="6"/>
+      <c r="E210" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="F210" s="6"/>
       <c r="G210" s="6"/>
       <c r="H210" s="6"/>
       <c r="I210" s="6"/>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
-      <c r="E211" s="6"/>
+      <c r="E211" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
-      <c r="H211" s="6"/>
+      <c r="H211" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="I211" s="6"/>
     </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
       <c r="D212" s="6"/>
-      <c r="E212" s="6"/>
+      <c r="E212" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
       <c r="H212" s="6"/>
@@ -2286,7 +2283,7 @@
       <c r="D215" s="6"/>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
-      <c r="G215" s="6"/>
+      <c r="G215" s="7"/>
       <c r="H215" s="6"/>
       <c r="I215" s="6"/>
     </row>
@@ -2306,7 +2303,7 @@
       <c r="D217" s="6"/>
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
-      <c r="G217" s="6"/>
+      <c r="G217" s="7"/>
       <c r="H217" s="6"/>
       <c r="I217" s="6"/>
     </row>
@@ -2391,62 +2388,40 @@
       <c r="I225" s="6"/>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B226" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D226" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E226" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F226" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G226" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H226" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="B226" s="6"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="6"/>
+      <c r="E226" s="6"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6"/>
+      <c r="H226" s="6"/>
       <c r="I226" s="6"/>
     </row>
-    <row r="227" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
-      <c r="D227" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E227" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D227" s="6"/>
+      <c r="E227" s="6"/>
       <c r="F227" s="6"/>
       <c r="G227" s="6"/>
       <c r="H227" s="6"/>
       <c r="I227" s="6"/>
     </row>
-    <row r="228" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
-      <c r="E228" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="E228" s="6"/>
       <c r="F228" s="6"/>
       <c r="G228" s="6"/>
       <c r="H228" s="6"/>
       <c r="I228" s="6"/>
     </row>
-    <row r="229" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
-      <c r="E229" s="6" t="s">
-        <v>74</v>
-      </c>
+      <c r="E229" s="6"/>
       <c r="F229" s="6"/>
       <c r="G229" s="6"/>
       <c r="H229" s="6"/>
@@ -2462,329 +2437,313 @@
       <c r="H230" s="6"/>
       <c r="I230" s="6"/>
     </row>
-    <row r="231" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
-      <c r="D231" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E231" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="D231" s="6"/>
+      <c r="E231" s="6"/>
       <c r="F231" s="6"/>
       <c r="G231" s="6"/>
       <c r="H231" s="6"/>
       <c r="I231" s="6"/>
     </row>
-    <row r="232" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
-      <c r="E232" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="E232" s="6"/>
       <c r="F232" s="6"/>
       <c r="G232" s="6"/>
       <c r="H232" s="6"/>
       <c r="I232" s="6"/>
     </row>
-    <row r="233" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
       <c r="D233" s="6"/>
-      <c r="E233" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="E233" s="6"/>
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
       <c r="H233" s="6"/>
       <c r="I233" s="6"/>
     </row>
-    <row r="234" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
       <c r="D234" s="6"/>
-      <c r="E234" s="6" t="s">
-        <v>79</v>
-      </c>
+      <c r="E234" s="6"/>
       <c r="F234" s="6"/>
       <c r="G234" s="6"/>
       <c r="H234" s="6"/>
       <c r="I234" s="6"/>
     </row>
-    <row r="235" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
       <c r="D235" s="6"/>
-      <c r="E235" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="E235" s="6"/>
       <c r="F235" s="6"/>
       <c r="G235" s="6"/>
       <c r="H235" s="6"/>
       <c r="I235" s="6"/>
     </row>
-    <row r="236" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
-      <c r="E236" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="E236" s="6"/>
       <c r="F236" s="6"/>
       <c r="G236" s="6"/>
       <c r="H236" s="6"/>
       <c r="I236" s="6"/>
     </row>
-    <row r="237" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
-      <c r="E237" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="E237" s="6"/>
       <c r="F237" s="6"/>
       <c r="G237" s="6"/>
       <c r="H237" s="6"/>
       <c r="I237" s="6"/>
     </row>
-    <row r="238" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
       <c r="D238" s="6"/>
-      <c r="E238" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="E238" s="6"/>
       <c r="F238" s="6"/>
       <c r="G238" s="6"/>
       <c r="H238" s="6"/>
       <c r="I238" s="6"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B239" s="6"/>
-      <c r="C239" s="6"/>
-      <c r="D239" s="6"/>
+      <c r="B239" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="E239" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F239" s="6"/>
-      <c r="G239" s="6"/>
-      <c r="H239" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="F239" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G239" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H239" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="I239" s="6"/>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
-      <c r="D240" s="6"/>
-      <c r="E240" s="6"/>
+      <c r="D240" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E240" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="F240" s="6"/>
       <c r="G240" s="6"/>
       <c r="H240" s="6"/>
       <c r="I240" s="6"/>
     </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
       <c r="D241" s="6"/>
-      <c r="E241" s="6"/>
+      <c r="E241" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="F241" s="6"/>
       <c r="G241" s="6"/>
       <c r="H241" s="6"/>
       <c r="I241" s="6"/>
     </row>
-    <row r="242" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="6"/>
-      <c r="C242" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D242" s="6" t="s">
-        <v>93</v>
-      </c>
+      <c r="C242" s="6"/>
+      <c r="D242" s="6"/>
       <c r="E242" s="6" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="F242" s="6"/>
       <c r="G242" s="6"/>
-      <c r="H242" s="6" t="s">
-        <v>157</v>
-      </c>
+      <c r="H242" s="6"/>
       <c r="I242" s="6"/>
     </row>
-    <row r="243" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
       <c r="D243" s="6"/>
-      <c r="E243" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="E243" s="6"/>
       <c r="F243" s="6"/>
       <c r="G243" s="6"/>
       <c r="H243" s="6"/>
       <c r="I243" s="6"/>
     </row>
-    <row r="244" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
-      <c r="D244" s="6"/>
+      <c r="D244" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="E244" s="6" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F244" s="6"/>
       <c r="G244" s="6"/>
-      <c r="H244" s="6" t="s">
-        <v>97</v>
-      </c>
+      <c r="H244" s="6"/>
       <c r="I244" s="6"/>
     </row>
-    <row r="245" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
       <c r="D245" s="6"/>
       <c r="E245" s="6" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="F245" s="6"/>
       <c r="G245" s="6"/>
-      <c r="H245" s="6" t="s">
-        <v>99</v>
-      </c>
+      <c r="H245" s="6"/>
       <c r="I245" s="6"/>
     </row>
-    <row r="246" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
       <c r="D246" s="6"/>
       <c r="E246" s="6" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="F246" s="6"/>
       <c r="G246" s="6"/>
-      <c r="H246" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="H246" s="6"/>
       <c r="I246" s="6"/>
     </row>
-    <row r="247" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
       <c r="D247" s="6"/>
       <c r="E247" s="6" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="F247" s="6"/>
       <c r="G247" s="6"/>
-      <c r="H247" s="6" t="s">
-        <v>103</v>
-      </c>
+      <c r="H247" s="6"/>
       <c r="I247" s="6"/>
     </row>
-    <row r="248" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
       <c r="D248" s="6"/>
       <c r="E248" s="6" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="F248" s="6"/>
       <c r="G248" s="6"/>
       <c r="H248" s="6"/>
       <c r="I248" s="6"/>
     </row>
-    <row r="249" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
       <c r="D249" s="6"/>
       <c r="E249" s="6" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F249" s="6"/>
       <c r="G249" s="6"/>
-      <c r="H249" s="6" t="s">
-        <v>106</v>
-      </c>
+      <c r="H249" s="6"/>
       <c r="I249" s="6"/>
     </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
       <c r="D250" s="6"/>
-      <c r="E250" s="6"/>
+      <c r="E250" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="F250" s="6"/>
       <c r="G250" s="6"/>
       <c r="H250" s="6"/>
       <c r="I250" s="6"/>
     </row>
-    <row r="251" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="6"/>
-      <c r="C251" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D251" s="6" t="s">
-        <v>114</v>
-      </c>
+      <c r="C251" s="6"/>
+      <c r="D251" s="6"/>
       <c r="E251" s="6" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="F251" s="6"/>
       <c r="G251" s="6"/>
-      <c r="H251" s="6" t="s">
-        <v>116</v>
-      </c>
+      <c r="H251" s="6"/>
       <c r="I251" s="6"/>
     </row>
-    <row r="252" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
       <c r="D252" s="6"/>
       <c r="E252" s="6" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="F252" s="6"/>
       <c r="G252" s="6"/>
       <c r="H252" s="6"/>
       <c r="I252" s="6"/>
     </row>
-    <row r="253" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
       <c r="D253" s="6"/>
-      <c r="E253" s="6" t="s">
-        <v>118</v>
-      </c>
+      <c r="E253" s="6"/>
       <c r="F253" s="6"/>
       <c r="G253" s="6"/>
-      <c r="H253" s="6" t="s">
-        <v>119</v>
-      </c>
+      <c r="H253" s="6"/>
       <c r="I253" s="6"/>
     </row>
-    <row r="254" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
       <c r="D254" s="6"/>
-      <c r="E254" s="6" t="s">
-        <v>120</v>
-      </c>
+      <c r="E254" s="6"/>
       <c r="F254" s="6"/>
       <c r="G254" s="6"/>
       <c r="H254" s="6"/>
       <c r="I254" s="6"/>
     </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="6"/>
-      <c r="C255" s="6"/>
-      <c r="D255" s="6"/>
-      <c r="E255" s="6"/>
+      <c r="C255" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D255" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E255" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="F255" s="6"/>
       <c r="G255" s="6"/>
-      <c r="H255" s="6"/>
+      <c r="H255" s="6" t="s">
+        <v>172</v>
+      </c>
       <c r="I255" s="6"/>
     </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
       <c r="D256" s="6"/>
-      <c r="E256" s="6"/>
+      <c r="E256" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="F256" s="6"/>
       <c r="G256" s="6"/>
       <c r="H256" s="6"/>
@@ -2792,18 +2751,16 @@
     </row>
     <row r="257" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="6"/>
-      <c r="C257" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D257" s="6" t="s">
-        <v>121</v>
-      </c>
+      <c r="C257" s="6"/>
+      <c r="D257" s="6"/>
       <c r="E257" s="6" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="F257" s="6"/>
       <c r="G257" s="6"/>
-      <c r="H257" s="6"/>
+      <c r="H257" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="I257" s="6"/>
     </row>
     <row r="258" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2811,11 +2768,13 @@
       <c r="C258" s="6"/>
       <c r="D258" s="6"/>
       <c r="E258" s="6" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="F258" s="6"/>
       <c r="G258" s="6"/>
-      <c r="H258" s="6"/>
+      <c r="H258" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="I258" s="6"/>
     </row>
     <row r="259" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2823,11 +2782,13 @@
       <c r="C259" s="6"/>
       <c r="D259" s="6"/>
       <c r="E259" s="6" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F259" s="6"/>
       <c r="G259" s="6"/>
-      <c r="H259" s="6"/>
+      <c r="H259" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="I259" s="6"/>
     </row>
     <row r="260" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2835,11 +2796,13 @@
       <c r="C260" s="6"/>
       <c r="D260" s="6"/>
       <c r="E260" s="6" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F260" s="6"/>
       <c r="G260" s="6"/>
-      <c r="H260" s="6"/>
+      <c r="H260" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="I260" s="6"/>
     </row>
     <row r="261" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2847,13 +2810,11 @@
       <c r="C261" s="6"/>
       <c r="D261" s="6"/>
       <c r="E261" s="6" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="F261" s="6"/>
       <c r="G261" s="6"/>
-      <c r="H261" s="6" t="s">
-        <v>128</v>
-      </c>
+      <c r="H261" s="6"/>
       <c r="I261" s="6"/>
     </row>
     <row r="262" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2861,37 +2822,41 @@
       <c r="C262" s="6"/>
       <c r="D262" s="6"/>
       <c r="E262" s="6" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="F262" s="6"/>
       <c r="G262" s="6"/>
-      <c r="H262" s="6"/>
+      <c r="H262" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="I262" s="6"/>
     </row>
-    <row r="263" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
       <c r="D263" s="6"/>
-      <c r="E263" s="6" t="s">
-        <v>131</v>
-      </c>
+      <c r="E263" s="6"/>
       <c r="F263" s="6"/>
       <c r="G263" s="6"/>
-      <c r="H263" s="6" t="s">
-        <v>133</v>
-      </c>
+      <c r="H263" s="6"/>
       <c r="I263" s="6"/>
     </row>
     <row r="264" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="6"/>
-      <c r="C264" s="6"/>
-      <c r="D264" s="6"/>
+      <c r="C264" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D264" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="E264" s="6" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F264" s="6"/>
       <c r="G264" s="6"/>
-      <c r="H264" s="6"/>
+      <c r="H264" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="I264" s="6"/>
     </row>
     <row r="265" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2899,7 +2864,7 @@
       <c r="C265" s="6"/>
       <c r="D265" s="6"/>
       <c r="E265" s="6" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F265" s="6"/>
       <c r="G265" s="6"/>
@@ -2911,12 +2876,12 @@
       <c r="C266" s="6"/>
       <c r="D266" s="6"/>
       <c r="E266" s="6" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F266" s="6"/>
       <c r="G266" s="6"/>
       <c r="H266" s="6" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="I266" s="6"/>
     </row>
@@ -2925,7 +2890,7 @@
       <c r="C267" s="6"/>
       <c r="D267" s="6"/>
       <c r="E267" s="6" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F267" s="6"/>
       <c r="G267" s="6"/>
@@ -2952,129 +2917,143 @@
       <c r="H269" s="6"/>
       <c r="I269" s="6"/>
     </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B270" s="6"/>
-      <c r="C270" s="6"/>
-      <c r="D270" s="6"/>
-      <c r="E270" s="6"/>
+      <c r="C270" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D270" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E270" s="6" t="s">
+        <v>126</v>
+      </c>
       <c r="F270" s="6"/>
       <c r="G270" s="6"/>
       <c r="H270" s="6"/>
       <c r="I270" s="6"/>
     </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
       <c r="D271" s="6"/>
-      <c r="E271" s="6"/>
+      <c r="E271" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="F271" s="6"/>
       <c r="G271" s="6"/>
       <c r="H271" s="6"/>
       <c r="I271" s="6"/>
     </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
       <c r="D272" s="6"/>
-      <c r="E272" s="6"/>
+      <c r="E272" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="F272" s="6"/>
       <c r="G272" s="6"/>
       <c r="H272" s="6"/>
       <c r="I272" s="6"/>
     </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
       <c r="D273" s="6"/>
-      <c r="E273" s="6"/>
+      <c r="E273" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="F273" s="6"/>
       <c r="G273" s="6"/>
       <c r="H273" s="6"/>
       <c r="I273" s="6"/>
     </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
       <c r="D274" s="6"/>
-      <c r="E274" s="6"/>
+      <c r="E274" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="F274" s="6"/>
       <c r="G274" s="6"/>
-      <c r="H274" s="6"/>
+      <c r="H274" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="I274" s="6"/>
     </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
       <c r="D275" s="6"/>
-      <c r="E275" s="6"/>
+      <c r="E275" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="F275" s="6"/>
       <c r="G275" s="6"/>
       <c r="H275" s="6"/>
       <c r="I275" s="6"/>
     </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
       <c r="D276" s="6"/>
-      <c r="E276" s="6"/>
+      <c r="E276" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="F276" s="6"/>
       <c r="G276" s="6"/>
-      <c r="H276" s="6"/>
+      <c r="H276" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="I276" s="6"/>
     </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
       <c r="D277" s="6"/>
-      <c r="E277" s="6"/>
+      <c r="E277" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="F277" s="6"/>
       <c r="G277" s="6"/>
       <c r="H277" s="6"/>
       <c r="I277" s="6"/>
     </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B278" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C278" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D278" s="6" t="s">
-        <v>10</v>
-      </c>
+    <row r="278" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B278" s="6"/>
+      <c r="C278" s="6"/>
+      <c r="D278" s="6"/>
       <c r="E278" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F278" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G278" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="F278" s="6"/>
+      <c r="G278" s="6"/>
       <c r="H278" s="6"/>
       <c r="I278" s="6"/>
     </row>
-    <row r="279" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B279" s="6"/>
-      <c r="C279" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D279" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E279" s="6"/>
+      <c r="C279" s="6"/>
+      <c r="D279" s="6"/>
+      <c r="E279" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="F279" s="6"/>
-      <c r="G279" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H279" s="6"/>
+      <c r="G279" s="6"/>
+      <c r="H279" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="I279" s="6"/>
     </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
       <c r="D280" s="6"/>
-      <c r="E280" s="6"/>
+      <c r="E280" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="F280" s="6"/>
       <c r="G280" s="6"/>
       <c r="H280" s="6"/>
@@ -3100,77 +3079,63 @@
       <c r="H282" s="6"/>
       <c r="I282" s="6"/>
     </row>
-    <row r="283" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
-      <c r="D283" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="D283" s="6"/>
       <c r="E283" s="6"/>
       <c r="F283" s="6"/>
-      <c r="G283" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="G283" s="6"/>
       <c r="H283" s="6"/>
       <c r="I283" s="6"/>
     </row>
-    <row r="284" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
       <c r="D284" s="6"/>
       <c r="E284" s="6"/>
       <c r="F284" s="6"/>
-      <c r="G284" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="G284" s="6"/>
       <c r="H284" s="6"/>
       <c r="I284" s="6"/>
     </row>
-    <row r="285" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
       <c r="D285" s="6"/>
       <c r="E285" s="6"/>
       <c r="F285" s="6"/>
-      <c r="G285" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="G285" s="6"/>
       <c r="H285" s="6"/>
       <c r="I285" s="6"/>
     </row>
-    <row r="286" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
       <c r="D286" s="6"/>
       <c r="E286" s="6"/>
       <c r="F286" s="6"/>
-      <c r="G286" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="G286" s="6"/>
       <c r="H286" s="6"/>
       <c r="I286" s="6"/>
     </row>
-    <row r="287" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
       <c r="D287" s="6"/>
       <c r="E287" s="6"/>
       <c r="F287" s="6"/>
-      <c r="G287" s="6" t="s">
-        <v>67</v>
-      </c>
+      <c r="G287" s="6"/>
       <c r="H287" s="6"/>
       <c r="I287" s="6"/>
     </row>
-    <row r="288" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
       <c r="D288" s="6"/>
       <c r="E288" s="6"/>
       <c r="F288" s="6"/>
-      <c r="G288" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="G288" s="6"/>
       <c r="H288" s="6"/>
       <c r="I288" s="6"/>
     </row>
@@ -3180,9 +3145,7 @@
       <c r="D289" s="6"/>
       <c r="E289" s="6"/>
       <c r="F289" s="6"/>
-      <c r="G289" s="6" t="s">
-        <v>69</v>
-      </c>
+      <c r="G289" s="6"/>
       <c r="H289" s="6"/>
       <c r="I289" s="6"/>
     </row>
@@ -3192,59 +3155,65 @@
       <c r="D290" s="6"/>
       <c r="E290" s="6"/>
       <c r="F290" s="6"/>
-      <c r="G290" s="6" t="s">
-        <v>70</v>
-      </c>
+      <c r="G290" s="6"/>
       <c r="H290" s="6"/>
       <c r="I290" s="6"/>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B291" s="6"/>
-      <c r="C291" s="6"/>
-      <c r="D291" s="6"/>
-      <c r="E291" s="6"/>
-      <c r="F291" s="6"/>
-      <c r="G291" s="6"/>
+      <c r="B291" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C291" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D291" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E291" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F291" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G291" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H291" s="6"/>
       <c r="I291" s="6"/>
     </row>
-    <row r="292" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B292" s="6"/>
       <c r="C292" s="6" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="D292" s="6" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="E292" s="6"/>
       <c r="F292" s="6"/>
       <c r="G292" s="6" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="H292" s="6"/>
       <c r="I292" s="6"/>
     </row>
-    <row r="293" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
       <c r="D293" s="6"/>
       <c r="E293" s="6"/>
       <c r="F293" s="6"/>
-      <c r="G293" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="G293" s="6"/>
       <c r="H293" s="6"/>
       <c r="I293" s="6"/>
     </row>
-    <row r="294" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
       <c r="D294" s="6"/>
       <c r="E294" s="6"/>
       <c r="F294" s="6"/>
-      <c r="G294" s="6" t="s">
-        <v>89</v>
-      </c>
+      <c r="G294" s="6"/>
       <c r="H294" s="6"/>
       <c r="I294" s="6"/>
     </row>
@@ -3254,104 +3223,104 @@
       <c r="D295" s="6"/>
       <c r="E295" s="6"/>
       <c r="F295" s="6"/>
-      <c r="G295" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="G295" s="6"/>
       <c r="H295" s="6"/>
       <c r="I295" s="6"/>
     </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
-      <c r="D296" s="6"/>
+      <c r="D296" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
-      <c r="G296" s="6"/>
+      <c r="G296" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="H296" s="6"/>
       <c r="I296" s="6"/>
     </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B297" s="6"/>
       <c r="C297" s="6"/>
       <c r="D297" s="6"/>
       <c r="E297" s="6"/>
       <c r="F297" s="6"/>
-      <c r="G297" s="6"/>
+      <c r="G297" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="H297" s="6"/>
       <c r="I297" s="6"/>
     </row>
-    <row r="298" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="6"/>
-      <c r="C298" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D298" s="6" t="s">
-        <v>107</v>
-      </c>
+      <c r="C298" s="6"/>
+      <c r="D298" s="6"/>
       <c r="E298" s="6"/>
       <c r="F298" s="6"/>
       <c r="G298" s="6" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="H298" s="6"/>
       <c r="I298" s="6"/>
     </row>
-    <row r="299" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B299" s="6"/>
       <c r="C299" s="6"/>
       <c r="D299" s="6"/>
       <c r="E299" s="6"/>
       <c r="F299" s="6"/>
       <c r="G299" s="6" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="H299" s="6"/>
       <c r="I299" s="6"/>
     </row>
-    <row r="300" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="6"/>
       <c r="C300" s="6"/>
       <c r="D300" s="6"/>
       <c r="E300" s="6"/>
       <c r="F300" s="6"/>
       <c r="G300" s="6" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="H300" s="6"/>
       <c r="I300" s="6"/>
     </row>
-    <row r="301" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B301" s="6"/>
       <c r="C301" s="6"/>
       <c r="D301" s="6"/>
       <c r="E301" s="6"/>
       <c r="F301" s="6"/>
       <c r="G301" s="6" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="H301" s="6"/>
       <c r="I301" s="6"/>
     </row>
-    <row r="302" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="6"/>
       <c r="C302" s="6"/>
       <c r="D302" s="6"/>
       <c r="E302" s="6"/>
       <c r="F302" s="6"/>
       <c r="G302" s="6" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="H302" s="6"/>
       <c r="I302" s="6"/>
     </row>
-    <row r="303" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B303" s="6"/>
       <c r="C303" s="6"/>
       <c r="D303" s="6"/>
       <c r="E303" s="6"/>
       <c r="F303" s="6"/>
       <c r="G303" s="6" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="H303" s="6"/>
       <c r="I303" s="6"/>
@@ -3369,50 +3338,52 @@
     <row r="305" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B305" s="6"/>
       <c r="C305" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="E305" s="6"/>
       <c r="F305" s="6"/>
       <c r="G305" s="6" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="H305" s="6"/>
       <c r="I305" s="6"/>
     </row>
-    <row r="306" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
       <c r="D306" s="6"/>
       <c r="E306" s="6"/>
       <c r="F306" s="6"/>
       <c r="G306" s="6" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="H306" s="6"/>
       <c r="I306" s="6"/>
     </row>
-    <row r="307" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
       <c r="D307" s="6"/>
       <c r="E307" s="6"/>
       <c r="F307" s="6"/>
       <c r="G307" s="6" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="H307" s="6"/>
       <c r="I307" s="6"/>
     </row>
-    <row r="308" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="6"/>
       <c r="C308" s="6"/>
       <c r="D308" s="6"/>
       <c r="E308" s="6"/>
       <c r="F308" s="6"/>
-      <c r="G308" s="6"/>
+      <c r="G308" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="H308" s="6"/>
       <c r="I308" s="6"/>
     </row>
@@ -3426,87 +3397,89 @@
       <c r="H309" s="6"/>
       <c r="I309" s="6"/>
     </row>
-    <row r="310" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="6"/>
-      <c r="C310" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D310" s="6" t="s">
-        <v>139</v>
-      </c>
+      <c r="C310" s="6"/>
+      <c r="D310" s="6"/>
       <c r="E310" s="6"/>
       <c r="F310" s="6"/>
-      <c r="G310" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H310" s="6" t="s">
-        <v>141</v>
-      </c>
+      <c r="G310" s="6"/>
+      <c r="H310" s="6"/>
       <c r="I310" s="6"/>
     </row>
     <row r="311" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B311" s="6"/>
       <c r="C311" s="6" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="E311" s="6"/>
       <c r="F311" s="6"/>
       <c r="G311" s="6" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="H311" s="6"/>
       <c r="I311" s="6"/>
     </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="6"/>
       <c r="C312" s="6"/>
       <c r="D312" s="6"/>
       <c r="E312" s="6"/>
       <c r="F312" s="6"/>
-      <c r="G312" s="6"/>
+      <c r="G312" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="H312" s="6"/>
       <c r="I312" s="6"/>
     </row>
-    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B313" s="6"/>
       <c r="C313" s="6"/>
       <c r="D313" s="6"/>
       <c r="E313" s="6"/>
       <c r="F313" s="6"/>
-      <c r="G313" s="6"/>
+      <c r="G313" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="H313" s="6"/>
       <c r="I313" s="6"/>
     </row>
-    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="6"/>
       <c r="C314" s="6"/>
       <c r="D314" s="6"/>
       <c r="E314" s="6"/>
       <c r="F314" s="6"/>
-      <c r="G314" s="6"/>
+      <c r="G314" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="H314" s="6"/>
       <c r="I314" s="6"/>
     </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B315" s="6"/>
       <c r="C315" s="6"/>
       <c r="D315" s="6"/>
       <c r="E315" s="6"/>
       <c r="F315" s="6"/>
-      <c r="G315" s="6"/>
+      <c r="G315" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="H315" s="6"/>
       <c r="I315" s="6"/>
     </row>
-    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
       <c r="D316" s="6"/>
       <c r="E316" s="6"/>
       <c r="F316" s="6"/>
-      <c r="G316" s="6"/>
+      <c r="G316" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="H316" s="6"/>
       <c r="I316" s="6"/>
     </row>
@@ -3520,93 +3493,97 @@
       <c r="H317" s="6"/>
       <c r="I317" s="6"/>
     </row>
-    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="6"/>
-      <c r="C318" s="6"/>
-      <c r="D318" s="6"/>
+      <c r="C318" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D318" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="E318" s="6"/>
       <c r="F318" s="6"/>
-      <c r="G318" s="6"/>
+      <c r="G318" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="H318" s="6"/>
       <c r="I318" s="6"/>
     </row>
-    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
       <c r="D319" s="6"/>
       <c r="E319" s="6"/>
       <c r="F319" s="6"/>
-      <c r="G319" s="6"/>
+      <c r="G319" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="H319" s="6"/>
       <c r="I319" s="6"/>
     </row>
-    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B320" s="6"/>
       <c r="C320" s="6"/>
       <c r="D320" s="6"/>
       <c r="E320" s="6"/>
       <c r="F320" s="6"/>
-      <c r="G320" s="6"/>
+      <c r="G320" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="H320" s="6"/>
       <c r="I320" s="6"/>
     </row>
-    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B321" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C321" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D321" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E321" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F321" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G321" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H321" s="6" t="s">
-        <v>51</v>
-      </c>
+    <row r="321" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B321" s="6"/>
+      <c r="C321" s="6"/>
+      <c r="D321" s="6"/>
+      <c r="E321" s="6"/>
+      <c r="F321" s="6"/>
+      <c r="G321" s="6"/>
+      <c r="H321" s="6"/>
       <c r="I321" s="6"/>
     </row>
-    <row r="322" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B322" s="6"/>
-      <c r="C322" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D322" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="C322" s="6"/>
+      <c r="D322" s="6"/>
       <c r="E322" s="6"/>
       <c r="F322" s="6"/>
-      <c r="G322" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="G322" s="6"/>
       <c r="H322" s="6"/>
       <c r="I322" s="6"/>
     </row>
-    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B323" s="6"/>
-      <c r="C323" s="6"/>
-      <c r="D323" s="6"/>
+      <c r="C323" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D323" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="E323" s="6"/>
       <c r="F323" s="6"/>
-      <c r="G323" s="6"/>
-      <c r="H323" s="6"/>
+      <c r="G323" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H323" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="I323" s="6"/>
     </row>
-    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="6"/>
-      <c r="C324" s="6"/>
-      <c r="D324" s="6"/>
+      <c r="C324" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D324" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="E324" s="6"/>
       <c r="F324" s="6"/>
-      <c r="G324" s="6"/>
+      <c r="G324" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="H324" s="6"/>
       <c r="I324" s="6"/>
     </row>
@@ -3620,236 +3597,226 @@
       <c r="H325" s="6"/>
       <c r="I325" s="6"/>
     </row>
-    <row r="326" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="6"/>
       <c r="C326" s="6"/>
-      <c r="D326" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="D326" s="6"/>
       <c r="E326" s="6"/>
       <c r="F326" s="6"/>
-      <c r="G326" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="G326" s="6"/>
       <c r="H326" s="6"/>
       <c r="I326" s="6"/>
     </row>
-    <row r="327" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="6"/>
       <c r="C327" s="6"/>
       <c r="D327" s="6"/>
       <c r="E327" s="6"/>
       <c r="F327" s="6"/>
-      <c r="G327" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="G327" s="6"/>
       <c r="H327" s="6"/>
       <c r="I327" s="6"/>
     </row>
-    <row r="328" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
       <c r="D328" s="6"/>
       <c r="E328" s="6"/>
       <c r="F328" s="6"/>
-      <c r="G328" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="G328" s="6"/>
       <c r="H328" s="6"/>
       <c r="I328" s="6"/>
     </row>
-    <row r="329" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="6"/>
       <c r="C329" s="6"/>
       <c r="D329" s="6"/>
       <c r="E329" s="6"/>
       <c r="F329" s="6"/>
-      <c r="G329" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="G329" s="6"/>
       <c r="H329" s="6"/>
       <c r="I329" s="6"/>
     </row>
-    <row r="330" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B330" s="6"/>
       <c r="C330" s="6"/>
       <c r="D330" s="6"/>
       <c r="E330" s="6"/>
       <c r="F330" s="6"/>
-      <c r="G330" s="6" t="s">
-        <v>67</v>
-      </c>
+      <c r="G330" s="6"/>
       <c r="H330" s="6"/>
       <c r="I330" s="6"/>
     </row>
-    <row r="331" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
       <c r="D331" s="6"/>
       <c r="E331" s="6"/>
       <c r="F331" s="6"/>
-      <c r="G331" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="G331" s="6"/>
       <c r="H331" s="6"/>
       <c r="I331" s="6"/>
     </row>
-    <row r="332" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="6"/>
       <c r="C332" s="6"/>
       <c r="D332" s="6"/>
       <c r="E332" s="6"/>
       <c r="F332" s="6"/>
-      <c r="G332" s="6" t="s">
-        <v>69</v>
-      </c>
+      <c r="G332" s="6"/>
       <c r="H332" s="6"/>
       <c r="I332" s="6"/>
     </row>
-    <row r="333" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B333" s="6"/>
       <c r="C333" s="6"/>
       <c r="D333" s="6"/>
       <c r="E333" s="6"/>
       <c r="F333" s="6"/>
-      <c r="G333" s="6" t="s">
-        <v>70</v>
-      </c>
+      <c r="G333" s="6"/>
       <c r="H333" s="6"/>
       <c r="I333" s="6"/>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B334" s="6"/>
-      <c r="C334" s="6"/>
-      <c r="D334" s="6"/>
-      <c r="E334" s="6"/>
-      <c r="F334" s="6"/>
-      <c r="G334" s="6"/>
-      <c r="H334" s="6"/>
+      <c r="B334" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C334" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D334" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E334" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F334" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G334" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H334" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="I334" s="6"/>
     </row>
-    <row r="335" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="6"/>
       <c r="C335" s="6" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="E335" s="6"/>
       <c r="F335" s="6"/>
       <c r="G335" s="6" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="H335" s="6"/>
       <c r="I335" s="6"/>
     </row>
-    <row r="336" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
       <c r="D336" s="6"/>
       <c r="E336" s="6"/>
       <c r="F336" s="6"/>
-      <c r="G336" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="G336" s="6"/>
       <c r="H336" s="6"/>
       <c r="I336" s="6"/>
     </row>
-    <row r="337" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
       <c r="D337" s="6"/>
       <c r="E337" s="6"/>
       <c r="F337" s="6"/>
-      <c r="G337" s="6" t="s">
-        <v>89</v>
-      </c>
+      <c r="G337" s="6"/>
       <c r="H337" s="6"/>
       <c r="I337" s="6"/>
     </row>
-    <row r="338" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B338" s="6"/>
       <c r="C338" s="6"/>
       <c r="D338" s="6"/>
       <c r="E338" s="6"/>
       <c r="F338" s="6"/>
-      <c r="G338" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="G338" s="6"/>
       <c r="H338" s="6"/>
       <c r="I338" s="6"/>
     </row>
-    <row r="339" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B339" s="6"/>
       <c r="C339" s="6"/>
-      <c r="D339" s="6"/>
+      <c r="D339" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="E339" s="6"/>
       <c r="F339" s="6"/>
       <c r="G339" s="6" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="H339" s="6"/>
       <c r="I339" s="6"/>
     </row>
-    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
       <c r="D340" s="6"/>
       <c r="E340" s="6"/>
       <c r="F340" s="6"/>
-      <c r="G340" s="6"/>
+      <c r="G340" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="H340" s="6"/>
       <c r="I340" s="6"/>
     </row>
-    <row r="341" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B341" s="6"/>
-      <c r="C341" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D341" s="6" t="s">
-        <v>107</v>
-      </c>
+      <c r="C341" s="6"/>
+      <c r="D341" s="6"/>
       <c r="E341" s="6"/>
       <c r="F341" s="6"/>
       <c r="G341" s="6" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="H341" s="6"/>
       <c r="I341" s="6"/>
     </row>
-    <row r="342" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
       <c r="D342" s="6"/>
       <c r="E342" s="6"/>
       <c r="F342" s="6"/>
       <c r="G342" s="6" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="H342" s="6"/>
       <c r="I342" s="6"/>
     </row>
-    <row r="343" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
       <c r="D343" s="6"/>
       <c r="E343" s="6"/>
       <c r="F343" s="6"/>
       <c r="G343" s="6" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="H343" s="6"/>
       <c r="I343" s="6"/>
     </row>
-    <row r="344" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
       <c r="D344" s="6"/>
       <c r="E344" s="6"/>
       <c r="F344" s="6"/>
       <c r="G344" s="6" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="H344" s="6"/>
       <c r="I344" s="6"/>
@@ -3861,7 +3828,7 @@
       <c r="E345" s="6"/>
       <c r="F345" s="6"/>
       <c r="G345" s="6" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="H345" s="6"/>
       <c r="I345" s="6"/>
@@ -3873,7 +3840,7 @@
       <c r="E346" s="6"/>
       <c r="F346" s="6"/>
       <c r="G346" s="6" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="H346" s="6"/>
       <c r="I346" s="6"/>
@@ -3891,86 +3858,246 @@
     <row r="348" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="6"/>
       <c r="C348" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D348" s="6" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="E348" s="6"/>
       <c r="F348" s="6"/>
       <c r="G348" s="6" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="H348" s="6"/>
       <c r="I348" s="6"/>
     </row>
-    <row r="349" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
       <c r="D349" s="6"/>
       <c r="E349" s="6"/>
       <c r="F349" s="6"/>
       <c r="G349" s="6" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="H349" s="6"/>
       <c r="I349" s="6"/>
     </row>
-    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B350" s="6"/>
       <c r="C350" s="6"/>
       <c r="D350" s="6"/>
       <c r="E350" s="6"/>
       <c r="F350" s="6"/>
       <c r="G350" s="6" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="H350" s="6"/>
       <c r="I350" s="6"/>
     </row>
-    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
       <c r="D351" s="6"/>
       <c r="E351" s="6"/>
       <c r="F351" s="6"/>
-      <c r="G351" s="6"/>
+      <c r="G351" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="H351" s="6"/>
       <c r="I351" s="6"/>
     </row>
     <row r="352" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B352" s="6"/>
-      <c r="C352" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D352" s="6" t="s">
-        <v>139</v>
-      </c>
+      <c r="C352" s="6"/>
+      <c r="D352" s="6"/>
       <c r="E352" s="6"/>
       <c r="F352" s="6"/>
       <c r="G352" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H352" s="6" t="s">
-        <v>141</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="H352" s="6"/>
       <c r="I352" s="6"/>
     </row>
-    <row r="353" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B353" s="6"/>
-      <c r="C353" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D353" s="6" t="s">
-        <v>142</v>
-      </c>
+      <c r="C353" s="6"/>
+      <c r="D353" s="6"/>
       <c r="E353" s="6"/>
       <c r="F353" s="6"/>
-      <c r="G353" s="6" t="s">
-        <v>140</v>
-      </c>
+      <c r="G353" s="6"/>
       <c r="H353" s="6"/>
       <c r="I353" s="6"/>
+    </row>
+    <row r="354" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B354" s="6"/>
+      <c r="C354" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D354" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E354" s="6"/>
+      <c r="F354" s="6"/>
+      <c r="G354" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H354" s="6"/>
+      <c r="I354" s="6"/>
+    </row>
+    <row r="355" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B355" s="6"/>
+      <c r="C355" s="6"/>
+      <c r="D355" s="6"/>
+      <c r="E355" s="6"/>
+      <c r="F355" s="6"/>
+      <c r="G355" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H355" s="6"/>
+      <c r="I355" s="6"/>
+    </row>
+    <row r="356" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B356" s="6"/>
+      <c r="C356" s="6"/>
+      <c r="D356" s="6"/>
+      <c r="E356" s="6"/>
+      <c r="F356" s="6"/>
+      <c r="G356" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H356" s="6"/>
+      <c r="I356" s="6"/>
+    </row>
+    <row r="357" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B357" s="6"/>
+      <c r="C357" s="6"/>
+      <c r="D357" s="6"/>
+      <c r="E357" s="6"/>
+      <c r="F357" s="6"/>
+      <c r="G357" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H357" s="6"/>
+      <c r="I357" s="6"/>
+    </row>
+    <row r="358" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B358" s="6"/>
+      <c r="C358" s="6"/>
+      <c r="D358" s="6"/>
+      <c r="E358" s="6"/>
+      <c r="F358" s="6"/>
+      <c r="G358" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H358" s="6"/>
+      <c r="I358" s="6"/>
+    </row>
+    <row r="359" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B359" s="6"/>
+      <c r="C359" s="6"/>
+      <c r="D359" s="6"/>
+      <c r="E359" s="6"/>
+      <c r="F359" s="6"/>
+      <c r="G359" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H359" s="6"/>
+      <c r="I359" s="6"/>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B360" s="6"/>
+      <c r="C360" s="6"/>
+      <c r="D360" s="6"/>
+      <c r="E360" s="6"/>
+      <c r="F360" s="6"/>
+      <c r="G360" s="6"/>
+      <c r="H360" s="6"/>
+      <c r="I360" s="6"/>
+    </row>
+    <row r="361" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B361" s="6"/>
+      <c r="C361" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D361" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E361" s="6"/>
+      <c r="F361" s="6"/>
+      <c r="G361" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H361" s="6"/>
+      <c r="I361" s="6"/>
+    </row>
+    <row r="362" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B362" s="6"/>
+      <c r="C362" s="6"/>
+      <c r="D362" s="6"/>
+      <c r="E362" s="6"/>
+      <c r="F362" s="6"/>
+      <c r="G362" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H362" s="6"/>
+      <c r="I362" s="6"/>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B363" s="6"/>
+      <c r="C363" s="6"/>
+      <c r="D363" s="6"/>
+      <c r="E363" s="6"/>
+      <c r="F363" s="6"/>
+      <c r="G363" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H363" s="6"/>
+      <c r="I363" s="6"/>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B364" s="6"/>
+      <c r="C364" s="6"/>
+      <c r="D364" s="6"/>
+      <c r="E364" s="6"/>
+      <c r="F364" s="6"/>
+      <c r="G364" s="6"/>
+      <c r="H364" s="6"/>
+      <c r="I364" s="6"/>
+    </row>
+    <row r="365" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B365" s="6"/>
+      <c r="C365" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D365" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E365" s="6"/>
+      <c r="F365" s="6"/>
+      <c r="G365" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H365" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I365" s="6"/>
+    </row>
+    <row r="366" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B366" s="6"/>
+      <c r="C366" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D366" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E366" s="6"/>
+      <c r="F366" s="6"/>
+      <c r="G366" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H366" s="6"/>
+      <c r="I366" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4013,7 +4140,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
@@ -4023,7 +4150,7 @@
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="9" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>10</v>
@@ -4099,7 +4226,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>30</v>
@@ -4124,7 +4251,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>56</v>
@@ -4135,7 +4262,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>40</v>
@@ -4143,7 +4270,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>42</v>
@@ -4151,17 +4278,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="200">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -530,38 +530,34 @@
     <t xml:space="preserve">14、AES密钥</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">15、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">AES</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">偏移量</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">21、RSA公钥</t>
+    <t xml:space="preserve">15、AES偏移量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21、RSA 密钥长度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">只读</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22、RSA 填充格式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23、RSA公钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24、RSA私钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31、SM4加密模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32、SM4填充格式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33、SM4密钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34、SM4偏移量</t>
   </si>
   <si>
     <t xml:space="preserve">pduLogFun</t>
@@ -758,8 +754,8 @@
   </sheetPr>
   <dimension ref="A2:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D137" activeCellId="0" sqref="D137"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F146" activeCellId="0" sqref="F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1177,7 +1173,7 @@
       <c r="E43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="0" t="s">
@@ -1226,7 +1222,7 @@
       <c r="E52" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="0" t="s">
@@ -1247,7 +1243,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="0" t="s">
@@ -1660,7 +1656,7 @@
       <c r="E128" s="3"/>
     </row>
     <row r="129" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D129" s="0" t="s">
@@ -1674,7 +1670,7 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C130" s="4"/>
+      <c r="C130" s="3"/>
       <c r="E130" s="3"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1706,7 +1702,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E135" s="3" t="s">
         <v>169</v>
       </c>
@@ -1714,34 +1710,66 @@
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E136" s="3"/>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E137" s="3" t="s">
+    <row r="137" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E137" s="4" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E138" s="3"/>
-    </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E139" s="3"/>
-    </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E140" s="3"/>
+      <c r="H137" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E138" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H138" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E139" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H139" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E140" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H140" s="0" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E141" s="3"/>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E142" s="3"/>
-    </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E143" s="3"/>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E144" s="3"/>
-    </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E145" s="3"/>
+    <row r="142" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E142" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H142" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E143" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E144" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E145" s="4" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E146" s="3"/>
@@ -1766,7 +1794,7 @@
     </row>
     <row r="156" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="5" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C156" s="0" t="s">
         <v>9</v>
@@ -1786,45 +1814,45 @@
     </row>
     <row r="157" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C157" s="0" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E158" s="0" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E159" s="0" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E160" s="0" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E161" s="0" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2074,7 +2102,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -2084,7 +2112,7 @@
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>10</v>
@@ -2160,7 +2188,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>30</v>
@@ -2185,7 +2213,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>56</v>
@@ -2196,7 +2224,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>40</v>
@@ -2204,7 +2232,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>42</v>
@@ -2212,17 +2240,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="206">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">2：电压</t>
   </si>
   <si>
-    <t xml:space="preserve">1：当前值（状态）</t>
+    <t xml:space="preserve">1：当前值（开关状态）</t>
   </si>
   <si>
     <t xml:space="preserve">或者是第几个回路</t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">3：电流</t>
   </si>
   <si>
-    <t xml:space="preserve">2：额定值 （模式）</t>
+    <t xml:space="preserve">2：额定值 （断开告警）</t>
   </si>
   <si>
     <t xml:space="preserve">第几个输出位</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">5：电能</t>
   </si>
   <si>
-    <t xml:space="preserve">4：最大值（顺序延时）</t>
+    <t xml:space="preserve">4：最大值（上电延时）</t>
   </si>
   <si>
     <t xml:space="preserve">6：环境（温湿度）</t>
@@ -143,57 +143,99 @@
     <t xml:space="preserve">7：视在功率</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6：下临界值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（超限断电）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">8：无功功率</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">7：上临界值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（定时开关）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">11：温度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8：使能状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12：湿度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21：门禁1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22：门禁2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23：水禁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24：烟雾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduSetData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">具体值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1：当前值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2：额定值 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4：最大值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5：最小值</t>
+  </si>
+  <si>
     <t xml:space="preserve">6：下临界值</t>
   </si>
   <si>
-    <t xml:space="preserve">8：无功功率</t>
-  </si>
-  <si>
     <t xml:space="preserve">7：上临界值</t>
   </si>
   <si>
-    <t xml:space="preserve">11：温度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8：使能状态</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12：湿度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21：门禁1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22：门禁2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23：水禁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24：烟雾</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pduSetData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">具体值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1：当前值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2：额定值 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4：最大值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5：最小值</t>
-  </si>
-  <si>
     <t xml:space="preserve">pduReadParam</t>
   </si>
   <si>
@@ -455,7 +497,13 @@
     <t xml:space="preserve">15、http接收端口</t>
   </si>
   <si>
-    <t xml:space="preserve">21、各输出位分组信息</t>
+    <t xml:space="preserve">20、输出位定时上电</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21、输出位定时下电</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22、各输出位分组信息</t>
   </si>
   <si>
     <t xml:space="preserve">第几个组</t>
@@ -464,10 +512,72 @@
     <t xml:space="preserve">0; 1; 2; 3;</t>
   </si>
   <si>
-    <t xml:space="preserve">22、组名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23、软件版本号</t>
+    <t xml:space="preserve">23、组名称</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">24、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">定时上电</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">25、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">定时下电</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">30、软件版本号</t>
   </si>
   <si>
     <t xml:space="preserve">1、核心业务程序版本</t>
@@ -500,7 +610,7 @@
     <t xml:space="preserve">14、第四块执行板软件版本</t>
   </si>
   <si>
-    <t xml:space="preserve">24、数据加密</t>
+    <t xml:space="preserve">31、数据加密</t>
   </si>
   <si>
     <t xml:space="preserve">1、是否开启接收加密</t>
@@ -566,7 +676,7 @@
     <t xml:space="preserve">从第几条开始</t>
   </si>
   <si>
-    <t xml:space="preserve">51、日志信息</t>
+    <t xml:space="preserve">81、日志信息</t>
   </si>
   <si>
     <t xml:space="preserve">1、报警 日志 </t>
@@ -754,8 +864,8 @@
   </sheetPr>
   <dimension ref="A2:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F146" activeCellId="0" sqref="F146"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D123" activeCellId="0" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -765,7 +875,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="20.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="20.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.62"/>
@@ -916,7 +1027,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
         <v>38</v>
       </c>
@@ -927,7 +1038,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
         <v>41</v>
       </c>
@@ -1088,7 +1199,7 @@
         <v>39</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1096,7 +1207,7 @@
         <v>41</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1134,7 +1245,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>9</v>
@@ -1143,10 +1254,10 @@
         <v>10</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>13</v>
@@ -1157,13 +1268,13 @@
     </row>
     <row r="42" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>28</v>
@@ -1177,45 +1288,45 @@
         <v>14</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E47" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E48" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E49" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E50" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E51" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1226,20 +1337,20 @@
         <v>14</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E55" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E56" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1247,66 +1358,66 @@
         <v>14</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E59" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E60" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E61" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E62" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E63" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E64" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E65" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E66" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E67" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E68" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1317,36 +1428,36 @@
     </row>
     <row r="71" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E72" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E73" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E74" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E75" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1354,296 +1465,310 @@
     </row>
     <row r="78" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E79" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E80" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E81" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E82" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E83" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E84" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E85" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E88" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E89" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E90" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E91" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E92" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E95" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E96" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E97" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C100" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C101" s="3"/>
       <c r="E101" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E102" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E105" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E106" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D107" s="3"/>
       <c r="E107" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D108" s="3"/>
       <c r="E108" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D109" s="3"/>
       <c r="E109" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D110" s="3"/>
       <c r="E110" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E111" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E112" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E113" s="0" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C115" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C116" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D115" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H115" s="3" t="s">
+      <c r="D116" s="0" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C116" s="0" t="s">
+      <c r="E116" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C117" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D116" s="0" t="s">
+      <c r="D117" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="E116" s="0" t="s">
-        <v>145</v>
+      <c r="E117" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="0" t="s">
+      <c r="C118" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="E118" s="0" t="s">
+      <c r="E118" s="3" t="s">
         <v>149</v>
       </c>
+      <c r="H118" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E119" s="3" t="s">
-        <v>150</v>
+      <c r="C119" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E120" s="0" t="s">
-        <v>151</v>
+      <c r="C120" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E121" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E122" s="0" t="s">
+      <c r="C121" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" s="0" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="123" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E123" s="3" t="s">
+      <c r="E121" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C124" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" s="0" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E124" s="3" t="s">
+      <c r="E124" s="0" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E125" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E126" s="3" t="s">
+      <c r="E126" s="0" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1652,225 +1777,249 @@
         <v>158</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E128" s="3"/>
+    <row r="128" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E128" s="0" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C129" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D129" s="0" t="s">
-        <v>159</v>
-      </c>
       <c r="E129" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H129" s="0" t="s">
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E130" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C130" s="3"/>
-      <c r="E130" s="3"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E131" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="H131" s="0" t="s">
+    </row>
+    <row r="132" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E132" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E132" s="3" t="s">
+    <row r="133" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E133" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="H132" s="0" t="s">
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C135" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D135" s="0" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E133" s="3" t="s">
+      <c r="E135" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="H133" s="0" t="s">
+      <c r="H135" s="0" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E134" s="3" t="s">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C136" s="3"/>
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E137" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="135" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E135" s="3" t="s">
+      <c r="H137" s="0" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E136" s="3"/>
-    </row>
-    <row r="137" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E137" s="4" t="s">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E138" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="H137" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E138" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="H138" s="0" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E139" s="4" t="s">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E139" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H139" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="H139" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E140" s="4" t="s">
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E140" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="H140" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E141" s="3"/>
-    </row>
-    <row r="142" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E142" s="3" t="s">
+    </row>
+    <row r="141" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E141" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="H142" s="0" t="s">
-        <v>171</v>
-      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E142" s="3"/>
     </row>
     <row r="143" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E143" s="4" t="s">
+      <c r="E143" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H143" s="4" t="s">
-        <v>171</v>
+      <c r="H143" s="0" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E144" s="4" t="s">
+      <c r="E144" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H144" s="0" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E145" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E146" s="3"/>
+      <c r="E145" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H145" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E146" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H146" s="0" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E147" s="3"/>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E148" s="3"/>
-    </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E149" s="3"/>
-    </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E150" s="3"/>
-    </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E151" s="3"/>
+    <row r="148" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E148" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H148" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E149" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E150" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E151" s="3" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E152" s="3"/>
     </row>
-    <row r="156" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C156" s="0" t="s">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E153" s="3"/>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E155" s="3"/>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E156" s="3"/>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E157" s="3"/>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E158" s="3"/>
+    </row>
+    <row r="162" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B162" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C162" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="D162" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E156" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G156" s="3" t="s">
+      <c r="E162" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G162" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C157" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D157" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="E157" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F157" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="G157" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E158" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="F158" s="0" t="s">
+    <row r="163" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C163" s="0" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="159" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E159" s="0" t="s">
+      <c r="D163" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="F159" s="0" t="s">
+      <c r="E163" s="0" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="160" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E160" s="0" t="s">
+      <c r="F163" s="0" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="161" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E161" s="0" t="s">
+      <c r="G163" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G180" s="3"/>
-    </row>
-    <row r="181" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G181" s="3"/>
-    </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D182" s="3"/>
-      <c r="G182" s="3"/>
-    </row>
-    <row r="1048381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E164" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="F164" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E165" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="F165" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E166" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E167" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G186" s="3"/>
+    </row>
+    <row r="187" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G187" s="3"/>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D188" s="3"/>
+      <c r="G188" s="3"/>
+    </row>
     <row r="1048387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2102,7 +2251,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -2112,7 +2261,7 @@
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>10</v>
@@ -2188,7 +2337,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>30</v>
@@ -2213,7 +2362,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>56</v>
@@ -2224,33 +2373,33 @@
         <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="225">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -141,6 +141,498 @@
   </si>
   <si>
     <t xml:space="preserve">7：视在功率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6：下临界值（超限断电）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8：无功功率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7：上临界值（定时开关）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11：温度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8：使能状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12：湿度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21：门禁1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22：门禁2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23：水禁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24：烟雾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduSetData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">具体值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1：当前值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2：额定值 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4：最大值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5：最小值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6：下临界值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7：上临界值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduLogFun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">从第几条开始</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81、日志信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、报警 日志 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、日志数量 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">读取多少条</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、操作日志 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、读日志 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、系统日志 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、清除日志</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、电能记录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、硬件故障记录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduReadParam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduSetParam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10、输出位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、uut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、idc名称（数据中心）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、机房名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、模块名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、机柜名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、A,B路名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、设备名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、设备SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8、二维码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、相</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、回路</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、输出位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13、配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0、离线标识</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、系列号（A，B，C）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、副机的数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、modbus地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、版本号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、蜂鸣器开关</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、频率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、执行版的数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8、组开关使能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9、最近一次运行时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单位分钟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10、出厂来总运行时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单位小时</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addr ＝ 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14、用户登录信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、用户名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、预留信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、权限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、登陆验证</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用户名 ;　密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addr ＝ 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15、Modbus配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、RTU是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、RTU地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、波特率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:9600, 1:19200,2:38400,3:57600,4:115200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、校验位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NoParity = 0,        EvenParity = 1,         OddParity = 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、数据位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data5 = 0,Data6 = 1,Data7 = 2,Data8 = 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、停止位</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OneStop = 0, TwoStop=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、TCP是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、TCP端口号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">502,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16、SNMP配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、trap1地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、trap2地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、snmp v3 是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、账号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、密钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17、RPC配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、JSON-RPC是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 不开启 1开启TCP 2开启Websocket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、JSON-RPC端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、XML-RPC是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 不开启 1开启Http</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、XML-RPC端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18、主动推送配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、UDP推送1是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、UDP推送地址1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、UDP推送端口1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、UDP推送2是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、UDP推送地址2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、UDP推送端口2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 不开启 1UDP 2TCP 3Websocket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、设备反控模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8、设备反控端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9、时间间隔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、http推送是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0不开启 1POST 2PUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、http推送地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13、http推送延时时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14、http接收加密是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0不开启 1HTTP 2HTTPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15、http接收端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20、输出位定时上电</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21、输出位定时下电</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22、各输出位分组信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第几个组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0; 1; 2; 3;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23、组名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24、组定时上电</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25、组定时下电</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30、软件版本号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、核心业务程序版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、核心业务程序编译时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、守护进程版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、守护进程编译时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、屏幕UI版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、屏幕UI编译时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、第一块执行板软件版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、第二块执行板软件版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13、第三块执行板软件版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14、第四块执行板软件版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31、数据加密</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、是否开启接收加密</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0、不开启 1、AES加密 2 RSA加密 3 SM4国密 ４SM2加密</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、AES加密模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECB,        CBC,        CFB,        OFB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、填充方法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZERO,       PKCS7,      ISO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13、AES密钥长度</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AES_128,        AES_192,        AES_256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14、AES密钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15、AES偏移量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21、RSA 密钥长度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">只读</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22、RSA 填充格式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23、RSA公钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24、RSA私钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31、SM4加密模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32、SM4填充格式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33、SM4密钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34、SM4偏移量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32、TLS证书</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、序列号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、密钥长度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、之前无效</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、之后无效</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、主题：国家</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、主题：州或省</t>
   </si>
   <si>
     <r>
@@ -151,7 +643,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6：下临界值</t>
+      <t xml:space="preserve">13、</t>
     </r>
     <r>
       <rPr>
@@ -160,11 +652,14 @@
         <rFont val="等线"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">（超限断电）</t>
+      <t xml:space="preserve">主题：地方</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">8：无功功率</t>
+    <t xml:space="preserve">14、主题：组织</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15、主题：单位</t>
   </si>
   <si>
     <r>
@@ -175,7 +670,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7：上临界值</t>
+      <t xml:space="preserve">16、</t>
     </r>
     <r>
       <rPr>
@@ -184,335 +679,48 @@
         <rFont val="等线"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">（定时开关）</t>
+      <t xml:space="preserve">主题：</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">11：温度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8：使能状态</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12：湿度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21：门禁1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22：门禁2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23：水禁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24：烟雾</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pduSetData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">具体值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1：当前值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2：额定值 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4：最大值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5：最小值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6：下临界值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7：上临界值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pduReadParam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pduSetParam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10、输出位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、uut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、idc名称（数据中心）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、机房名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、模块名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、机柜名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、A,B路名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、设备名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7、设备SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8、二维码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、相</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、回路</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、输出位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13、配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0、离线标识</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、系列号（A，B，C）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、副机的数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、modbus地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、版本号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、蜂鸣器开关</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、频率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7、执行版的数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8、组开关使能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9、最近一次运行时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">单位分钟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10、出厂来总运行时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">单位小时</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Addr ＝ 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14、用户登录信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、用户名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、预留信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、权限</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、登陆验证</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用户名 ;　密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addr ＝ 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15、Modbus配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、RTU是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、RTU地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、波特率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0:9600, 1:19200,2:38400,3:57600,4:115200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、校验位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NoParity = 0,        EvenParity = 1,         OddParity = 2,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、数据位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data5 = 0,Data6 = 1,Data7 = 2,Data8 = 3,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、停止位</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OneStop = 0, TwoStop=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、TCP是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、TCP端口号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">502,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16、SNMP配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、trap1地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、trap2地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、snmp v3 是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、账号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、密钥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17、RPC配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、JSON-RPC是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 不开启 1开启TCP 2开启Websocket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、JSON-RPC端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、XML-RPC是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 不开启 1开启Http</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、XML-RPC端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18、主动推送配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、UDP推送1是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、UDP推送地址1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、UDP推送端口1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、UDP推送2是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、UDP推送地址2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、UDP推送端口2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 不开启 1UDP 2TCP 3Websocket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7、设备反控模式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8、设备反控端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9、时间间隔</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、http推送是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0不开启 1POST 2PUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、http推送地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13、http推送延时时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14、http接收加密是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0不开启 1HTTP 2HTTPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15、http接收端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20、输出位定时上电</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21、输出位定时下电</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22、各输出位分组信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">第几个组</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0; 1; 2; 3;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23、组名称</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">名称</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">17、主题：电子邮件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21、发行：国家</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22、发行：州或省</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">23、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">发行：地方</t>
+    </r>
   </si>
   <si>
     <r>
@@ -532,7 +740,7 @@
         <rFont val="等线"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">组</t>
+      <t xml:space="preserve">发行</t>
     </r>
     <r>
       <rPr>
@@ -542,7 +750,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">定时上电</t>
+      <t xml:space="preserve">：组织</t>
     </r>
   </si>
   <si>
@@ -563,7 +771,7 @@
         <rFont val="等线"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">组</t>
+      <t xml:space="preserve">发行</t>
     </r>
     <r>
       <rPr>
@@ -573,137 +781,42 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">定时下电</t>
+      <t xml:space="preserve">：单位</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">30、软件版本号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、核心业务程序版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、核心业务程序编译时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、守护进程版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、守护进程编译时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、屏幕UI版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、屏幕UI编译时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、第一块执行板软件版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、第二块执行板软件版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13、第三块执行板软件版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14、第四块执行板软件版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31、数据加密</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、是否开启接收加密</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0、不开启 1、AES加密 2 RSA加密 3 SM4国密 ４SM2加密</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、AES加密模式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECB,        CBC,        CFB,        OFB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、填充方法</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZERO,       PKCS7,      ISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13、AES密钥长度</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AES_128,        AES_192,        AES_256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14、AES密钥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15、AES偏移量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21、RSA 密钥长度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">只读</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22、RSA 填充格式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23、RSA公钥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24、RSA私钥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31、SM4加密模式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32、SM4填充格式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33、SM4密钥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34、SM4偏移量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pduLogFun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">从第几条开始</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81、日志信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、报警 日志 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、日志数量 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">读取多少条</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、操作日志 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、读日志 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、系统日志 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、清除日志</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、电能记录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、硬件故障记录</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">26、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">发行：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">名称</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">27、发行：电子邮件</t>
   </si>
   <si>
     <t xml:space="preserve">result</t>
@@ -825,16 +938,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -864,8 +977,8 @@
   </sheetPr>
   <dimension ref="A2:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D123" activeCellId="0" sqref="D123"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F167" activeCellId="0" sqref="F167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1243,300 +1356,310 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
+    <row r="40" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="C40" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>51</v>
+        <v>65</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E43" s="3"/>
+      <c r="E42" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E43" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>64</v>
-      </c>
       <c r="E44" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E46" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E47" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E48" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>10</v>
+      </c>
       <c r="E49" s="0" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E50" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E51" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E52" s="3"/>
+      <c r="B50" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E53" s="0" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>73</v>
-      </c>
       <c r="E54" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E55" s="0" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E56" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E57" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="E58" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E59" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E60" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E61" s="0" t="s">
-        <v>81</v>
-      </c>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E60" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>85</v>
+      </c>
       <c r="E62" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E63" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E64" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E65" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E66" s="3" t="s">
-        <v>86</v>
+      <c r="C66" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E67" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H67" s="0" t="s">
-        <v>88</v>
+      <c r="E67" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E68" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H68" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E70" s="3"/>
+      <c r="E68" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E69" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E70" s="0" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>92</v>
-      </c>
       <c r="E71" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E72" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E73" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E74" s="0" t="s">
-        <v>96</v>
+      <c r="E74" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E75" s="3" t="s">
-        <v>97</v>
+      <c r="E75" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E76" s="3"/>
-    </row>
-    <row r="78" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D78" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="E78" s="0" t="s">
+    </row>
+    <row r="76" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E76" s="4" t="s">
         <v>101</v>
       </c>
+      <c r="H76" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E78" s="4"/>
     </row>
     <row r="79" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>104</v>
+      </c>
       <c r="E79" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E80" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="H80" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E81" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="H81" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E82" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="H82" s="0" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E83" s="0" t="s">
+      <c r="E83" s="4" t="s">
         <v>109</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E84" s="0" t="s">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E84" s="4"/>
+    </row>
+    <row r="86" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E85" s="0" t="s">
+      <c r="D86" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="E86" s="0" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D87" s="0" t="s">
+      <c r="E87" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="E87" s="0" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E88" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="H88" s="0" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1544,494 +1667,556 @@
       <c r="E89" s="0" t="s">
         <v>117</v>
       </c>
+      <c r="H89" s="0" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E90" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E91" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="H91" s="0" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E92" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C94" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="E94" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="H94" s="0" t="s">
         <v>123</v>
       </c>
     </row>
+    <row r="93" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E93" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
     <row r="95" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>126</v>
+      </c>
       <c r="E95" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E96" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="H96" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E97" s="0" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D100" s="0" t="s">
-        <v>128</v>
-      </c>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E98" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E99" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E100" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="3"/>
-      <c r="E101" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>133</v>
+      </c>
       <c r="E102" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="H102" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E103" s="3" t="s">
-        <v>132</v>
+      <c r="E103" s="0" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E104" s="3" t="s">
-        <v>133</v>
+      <c r="E104" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="H104" s="0" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E105" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H105" s="0" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E106" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D107" s="3"/>
-      <c r="E107" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D108" s="3"/>
-      <c r="E108" s="3" t="s">
-        <v>138</v>
+      <c r="E105" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D109" s="3"/>
-      <c r="E109" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="H109" s="0" t="s">
-        <v>140</v>
+      <c r="C109" s="4"/>
+      <c r="E109" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D110" s="3"/>
-      <c r="E110" s="3" t="s">
-        <v>141</v>
+      <c r="E110" s="0" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E111" s="3" t="s">
-        <v>142</v>
+      <c r="E111" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E112" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>144</v>
+      <c r="E112" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E113" s="0" t="s">
-        <v>145</v>
+      <c r="E113" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H113" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E114" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D115" s="4"/>
+      <c r="E115" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C116" s="3" t="s">
+      <c r="D116" s="4"/>
+      <c r="E116" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D117" s="4"/>
+      <c r="E117" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H117" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D118" s="4"/>
+      <c r="E118" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E119" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E120" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E121" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C124" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D116" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="E116" s="4" t="s">
+      <c r="D124" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E124" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="3" t="s">
+    <row r="125" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C125" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D117" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="E117" s="4" t="s">
+      <c r="D125" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E125" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="3" t="s">
+    <row r="126" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C126" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D118" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="0" t="s">
+      <c r="D126" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C127" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D119" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="E119" s="0" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="3" t="s">
+      <c r="D127" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C128" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D120" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="E120" s="4" t="s">
+      <c r="D128" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="E128" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="3" t="s">
+    <row r="129" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C129" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D121" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="E121" s="4" t="s">
+      <c r="D129" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E129" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C124" s="0" t="s">
+    <row r="132" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C132" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D124" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="E124" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E125" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E126" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E127" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E128" s="0" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E129" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E130" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E131" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E132" s="3" t="s">
-        <v>163</v>
+      <c r="D132" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E133" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E134" s="3"/>
+      <c r="E133" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E134" s="0" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C135" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D135" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H135" s="0" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C136" s="3"/>
-      <c r="E136" s="3"/>
-    </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E137" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H137" s="0" t="s">
-        <v>169</v>
+      <c r="E135" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E136" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E137" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E138" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H138" s="0" t="s">
-        <v>171</v>
+      <c r="E138" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E139" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H139" s="0" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E140" s="3" t="s">
+      <c r="E139" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E141" s="3" t="s">
+    <row r="140" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E140" s="4" t="s">
         <v>175</v>
       </c>
     </row>
+    <row r="141" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E141" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E142" s="3"/>
+      <c r="E142" s="4"/>
     </row>
     <row r="143" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E143" s="3" t="s">
-        <v>176</v>
+      <c r="C143" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E144" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H144" s="0" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E145" s="3" t="s">
         <v>179</v>
       </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C144" s="4"/>
+      <c r="E144" s="4"/>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E145" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="H145" s="0" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E146" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E146" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E147" s="3"/>
-    </row>
-    <row r="148" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E148" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H148" s="0" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E149" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H149" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E150" s="3" t="s">
-        <v>183</v>
-      </c>
+      <c r="E147" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H147" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E148" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E149" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E150" s="4"/>
     </row>
     <row r="151" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E151" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E152" s="3"/>
-    </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E153" s="3"/>
-    </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E154" s="3"/>
+      <c r="E151" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H151" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E152" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H152" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E153" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H153" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E154" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H154" s="0" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E155" s="3"/>
-    </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E156" s="3"/>
-    </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E157" s="3"/>
-    </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E158" s="3"/>
-    </row>
-    <row r="162" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C162" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E162" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G162" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C163" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="D163" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="E163" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="F163" s="0" t="s">
+      <c r="E155" s="4"/>
+    </row>
+    <row r="156" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E156" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H156" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="G163" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E164" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="F164" s="0" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E165" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="F165" s="0" t="s">
+    </row>
+    <row r="157" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E157" s="4" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="166" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E166" s="0" t="s">
+      <c r="H157" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E158" s="4" t="s">
         <v>195</v>
       </c>
     </row>
+    <row r="159" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E159" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E160" s="4"/>
+    </row>
+    <row r="161" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D161" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E162" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E163" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E164" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E165" s="4"/>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E166" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
     <row r="167" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E167" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G186" s="3"/>
-    </row>
-    <row r="187" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G187" s="3"/>
-    </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D188" s="3"/>
-      <c r="G188" s="3"/>
-    </row>
-    <row r="1048387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="E167" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E168" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E169" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E170" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E171" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E172" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E174" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E175" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E176" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E177" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E178" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E179" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E180" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E181" s="5"/>
+    </row>
+    <row r="183" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E183" s="5"/>
+    </row>
+    <row r="198" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G198" s="4"/>
+    </row>
+    <row r="199" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G199" s="4"/>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D200" s="4"/>
+      <c r="G200" s="4"/>
+    </row>
     <row r="1048399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2251,7 +2436,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -2261,7 +2446,7 @@
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>10</v>
@@ -2337,7 +2522,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>30</v>
@@ -2362,7 +2547,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>56</v>
@@ -2373,7 +2558,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>57</v>
@@ -2381,7 +2566,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>58</v>
@@ -2389,17 +2574,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="238">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -242,6 +242,9 @@
     <t xml:space="preserve">5、硬件故障记录</t>
   </si>
   <si>
+    <t xml:space="preserve">6、软件升级记录</t>
+  </si>
+  <si>
     <t xml:space="preserve">pduReadParam</t>
   </si>
   <si>
@@ -497,6 +500,42 @@
     <t xml:space="preserve">15、http接收端口</t>
   </si>
   <si>
+    <t xml:space="preserve">19、MQTT配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、MQTT是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0不开启 1mqtt 2mqtts 3ws 4 wss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、服务器地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、Client ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、用户名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8、keepAlive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9、QoS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10、连接状态</t>
+  </si>
+  <si>
     <t xml:space="preserve">20、输出位定时上电</t>
   </si>
   <si>
@@ -635,25 +674,7 @@
     <t xml:space="preserve">12、主题：州或省</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">13、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">主题：地方</t>
-    </r>
+    <t xml:space="preserve">13、主题：地方</t>
   </si>
   <si>
     <t xml:space="preserve">14、主题：组织</t>
@@ -662,35 +683,7 @@
     <t xml:space="preserve">15、主题：单位</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">16、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">主题：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">名称</t>
-    </r>
+    <t xml:space="preserve">16、主题：名称</t>
   </si>
   <si>
     <t xml:space="preserve">17、主题：电子邮件</t>
@@ -702,118 +695,16 @@
     <t xml:space="preserve">22、发行：州或省</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">23、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">发行：地方</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">24、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">发行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">：组织</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">25、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">发行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">：单位</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">26、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">发行：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">名称</t>
-    </r>
+    <t xml:space="preserve">23、发行：地方</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24、发行：组织</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25、发行：单位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26、发行：名称</t>
   </si>
   <si>
     <t xml:space="preserve">27、发行：电子邮件</t>
@@ -853,7 +744,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -875,12 +766,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -925,7 +810,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -943,10 +828,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -977,8 +858,8 @@
   </sheetPr>
   <dimension ref="A2:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F167" activeCellId="0" sqref="F167"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F53" activeCellId="0" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1419,9 +1300,14 @@
         <v>72</v>
       </c>
     </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E46" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>9</v>
@@ -1444,13 +1330,13 @@
     </row>
     <row r="50" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>28</v>
@@ -1464,45 +1350,45 @@
         <v>14</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E53" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E54" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E55" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E56" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E57" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E58" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E59" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1513,20 +1399,20 @@
         <v>14</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E63" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E64" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1534,66 +1420,66 @@
         <v>14</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E67" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E68" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E69" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E70" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E71" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E72" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E73" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E74" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E75" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E76" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1604,36 +1490,36 @@
     </row>
     <row r="79" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E80" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E81" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E82" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E83" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1641,593 +1527,641 @@
     </row>
     <row r="86" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E88" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E89" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E90" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E91" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E92" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E96" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E97" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E98" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E99" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E100" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C102" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E105" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C108" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C109" s="4"/>
       <c r="E109" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E110" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E111" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E112" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E113" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E114" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D115" s="4"/>
       <c r="E115" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D117" s="4"/>
       <c r="E117" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D118" s="4"/>
       <c r="E118" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E119" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E120" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E121" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C124" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C123" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E124" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E125" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E126" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E127" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E128" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E129" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E130" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E131" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E132" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C135" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D124" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E124" s="4" t="s">
+      <c r="D135" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E135" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C125" s="4" t="s">
+    <row r="136" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C136" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D125" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="E125" s="4" t="s">
+      <c r="D136" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="E136" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C126" s="4" t="s">
+    <row r="137" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C137" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D126" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C127" s="0" t="s">
+      <c r="D137" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C138" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D127" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="E127" s="0" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C128" s="4" t="s">
+      <c r="D138" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C139" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D128" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="E128" s="4" t="s">
+      <c r="D139" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="E139" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C129" s="4" t="s">
+    <row r="140" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C140" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D129" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="E129" s="4" t="s">
+      <c r="D140" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="E140" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C132" s="0" t="s">
+    <row r="143" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C143" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D132" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="E132" s="0" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E133" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E134" s="0" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E135" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E136" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E137" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E138" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E139" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E140" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E141" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E142" s="4"/>
-    </row>
-    <row r="143" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C143" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="D143" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H143" s="0" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C144" s="4"/>
-      <c r="E144" s="4"/>
-    </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E145" s="4" t="s">
+      <c r="E143" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="H145" s="0" t="s">
+    </row>
+    <row r="144" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E144" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E145" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E146" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H146" s="0" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E147" s="4" t="s">
+    <row r="147" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E147" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="H147" s="0" t="s">
+    </row>
+    <row r="148" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E148" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E148" s="4" t="s">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E149" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E149" s="4" t="s">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E150" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E150" s="4"/>
     </row>
     <row r="151" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E151" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="H151" s="0" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="152" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E152" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E153" s="4"/>
+    </row>
+    <row r="154" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C154" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D154" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="H152" s="0" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E153" s="4" t="s">
+      <c r="E154" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="H153" s="0" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E154" s="4" t="s">
+      <c r="H154" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="H154" s="0" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C155" s="4"/>
       <c r="E155" s="4"/>
     </row>
-    <row r="156" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E156" s="4" t="s">
         <v>193</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E157" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H157" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>195</v>
+      </c>
+      <c r="H157" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E158" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>197</v>
+      </c>
+      <c r="H158" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E159" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E160" s="4"/>
-    </row>
-    <row r="161" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D161" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E161" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E160" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E161" s="4"/>
+    </row>
+    <row r="162" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E162" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>201</v>
+      </c>
+      <c r="H162" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E163" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>203</v>
+      </c>
+      <c r="H163" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E164" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E165" s="4"/>
+        <v>204</v>
+      </c>
+      <c r="H164" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E165" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H165" s="0" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E166" s="4" t="s">
+      <c r="E166" s="4"/>
+    </row>
+    <row r="167" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E167" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H167" s="0" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E167" s="5" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E168" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>207</v>
+      </c>
+      <c r="H168" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E169" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E170" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E171" s="4" t="s">
-        <v>207</v>
-      </c>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E171" s="4"/>
     </row>
     <row r="172" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E172" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D172" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E173" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E174" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E175" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E176" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E175" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E176" s="4"/>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E177" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E178" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E179" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E180" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E180" s="4" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E181" s="5"/>
+      <c r="E181" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E182" s="4" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E183" s="5"/>
-    </row>
-    <row r="198" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G198" s="4"/>
-    </row>
-    <row r="199" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G199" s="4"/>
-    </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D200" s="4"/>
-      <c r="G200" s="4"/>
-    </row>
-    <row r="1048399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="E183" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E185" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E186" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E187" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E188" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E189" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E190" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E191" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E192" s="4"/>
+    </row>
+    <row r="194" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E194" s="4"/>
+    </row>
+    <row r="209" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G209" s="4"/>
+    </row>
+    <row r="210" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G210" s="4"/>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D211" s="4"/>
+      <c r="G211" s="4"/>
+    </row>
     <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2435,18 +2369,18 @@
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="C1" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="7" t="s">
-        <v>217</v>
+      <c r="C2" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>10</v>
@@ -2522,7 +2456,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>30</v>
@@ -2547,7 +2481,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>56</v>
@@ -2558,7 +2492,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>57</v>
@@ -2566,7 +2500,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>58</v>
@@ -2574,17 +2508,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="241">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -188,6 +188,9 @@
     <t xml:space="preserve">2：额定值 </t>
   </si>
   <si>
+    <t xml:space="preserve">5：双电源数据</t>
+  </si>
+  <si>
     <t xml:space="preserve">4：最大值</t>
   </si>
   <si>
@@ -335,6 +338,9 @@
     <t xml:space="preserve">单位小时</t>
   </si>
   <si>
+    <t xml:space="preserve">11、双电源模式</t>
+  </si>
+  <si>
     <t xml:space="preserve">Addr ＝ 0</t>
   </si>
   <si>
@@ -558,6 +564,9 @@
   </si>
   <si>
     <t xml:space="preserve">25、组定时下电</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26、机架名称（双电源名称）</t>
   </si>
   <si>
     <t xml:space="preserve">30、软件版本号</t>
@@ -858,8 +867,8 @@
   </sheetPr>
   <dimension ref="A2:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F53" activeCellId="0" sqref="F53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F80" activeCellId="0" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1165,13 +1174,13 @@
     </row>
     <row r="28" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="0" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>33</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1182,7 +1191,7 @@
         <v>36</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1193,7 +1202,7 @@
         <v>39</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1201,7 +1210,7 @@
         <v>41</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1239,7 +1248,7 @@
     </row>
     <row r="40" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>9</v>
@@ -1248,10 +1257,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>13</v>
@@ -1259,55 +1268,55 @@
     </row>
     <row r="41" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E42" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E43" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>9</v>
@@ -1316,10 +1325,10 @@
         <v>10</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>13</v>
@@ -1330,13 +1339,13 @@
     </row>
     <row r="50" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>28</v>
@@ -1350,45 +1359,45 @@
         <v>14</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E53" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E54" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E55" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E56" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E57" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E58" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E59" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1399,20 +1408,20 @@
         <v>14</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E63" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E64" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1420,132 +1429,129 @@
         <v>14</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E67" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E68" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E69" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E70" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E71" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E72" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E73" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E74" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E75" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E76" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E77" s="4"/>
+      <c r="E77" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E78" s="4"/>
     </row>
-    <row r="79" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="E79" s="0" t="s">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D80" s="0" t="s">
+        <v>107</v>
+      </c>
       <c r="E80" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E81" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E82" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E83" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H83" s="0" t="s">
+      <c r="E83" s="0" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E84" s="4"/>
-    </row>
-    <row r="86" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="4" t="s">
+    <row r="84" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E84" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="H84" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="E86" s="0" t="s">
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E85" s="4"/>
+    </row>
+    <row r="87" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D87" s="0" t="s">
+        <v>115</v>
+      </c>
       <c r="E87" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E88" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="H88" s="0" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1577,75 +1583,75 @@
       <c r="E92" s="0" t="s">
         <v>124</v>
       </c>
+      <c r="H92" s="0" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="H93" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C95" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D95" s="0" t="s">
+    <row r="94" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E94" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="E95" s="0" t="s">
+      <c r="H94" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C96" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>129</v>
+      </c>
       <c r="E96" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E97" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E98" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E99" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E100" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D102" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="E102" s="0" t="s">
+    </row>
+    <row r="101" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E101" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="H102" s="0" t="s">
+    </row>
+    <row r="103" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C103" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D103" s="0" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="0" t="s">
         <v>137</v>
       </c>
+      <c r="H103" s="0" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="H104" s="0" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1653,89 +1659,89 @@
       <c r="E105" s="0" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D108" s="0" t="s">
+      <c r="H105" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="E108" s="0" t="s">
+    </row>
+    <row r="106" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E106" s="0" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="4"/>
-      <c r="E109" s="4" t="s">
+    <row r="109" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D109" s="0" t="s">
         <v>143</v>
       </c>
+      <c r="E109" s="0" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E110" s="0" t="s">
-        <v>144</v>
+      <c r="C110" s="4"/>
+      <c r="E110" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E111" s="4" t="s">
-        <v>145</v>
+      <c r="E111" s="0" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E112" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E113" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="H113" s="0" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E114" s="0" t="s">
+      <c r="E114" s="4" t="s">
         <v>149</v>
       </c>
+      <c r="H114" s="0" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D115" s="4"/>
-      <c r="E115" s="4" t="s">
-        <v>150</v>
+      <c r="E115" s="0" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D117" s="4"/>
-      <c r="E117" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="H117" s="0" t="s">
+      <c r="E117" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D118" s="4"/>
-      <c r="E118" s="4" t="s">
+      <c r="E118" s="0" t="s">
         <v>154</v>
       </c>
+      <c r="H118" s="0" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D119" s="4"/>
       <c r="E119" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E120" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="H120" s="4" t="s">
+      <c r="E120" s="4" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1743,75 +1749,72 @@
       <c r="E121" s="0" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="123" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C123" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D123" s="0" t="s">
+      <c r="H121" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E123" s="0" t="s">
+    </row>
+    <row r="122" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E122" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="H123" s="4" t="s">
+    </row>
+    <row r="124" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C124" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D124" s="0" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E124" s="0" t="s">
         <v>162</v>
       </c>
+      <c r="H124" s="4" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E125" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E126" s="0" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E127" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E128" s="0" t="s">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E127" s="0" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E128" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E129" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E130" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E131" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E132" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C135" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D135" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="E135" s="4" t="s">
-        <v>28</v>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E133" s="0" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1819,7 +1822,7 @@
         <v>14</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>28</v>
@@ -1830,35 +1833,35 @@
         <v>14</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H137" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C138" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" s="0" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="138" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C138" s="0" t="s">
+      <c r="E138" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C139" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D138" s="0" t="s">
+      <c r="D139" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="E139" s="0" t="s">
         <v>176</v>
-      </c>
-      <c r="E138" s="0" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C139" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D139" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1866,304 +1869,324 @@
         <v>14</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C143" s="0" t="s">
+    <row r="141" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C141" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D143" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="E143" s="0" t="s">
+      <c r="D141" s="0" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="144" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E144" s="4" t="s">
+      <c r="E141" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C142" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" s="0" t="s">
         <v>181</v>
       </c>
+      <c r="E142" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C145" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>182</v>
+      </c>
       <c r="E145" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E146" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E147" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E148" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E149" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E149" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E150" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E151" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E152" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E153" s="4"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E153" s="4" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C154" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D154" s="0" t="s">
-        <v>190</v>
-      </c>
       <c r="E154" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H154" s="0" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C155" s="4"/>
       <c r="E155" s="4"/>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C156" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>193</v>
+      </c>
       <c r="E156" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E157" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H157" s="0" t="s">
-        <v>196</v>
-      </c>
+      <c r="C157" s="4"/>
+      <c r="E157" s="4"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E158" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H158" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="H158" s="0" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E159" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H159" s="0" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E160" s="4" t="s">
         <v>200</v>
       </c>
+      <c r="H160" s="0" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E161" s="4"/>
-    </row>
-    <row r="162" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E161" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E162" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H162" s="0" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E163" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H163" s="0" t="s">
-        <v>202</v>
-      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E163" s="4"/>
     </row>
     <row r="164" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E164" s="4" t="s">
         <v>204</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E165" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H165" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="H165" s="0" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E166" s="4"/>
+    </row>
+    <row r="166" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E166" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H166" s="0" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E167" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E168" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H168" s="4" t="s">
-        <v>202</v>
-      </c>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E168" s="4"/>
     </row>
     <row r="169" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E169" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="H169" s="0" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E170" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E171" s="4"/>
+        <v>210</v>
+      </c>
+      <c r="H170" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E171" s="4" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D172" s="4" t="s">
-        <v>210</v>
-      </c>
       <c r="E172" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E173" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E173" s="4"/>
+    </row>
+    <row r="174" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D174" s="4" t="s">
+        <v>213</v>
+      </c>
       <c r="E174" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E175" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E176" s="4"/>
+      <c r="E176" s="4" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E177" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E178" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E178" s="4"/>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E179" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E180" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E181" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E182" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E183" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E184" s="4" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E185" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E186" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E187" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E188" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E189" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E190" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E191" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E192" s="4"/>
-    </row>
-    <row r="194" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E192" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E193" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E194" s="4"/>
     </row>
-    <row r="209" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G209" s="4"/>
-    </row>
-    <row r="210" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G210" s="4"/>
-    </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D211" s="4"/>
+    <row r="196" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E196" s="4"/>
+    </row>
+    <row r="211" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G211" s="4"/>
     </row>
-    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G212" s="4"/>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D213" s="4"/>
+      <c r="G213" s="4"/>
+    </row>
     <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2370,7 +2393,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -2380,7 +2403,7 @@
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="6" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>10</v>
@@ -2456,7 +2479,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>30</v>
@@ -2473,7 +2496,7 @@
         <v>32</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2481,10 +2504,10 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2492,33 +2515,33 @@
         <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="238">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -188,9 +188,6 @@
     <t xml:space="preserve">2：额定值 </t>
   </si>
   <si>
-    <t xml:space="preserve">5：双电源数据</t>
-  </si>
-  <si>
     <t xml:space="preserve">4：最大值</t>
   </si>
   <si>
@@ -338,18 +335,15 @@
     <t xml:space="preserve">单位小时</t>
   </si>
   <si>
-    <t xml:space="preserve">11、双电源模式</t>
+    <t xml:space="preserve">14、用户登录信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、用户名</t>
   </si>
   <si>
     <t xml:space="preserve">Addr ＝ 0</t>
   </si>
   <si>
-    <t xml:space="preserve">14、用户登录信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、用户名</t>
-  </si>
-  <si>
     <t xml:space="preserve">2、密码</t>
   </si>
   <si>
@@ -365,15 +359,15 @@
     <t xml:space="preserve">用户名 ;　密码</t>
   </si>
   <si>
+    <t xml:space="preserve">15、Modbus配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、RTU是否开启</t>
+  </si>
+  <si>
     <t xml:space="preserve">addr ＝ 0</t>
   </si>
   <si>
-    <t xml:space="preserve">15、Modbus配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、RTU是否开启</t>
-  </si>
-  <si>
     <t xml:space="preserve">2、RTU地址</t>
   </si>
   <si>
@@ -564,9 +558,6 @@
   </si>
   <si>
     <t xml:space="preserve">25、组定时下电</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26、机架名称（双电源名称）</t>
   </si>
   <si>
     <t xml:space="preserve">30、软件版本号</t>
@@ -753,7 +744,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -775,6 +766,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -819,7 +816,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -837,6 +834,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -867,8 +868,8 @@
   </sheetPr>
   <dimension ref="A2:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F80" activeCellId="0" sqref="F80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F57" activeCellId="0" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1174,13 +1175,13 @@
     </row>
     <row r="28" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="0" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>33</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1191,7 +1192,7 @@
         <v>36</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1202,7 +1203,7 @@
         <v>39</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1210,7 +1211,7 @@
         <v>41</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1248,7 +1249,7 @@
     </row>
     <row r="40" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>9</v>
@@ -1257,10 +1258,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>13</v>
@@ -1268,70 +1269,70 @@
     </row>
     <row r="41" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="E41" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="F41" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="G41" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E42" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E43" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E49" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>13</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>51</v>
@@ -1339,219 +1340,222 @@
     </row>
     <row r="50" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="0" t="s">
         <v>76</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>77</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="F50" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="4" t="s">
+      <c r="D52" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E53" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E54" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E55" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E56" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E57" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E58" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E59" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E60" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="4" t="s">
+      <c r="D62" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E63" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E64" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D66" s="0" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="4" t="s">
+      <c r="E66" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="E66" s="0" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E67" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E68" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E69" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E70" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E71" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E72" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E73" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E74" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E75" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H75" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E76" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H76" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="H76" s="0" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E77" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="E77" s="4"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E78" s="4"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E79" s="4"/>
+    <row r="79" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D79" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D80" s="0" t="s">
+      <c r="E80" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="E80" s="0" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E81" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E82" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E83" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E83" s="0" t="s">
+      <c r="H83" s="0" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E84" s="4" t="s">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E84" s="4"/>
+    </row>
+    <row r="86" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D86" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="H84" s="0" t="s">
+      <c r="E86" s="0" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E85" s="4"/>
+      <c r="F86" s="4" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D87" s="0" t="s">
+      <c r="E87" s="0" t="s">
         <v>115</v>
-      </c>
-      <c r="E87" s="0" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E88" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="H88" s="0" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1583,75 +1587,75 @@
       <c r="E92" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="H92" s="0" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="93" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="H93" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E94" s="0" t="s">
+    <row r="95" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D95" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="H94" s="4" t="s">
+      <c r="E95" s="0" t="s">
         <v>128</v>
       </c>
+      <c r="F95" s="4" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C96" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D96" s="0" t="s">
+      <c r="E96" s="0" t="s">
         <v>129</v>
-      </c>
-      <c r="E96" s="0" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E97" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E98" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E99" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E100" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D102" s="0" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E101" s="0" t="s">
+      <c r="E102" s="0" t="s">
         <v>135</v>
       </c>
+      <c r="F102" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H102" s="0" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D103" s="0" t="s">
-        <v>136</v>
-      </c>
       <c r="E103" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="H103" s="0" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="104" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H104" s="0" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1659,89 +1663,89 @@
       <c r="E105" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="H105" s="0" t="s">
+    </row>
+    <row r="108" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D108" s="0" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E106" s="0" t="s">
+      <c r="E108" s="0" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="4" t="s">
+      <c r="F108" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D109" s="0" t="s">
+    </row>
+    <row r="109" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E109" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E109" s="0" t="s">
+      <c r="F109" s="4"/>
+    </row>
+    <row r="110" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E110" s="0" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="4"/>
-      <c r="E110" s="4" t="s">
+    <row r="111" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E111" s="4" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E111" s="0" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E112" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E113" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H113" s="0" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E114" s="4" t="s">
+      <c r="E114" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="H114" s="0" t="s">
+    </row>
+    <row r="115" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D115" s="4"/>
+      <c r="E115" s="4" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E115" s="0" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D117" s="4"/>
-      <c r="E117" s="4" t="s">
+      <c r="E117" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="H117" s="0" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D118" s="4"/>
-      <c r="E118" s="0" t="s">
+      <c r="E118" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="H118" s="0" t="s">
+    </row>
+    <row r="119" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E119" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D119" s="4"/>
-      <c r="E119" s="4" t="s">
+    <row r="120" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E120" s="0" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="120" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E120" s="4" t="s">
+      <c r="H120" s="4" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1749,444 +1753,427 @@
       <c r="E121" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="H121" s="4" t="s">
+    </row>
+    <row r="123" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D123" s="0" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="122" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E122" s="0" t="s">
+      <c r="E123" s="0" t="s">
         <v>160</v>
       </c>
+      <c r="F123" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C124" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D124" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="E124" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="H124" s="4" t="s">
+    </row>
+    <row r="125" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E125" s="0" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E125" s="0" t="s">
+    <row r="126" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E126" s="0" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E126" s="0" t="s">
+    <row r="127" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E127" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E127" s="0" t="s">
+    <row r="128" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E128" s="0" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E128" s="4" t="s">
+    <row r="129" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E129" s="0" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E129" s="0" t="s">
+    <row r="130" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E130" s="0" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E130" s="0" t="s">
+    <row r="131" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E131" s="0" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E131" s="0" t="s">
+    <row r="132" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E132" s="0" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E132" s="0" t="s">
+    <row r="135" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D135" s="0" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E133" s="0" t="s">
+      <c r="E135" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D136" s="0" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C136" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D136" s="0" t="s">
-        <v>173</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="F136" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C137" s="4" t="s">
+      <c r="D137" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F137" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D137" s="0" t="s">
+      <c r="H137" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D138" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E138" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="E137" s="4" t="s">
+      <c r="F138" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D139" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="E139" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="138" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C138" s="4" t="s">
+      <c r="F139" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D138" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H138" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C139" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D139" s="0" t="s">
+    </row>
+    <row r="140" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D140" s="0" t="s">
         <v>178</v>
-      </c>
-      <c r="E139" s="0" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C140" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140" s="0" t="s">
-        <v>179</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="141" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C141" s="4" t="s">
+      <c r="F140" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D141" s="0" t="s">
+    </row>
+    <row r="143" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D143" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E143" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="E141" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C142" s="4" t="s">
+      <c r="F143" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D142" s="0" t="s">
+    </row>
+    <row r="144" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E144" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E142" s="4" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="145" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C145" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D145" s="0" t="s">
+      <c r="E145" s="0" t="s">
         <v>182</v>
-      </c>
-      <c r="E145" s="0" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E146" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E147" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E148" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E149" s="4" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E149" s="0" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E150" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E151" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E151" s="4" t="s">
+    <row r="152" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E152" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E152" s="4" t="s">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E153" s="4"/>
+    </row>
+    <row r="154" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D154" s="0" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="153" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E153" s="4" t="s">
+      <c r="E154" s="4" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="154" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E154" s="4" t="s">
+      <c r="F154" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H154" s="0" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
     </row>
     <row r="156" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C156" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D156" s="0" t="s">
+      <c r="E156" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E156" s="4" t="s">
+      <c r="H156" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="H156" s="0" t="s">
+    </row>
+    <row r="157" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E157" s="4" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C157" s="4"/>
-      <c r="E157" s="4"/>
-    </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H157" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E158" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E159" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="H159" s="0" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E160" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="H160" s="0" t="s">
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E161" s="4"/>
+    </row>
+    <row r="162" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E162" s="4" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E161" s="4" t="s">
+      <c r="H162" s="0" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E162" s="4" t="s">
+    <row r="163" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E163" s="4" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E163" s="4"/>
+      <c r="H163" s="0" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E164" s="4" t="s">
         <v>204</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E165" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E166" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H166" s="0" t="s">
-        <v>205</v>
-      </c>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E166" s="4"/>
     </row>
     <row r="167" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E167" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E168" s="4"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E168" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H168" s="4" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E169" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="H169" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E170" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E171" s="4"/>
+    </row>
+    <row r="172" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D172" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="H170" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E171" s="4" t="s">
+      <c r="E172" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E172" s="4" t="s">
+    <row r="173" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E173" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E173" s="4"/>
-    </row>
     <row r="174" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D174" s="4" t="s">
+      <c r="E174" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E174" s="4" t="s">
+    </row>
+    <row r="175" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E175" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E175" s="4" t="s">
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E176" s="4"/>
+    </row>
+    <row r="177" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E177" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E176" s="4" t="s">
+    <row r="178" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E178" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E177" s="4" t="s">
+    <row r="179" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E179" s="4" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E178" s="4"/>
-    </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E179" s="4" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E180" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E181" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E182" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E182" s="4" t="s">
+    <row r="183" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E183" s="4" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E183" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E184" s="4" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E185" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E186" s="4" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E187" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E188" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E189" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E190" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E191" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E192" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E193" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E192" s="4"/>
+    </row>
+    <row r="194" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E194" s="4"/>
     </row>
-    <row r="196" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E196" s="4"/>
-    </row>
-    <row r="211" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G209" s="4"/>
+    </row>
+    <row r="210" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G210" s="4"/>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D211" s="4"/>
       <c r="G211" s="4"/>
     </row>
-    <row r="212" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G212" s="4"/>
-    </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D213" s="4"/>
-      <c r="G213" s="4"/>
-    </row>
+    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2392,18 +2379,18 @@
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="6" t="s">
-        <v>233</v>
+      <c r="C2" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>10</v>
@@ -2479,7 +2466,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>30</v>
@@ -2496,7 +2483,7 @@
         <v>32</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2504,10 +2491,10 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2515,33 +2502,33 @@
         <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -335,15 +335,15 @@
     <t xml:space="preserve">单位小时</t>
   </si>
   <si>
+    <t xml:space="preserve">Addr ＝ 0</t>
+  </si>
+  <si>
     <t xml:space="preserve">14、用户登录信息</t>
   </si>
   <si>
     <t xml:space="preserve">1、用户名</t>
   </si>
   <si>
-    <t xml:space="preserve">Addr ＝ 0</t>
-  </si>
-  <si>
     <t xml:space="preserve">2、密码</t>
   </si>
   <si>
@@ -359,13 +359,13 @@
     <t xml:space="preserve">用户名 ;　密码</t>
   </si>
   <si>
+    <t xml:space="preserve">addr ＝ 0</t>
+  </si>
+  <si>
     <t xml:space="preserve">15、Modbus配置信息</t>
   </si>
   <si>
     <t xml:space="preserve">1、RTU是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addr ＝ 0</t>
   </si>
   <si>
     <t xml:space="preserve">2、RTU地址</t>
@@ -744,7 +744,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -766,12 +766,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -816,7 +810,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -834,10 +828,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -868,8 +858,8 @@
   </sheetPr>
   <dimension ref="A2:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F57" activeCellId="0" sqref="F57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F46" activeCellId="0" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1319,7 +1309,7 @@
       <c r="B49" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="0" t="s">
@@ -1342,28 +1332,28 @@
       <c r="B50" s="4" t="s">
         <v>75</v>
       </c>
+      <c r="C50" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="D50" s="0" t="s">
         <v>76</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F50" s="0" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="D52" s="0" t="s">
         <v>77</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1405,14 +1395,14 @@
       <c r="E60" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="D62" s="0" t="s">
         <v>86</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1426,14 +1416,14 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="D66" s="0" t="s">
         <v>90</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1499,13 +1489,13 @@
       <c r="E78" s="4"/>
     </row>
     <row r="79" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="D79" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="F79" s="4" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1536,13 +1526,13 @@
       <c r="E84" s="4"/>
     </row>
     <row r="86" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="D86" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="F86" s="4" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1597,14 +1587,14 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="D95" s="0" t="s">
         <v>127</v>
       </c>
       <c r="E95" s="0" t="s">
         <v>128</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1633,14 +1623,14 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="D102" s="0" t="s">
         <v>134</v>
       </c>
       <c r="E102" s="0" t="s">
         <v>135</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="H102" s="0" t="s">
         <v>136</v>
@@ -1665,21 +1655,21 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="D108" s="0" t="s">
         <v>141</v>
       </c>
       <c r="E108" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="F108" s="4" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="109" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="4"/>
       <c r="E109" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F109" s="4"/>
     </row>
     <row r="110" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E110" s="0" t="s">
@@ -1755,14 +1745,14 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C123" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="D123" s="0" t="s">
         <v>159</v>
       </c>
       <c r="E123" s="0" t="s">
         <v>160</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="H123" s="4" t="s">
         <v>161</v>
@@ -1814,83 +1804,83 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C135" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="D135" s="0" t="s">
         <v>171</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F135" s="4" t="s">
+    </row>
+    <row r="136" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C136" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="136" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D136" s="0" t="s">
         <v>172</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F136" s="4" t="s">
+    </row>
+    <row r="137" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C137" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="137" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D137" s="0" t="s">
         <v>173</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F137" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="H137" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C138" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="D138" s="0" t="s">
         <v>176</v>
       </c>
       <c r="E138" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="F138" s="0" t="s">
+    </row>
+    <row r="139" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C139" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="139" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D139" s="0" t="s">
         <v>177</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F139" s="4" t="s">
+    </row>
+    <row r="140" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C140" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="140" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D140" s="0" t="s">
         <v>178</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F140" s="4" t="s">
+    </row>
+    <row r="143" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C143" s="0" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="143" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D143" s="0" t="s">
         <v>179</v>
       </c>
       <c r="E143" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="F143" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1942,22 +1932,22 @@
       <c r="E153" s="4"/>
     </row>
     <row r="154" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C154" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="D154" s="0" t="s">
         <v>190</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="F154" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="H154" s="0" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C155" s="4"/>
       <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
     </row>
     <row r="156" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E156" s="4" t="s">
@@ -2379,17 +2369,17 @@
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>230</v>
       </c>
       <c r="D2" s="0" t="s">

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="244">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -119,604 +119,640 @@
     <t xml:space="preserve">3：报警状态</t>
   </si>
   <si>
+    <t xml:space="preserve">5：双电源数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5：电能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4：最大值（上电延时）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6：环境（温湿度）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6：功率因数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5：最小值（复位延时）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7：传感器（门禁其他传感器）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7：视在功率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6：下临界值（超限断电）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8：无功功率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7：上临界值（定时开关）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11：温度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8：使能状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12：湿度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21：门禁1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22：门禁2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23：水禁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24：烟雾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduSetData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">具体值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1：当前值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2：额定值 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">双电源数据</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4：最大值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5：最小值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6：下临界值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7：上临界值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduLogFun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">从第几条开始</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81、日志信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、报警 日志 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、日志数量 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">读取多少条</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、操作日志 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、读日志 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、系统日志 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、清除日志</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、电能记录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、硬件故障记录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、软件升级记录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduReadParam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduSetParam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10、输出位名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、uut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、idc名称（数据中心）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、机房名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、模块名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、机柜名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、A,B路名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、设备名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、设备SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8、二维码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、相</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、回路</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、输出位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13、配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0、离线标识</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、系列号（A，B，C）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、副机的数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、modbus地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、版本号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、蜂鸣器开关</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、频率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、执行版的数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8、组开关使能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9、最近一次运行时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单位分钟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10、出厂来总运行时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单位小时</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addr ＝ 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14、用户登录信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、用户名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、预留信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、权限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、登陆验证</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用户名 ;　密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addr ＝ 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15、Modbus配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、RTU是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、RTU地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、波特率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:9600, 1:19200,2:38400,3:57600,4:115200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、校验位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NoParity = 0,        EvenParity = 1,         OddParity = 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、数据位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data5 = 0,Data6 = 1,Data7 = 2,Data8 = 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、停止位</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OneStop = 0, TwoStop=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、TCP是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、TCP端口号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">502,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16、SNMP配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、trap1地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、trap2地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、snmp v3 是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、账号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、密钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17、RPC配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、JSON-RPC是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 不开启 1开启TCP 2开启Websocket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、JSON-RPC端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、XML-RPC是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 不开启 1开启Http</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、XML-RPC端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18、主动推送配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、UDP推送1是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、UDP推送地址1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、UDP推送端口1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、UDP推送2是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、UDP推送地址2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、UDP推送端口2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 不开启 1UDP 2TCP 3Websocket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、设备反控模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8、设备反控端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9、时间间隔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、http推送是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0不开启 1POST 2PUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、http推送地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13、http推送延时时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14、http接收加密是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0不开启 1HTTP 2HTTPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15、http接收端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19、MQTT配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、MQTT是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0不开启 1mqtt 2mqtts 3ws 4 wss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、服务器地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、Client ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、用户名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8、keepAlive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9、QoS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10、连接状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21、各输出位分组信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第几个组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0; 1; 2; 3;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22、输出位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第几个</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23、分组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、定时上电</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地址＝0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24、双电源</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、定时下电</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30、软件版本号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、核心业务程序版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、核心业务程序编译时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、守护进程版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、守护进程编译时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、屏幕UI版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、屏幕UI编译时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、第一块执行板软件版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、第二块执行板软件版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13、第三块执行板软件版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14、第四块执行板软件版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31、数据加密</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、是否开启接收加密</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0、不开启 1、AES加密 2 RSA加密 3 SM4国密 ４SM2加密</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、AES加密模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECB,        CBC,        CFB,        OFB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、填充方法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZERO,       PKCS7,      ISO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13、AES密钥长度</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AES_128,        AES_192,        AES_256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14、AES密钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15、AES偏移量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21、RSA 密钥长度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">只读</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22、RSA 填充格式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23、RSA公钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24、RSA私钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31、SM4加密模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32、SM4填充格式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33、SM4密钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34、SM4偏移量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32、TLS证书</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、序列号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、密钥长度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、之前无效</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、之后无效</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、主题：国家</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、主题：州或省</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13、主题：地方</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14、主题：组织</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15、主题：单位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16、主题：名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17、主题：电子邮件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21、发行：国家</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22、发行：州或省</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23、发行：地方</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24、发行：组织</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25、发行：单位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26、发行：名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27、发行：电子邮件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addr(主从机)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4：保留</t>
+  </si>
+  <si>
     <t xml:space="preserve">5：保留</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5：电能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4：最大值（上电延时）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6：环境（温湿度）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6：功率因数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5：最小值（复位延时）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7：传感器（门禁其他传感器）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7：视在功率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6：下临界值（超限断电）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8：无功功率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7：上临界值（定时开关）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11：温度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8：使能状态</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12：湿度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21：门禁1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22：门禁2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23：水禁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24：烟雾</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pduSetData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">具体值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1：当前值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2：额定值 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4：最大值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5：最小值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6：下临界值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7：上临界值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pduLogFun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">从第几条开始</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81、日志信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、报警 日志 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、日志数量 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">读取多少条</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、操作日志 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、读日志 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、系统日志 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、清除日志</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、电能记录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、硬件故障记录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、软件升级记录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pduReadParam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pduSetParam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10、输出位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、uut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、idc名称（数据中心）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、机房名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、模块名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、机柜名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、A,B路名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、设备名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7、设备SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8、二维码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、相</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、回路</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、输出位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13、配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0、离线标识</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、系列号（A，B，C）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、副机的数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、modbus地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、版本号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、蜂鸣器开关</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、频率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7、执行版的数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8、组开关使能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9、最近一次运行时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">单位分钟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10、出厂来总运行时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">单位小时</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Addr ＝ 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14、用户登录信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、用户名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、预留信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、权限</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、登陆验证</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用户名 ;　密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addr ＝ 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15、Modbus配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、RTU是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、RTU地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、波特率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0:9600, 1:19200,2:38400,3:57600,4:115200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、校验位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NoParity = 0,        EvenParity = 1,         OddParity = 2,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、数据位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data5 = 0,Data6 = 1,Data7 = 2,Data8 = 3,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、停止位</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OneStop = 0, TwoStop=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、TCP是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、TCP端口号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">502,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16、SNMP配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、trap1地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、trap2地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、snmp v3 是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、账号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、密钥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17、RPC配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、JSON-RPC是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 不开启 1开启TCP 2开启Websocket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、JSON-RPC端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、XML-RPC是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 不开启 1开启Http</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、XML-RPC端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18、主动推送配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、UDP推送1是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、UDP推送地址1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、UDP推送端口1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、UDP推送2是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、UDP推送地址2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、UDP推送端口2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 不开启 1UDP 2TCP 3Websocket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7、设备反控模式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8、设备反控端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9、时间间隔</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、http推送是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0不开启 1POST 2PUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、http推送地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13、http推送延时时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14、http接收加密是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0不开启 1HTTP 2HTTPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15、http接收端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19、MQTT配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、MQTT是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0不开启 1mqtt 2mqtts 3ws 4 wss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、服务器地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、Client ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、用户名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7、密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8、keepAlive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9、QoS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10、连接状态</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20、输出位定时上电</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21、输出位定时下电</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22、各输出位分组信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">第几个组</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0; 1; 2; 3;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23、组名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24、组定时上电</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25、组定时下电</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30、软件版本号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、核心业务程序版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、核心业务程序编译时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、守护进程版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、守护进程编译时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、屏幕UI版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、屏幕UI编译时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、第一块执行板软件版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、第二块执行板软件版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13、第三块执行板软件版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14、第四块执行板软件版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31、数据加密</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、是否开启接收加密</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0、不开启 1、AES加密 2 RSA加密 3 SM4国密 ４SM2加密</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、AES加密模式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECB,        CBC,        CFB,        OFB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、填充方法</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZERO,       PKCS7,      ISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13、AES密钥长度</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AES_128,        AES_192,        AES_256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14、AES密钥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15、AES偏移量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21、RSA 密钥长度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">只读</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22、RSA 填充格式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23、RSA公钥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24、RSA私钥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31、SM4加密模式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32、SM4填充格式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33、SM4密钥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34、SM4偏移量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32、TLS证书</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、序列号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、密钥长度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、之前无效</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、之后无效</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、主题：国家</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、主题：州或省</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13、主题：地方</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14、主题：组织</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15、主题：单位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16、主题：名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17、主题：电子邮件</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21、发行：国家</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22、发行：州或省</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23、发行：地方</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24、发行：组织</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25、发行：单位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26、发行：名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27、发行：电子邮件</t>
-  </si>
-  <si>
-    <t xml:space="preserve">result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addr(主从机)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4：保留</t>
   </si>
   <si>
     <t xml:space="preserve">6：温度</t>
@@ -744,7 +780,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -766,6 +802,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -810,7 +852,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -828,6 +870,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -858,8 +904,8 @@
   </sheetPr>
   <dimension ref="A2:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F46" activeCellId="0" sqref="F46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F144" activeCellId="0" sqref="F144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1163,15 +1209,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="0" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>33</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1182,7 +1228,7 @@
         <v>36</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1193,7 +1239,7 @@
         <v>39</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1201,7 +1247,7 @@
         <v>41</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1239,75 +1285,75 @@
     </row>
     <row r="40" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E42" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E43" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>9</v>
@@ -1316,13 +1362,13 @@
         <v>10</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>51</v>
@@ -1330,13 +1376,13 @@
     </row>
     <row r="50" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>28</v>
@@ -1350,45 +1396,45 @@
         <v>14</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E53" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E54" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E55" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E56" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E57" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E58" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E59" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1399,20 +1445,20 @@
         <v>14</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E63" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E64" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1420,66 +1466,66 @@
         <v>14</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E67" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E68" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E69" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E70" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E71" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E72" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E73" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E74" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E75" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E76" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1490,36 +1536,36 @@
     </row>
     <row r="79" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E80" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E81" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E82" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E83" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1527,641 +1573,643 @@
     </row>
     <row r="86" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E88" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E89" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E90" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E91" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E92" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E96" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E97" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E98" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E99" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E100" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C102" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E105" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C108" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C109" s="4"/>
       <c r="E109" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E110" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E111" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E112" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E113" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E114" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D115" s="4"/>
       <c r="E115" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D117" s="4"/>
       <c r="E117" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D118" s="4"/>
       <c r="E118" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E119" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E120" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E121" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C123" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E124" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E125" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E126" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E127" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E128" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E129" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E130" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E131" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E132" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C134" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C135" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D135" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>28</v>
+      <c r="D135" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C136" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D136" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>28</v>
+      <c r="D136" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C137" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G138" s="5"/>
+    </row>
+    <row r="140" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C140" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D137" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H137" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C138" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="E138" s="0" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C139" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D139" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C140" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D140" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>28</v>
+        <v>184</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E141" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E142" s="0" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C143" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D143" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="E143" s="0" t="s">
-        <v>180</v>
+      <c r="E143" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E144" s="4" t="s">
-        <v>181</v>
+      <c r="E144" s="0" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E145" s="0" t="s">
-        <v>182</v>
+      <c r="E145" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E146" s="4" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E147" s="0" t="s">
-        <v>184</v>
+      <c r="E147" s="4" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E148" s="4" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E149" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E150" s="4" t="s">
-        <v>187</v>
-      </c>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E150" s="4"/>
     </row>
     <row r="151" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C151" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>195</v>
+      </c>
       <c r="E151" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E152" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E153" s="4"/>
+        <v>196</v>
+      </c>
+      <c r="H151" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C152" s="4"/>
+      <c r="E152" s="4"/>
+    </row>
+    <row r="153" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E153" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H153" s="0" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C154" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D154" s="0" t="s">
-        <v>190</v>
-      </c>
       <c r="E154" s="4" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C155" s="4"/>
-      <c r="E155" s="4"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E155" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H155" s="0" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E156" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H156" s="0" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E157" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H157" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E158" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H158" s="0" t="s">
-        <v>198</v>
-      </c>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E158" s="4"/>
     </row>
     <row r="159" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E159" s="4" t="s">
-        <v>199</v>
+        <v>206</v>
+      </c>
+      <c r="H159" s="0" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E160" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E161" s="4"/>
+        <v>208</v>
+      </c>
+      <c r="H160" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E161" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H161" s="0" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E162" s="4" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E163" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="H163" s="0" t="s">
-        <v>202</v>
-      </c>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E163" s="4"/>
     </row>
     <row r="164" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E164" s="4" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E165" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H165" s="0" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E166" s="4"/>
+        <v>212</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E166" s="4" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E167" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="H167" s="0" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E168" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H168" s="4" t="s">
-        <v>202</v>
-      </c>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E168" s="4"/>
     </row>
     <row r="169" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D169" s="4" t="s">
+        <v>215</v>
+      </c>
       <c r="E169" s="4" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E170" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E171" s="4"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E171" s="4" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D172" s="4" t="s">
-        <v>210</v>
-      </c>
       <c r="E172" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E173" s="4" t="s">
-        <v>212</v>
-      </c>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E173" s="4"/>
     </row>
     <row r="174" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E174" s="4" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E175" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E176" s="4"/>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E176" s="4" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E177" s="4" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E178" s="4" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E179" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E180" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E181" s="4" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E182" s="4" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E183" s="4" t="s">
-        <v>221</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E184" s="4" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E185" s="4" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E186" s="4" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E187" s="4" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E188" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E189" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E190" s="4" t="s">
-        <v>227</v>
-      </c>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E189" s="4"/>
     </row>
     <row r="191" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E191" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E192" s="4"/>
-    </row>
-    <row r="194" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E194" s="4"/>
-    </row>
-    <row r="209" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G209" s="4"/>
-    </row>
-    <row r="210" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G210" s="4"/>
-    </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D211" s="4"/>
-      <c r="G211" s="4"/>
-    </row>
+      <c r="E191" s="4"/>
+    </row>
+    <row r="206" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G206" s="4"/>
+    </row>
+    <row r="207" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G207" s="4"/>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D208" s="4"/>
+      <c r="G208" s="4"/>
+    </row>
+    <row r="1048407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2369,18 +2417,18 @@
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="6" t="s">
-        <v>230</v>
+      <c r="C2" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>10</v>
@@ -2456,7 +2504,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>30</v>
@@ -2467,13 +2515,13 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>32</v>
+        <v>237</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>32</v>
+        <v>237</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2481,10 +2529,10 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2492,33 +2540,33 @@
         <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="244">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -47,12 +47,15 @@
     <t xml:space="preserve">说明</t>
   </si>
   <si>
+    <t xml:space="preserve">pduMetaData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addr</t>
+  </si>
+  <si>
     <t xml:space="preserve">pduReadData</t>
   </si>
   <si>
-    <t xml:space="preserve">addr</t>
-  </si>
-  <si>
     <t xml:space="preserve">type</t>
   </si>
   <si>
@@ -186,27 +189,6 @@
   </si>
   <si>
     <t xml:space="preserve">2：额定值 </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">双电源数据</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">4：最大值</t>
@@ -780,7 +762,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -802,12 +784,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -852,7 +828,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -870,10 +846,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -904,8 +876,8 @@
   </sheetPr>
   <dimension ref="A2:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F144" activeCellId="0" sqref="F144"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -965,1110 +937,1120 @@
       <c r="B4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="E8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="0" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="D9" s="0" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="0" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="E14" s="0" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="0" t="s">
+      <c r="F14" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="0" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="E15" s="0" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="0" t="s">
+      <c r="F15" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="0" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="E16" s="0" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="0" t="s">
+      <c r="F16" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="0" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="0" t="s">
+      <c r="F17" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="0" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+    <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="0" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="0" t="s">
+      <c r="D26" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="E26" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="F26" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="s">
+      <c r="G26" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="H26" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="D27" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="0" t="s">
+      <c r="G27" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="H27" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="E28" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="F28" s="0" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="0" t="s">
+      <c r="G28" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="0" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E30" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="E34" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="0" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E34" s="0" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E35" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E36" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E37" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E39" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E40" s="0" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="3" t="s">
+    <row r="41" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E41" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="0" t="s">
+      <c r="C44" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="0" t="s">
+    <row r="45" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D45" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E45" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F45" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G45" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E42" s="0" t="s">
+    <row r="46" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E46" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F46" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E43" s="0" t="s">
+    <row r="47" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E47" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F47" s="0" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E44" s="0" t="s">
+    <row r="48" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E48" s="0" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E45" s="0" t="s">
+    <row r="49" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E49" s="0" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E46" s="0" t="s">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E50" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="0" t="s">
+      <c r="D53" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F53" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G49" s="0" t="s">
+      <c r="G53" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="H49" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="4" t="s">
+      <c r="H53" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="0" t="s">
+      <c r="C54" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="0" t="s">
+      <c r="E54" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E56" s="0" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E53" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E54" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E55" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E56" s="0" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E57" s="0" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E58" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E59" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E60" s="4"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E60" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E61" s="0" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>88</v>
-      </c>
       <c r="E62" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E63" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E64" s="0" t="s">
-        <v>91</v>
-      </c>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E64" s="4"/>
     </row>
     <row r="66" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E67" s="0" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E68" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E69" s="0" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>92</v>
+      </c>
       <c r="E70" s="0" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E71" s="0" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E72" s="0" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E73" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E74" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E75" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E76" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E77" s="0" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E74" s="4" t="s">
+    <row r="78" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E78" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E75" s="4" t="s">
+    <row r="79" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E79" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H75" s="0" t="s">
+      <c r="H79" s="0" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E76" s="4" t="s">
+    <row r="80" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E80" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H76" s="0" t="s">
+      <c r="H80" s="0" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E77" s="4"/>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="4" t="s">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D83" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="E79" s="0" t="s">
+      <c r="E83" s="0" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E80" s="0" t="s">
+    <row r="84" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E84" s="0" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E81" s="0" t="s">
+    <row r="85" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E85" s="0" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E82" s="0" t="s">
+    <row r="86" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E86" s="0" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E83" s="4" t="s">
+    <row r="87" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E87" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H83" s="0" t="s">
+      <c r="H87" s="0" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E84" s="4"/>
-    </row>
-    <row r="86" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="4" t="s">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E88" s="4"/>
+    </row>
+    <row r="90" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D90" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="E86" s="0" t="s">
+      <c r="E90" s="0" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E87" s="0" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E88" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="H88" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E89" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="H89" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E90" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="H90" s="0" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E91" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="H91" s="0" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E92" s="0" t="s">
-        <v>126</v>
+        <v>118</v>
+      </c>
+      <c r="H92" s="0" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
+      </c>
+      <c r="H93" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E94" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H94" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C95" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>129</v>
-      </c>
       <c r="E95" s="0" t="s">
-        <v>130</v>
+        <v>124</v>
+      </c>
+      <c r="H95" s="0" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E96" s="0" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E97" s="0" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E98" s="0" t="s">
-        <v>133</v>
+        <v>127</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>129</v>
+      </c>
       <c r="E99" s="0" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E100" s="0" t="s">
-        <v>135</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E101" s="0" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D102" s="0" t="s">
-        <v>136</v>
-      </c>
       <c r="E102" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="H102" s="0" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="0" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="H106" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E107" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E108" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="H104" s="0" t="s">
+      <c r="H108" s="0" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E105" s="0" t="s">
+    <row r="109" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E109" s="0" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="4" t="s">
+    <row r="112" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C112" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D108" s="0" t="s">
+      <c r="D112" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="E108" s="0" t="s">
+      <c r="E112" s="0" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="4"/>
-      <c r="E109" s="4" t="s">
+    <row r="113" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C113" s="4"/>
+      <c r="E113" s="4" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E110" s="0" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E111" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E112" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E113" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H113" s="0" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E114" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E115" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E116" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E117" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H117" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E118" s="0" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D115" s="4"/>
-      <c r="E115" s="4" t="s">
+    <row r="119" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D119" s="4"/>
+      <c r="E119" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D116" s="4"/>
-      <c r="E116" s="4" t="s">
+    <row r="120" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D120" s="4"/>
+      <c r="E120" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D117" s="4"/>
-      <c r="E117" s="0" t="s">
+    <row r="121" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D121" s="4"/>
+      <c r="E121" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="H117" s="0" t="s">
+      <c r="H121" s="0" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D118" s="4"/>
-      <c r="E118" s="4" t="s">
+    <row r="122" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D122" s="4"/>
+      <c r="E122" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E119" s="4" t="s">
+    <row r="123" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E123" s="4" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E120" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E121" s="0" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C123" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D123" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="E123" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E124" s="0" t="s">
-        <v>164</v>
+        <v>158</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E125" s="0" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E126" s="0" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E127" s="4" t="s">
-        <v>167</v>
+      <c r="C127" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E128" s="0" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E129" s="0" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E130" s="0" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E131" s="0" t="s">
-        <v>171</v>
+      <c r="E131" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E132" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E133" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E134" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E135" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E136" s="0" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C134" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D134" s="0" t="s">
+    <row r="138" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C138" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="E134" s="4" t="s">
+      <c r="E138" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="H134" s="5" t="s">
+      <c r="H138" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C135" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D135" s="5" t="s">
+    <row r="139" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C139" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E135" s="5" t="s">
+      <c r="E139" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F135" s="5" t="s">
+      <c r="F139" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G135" s="5" t="s">
+      <c r="G139" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C136" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D136" s="5" t="s">
+    <row r="140" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C140" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E136" s="0" t="s">
+      <c r="E140" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="F136" s="5" t="s">
+      <c r="F140" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G136" s="5" t="s">
+      <c r="G140" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C137" s="4" t="s">
+    <row r="141" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C141" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D137" s="0" t="s">
+      <c r="D141" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="E137" s="0" t="s">
+      <c r="E141" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="F137" s="5" t="s">
+      <c r="F141" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G137" s="5" t="s">
+      <c r="G141" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G138" s="5"/>
-    </row>
-    <row r="140" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C140" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140" s="0" t="s">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G142" s="4"/>
+    </row>
+    <row r="144" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C144" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="E140" s="0" t="s">
+      <c r="E144" s="0" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E141" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E142" s="0" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E143" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E144" s="0" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E145" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E146" s="4" t="s">
-        <v>191</v>
+      <c r="E146" s="0" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E147" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E148" s="4" t="s">
-        <v>193</v>
+      <c r="E148" s="0" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E149" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E150" s="4"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E150" s="4" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C151" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D151" s="0" t="s">
-        <v>195</v>
-      </c>
       <c r="E151" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H151" s="0" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C152" s="4"/>
-      <c r="E152" s="4"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E152" s="4" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E153" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="H153" s="0" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E154" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="H154" s="0" t="s">
-        <v>201</v>
-      </c>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E154" s="4"/>
     </row>
     <row r="155" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C155" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>195</v>
+      </c>
       <c r="E155" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E156" s="4" t="s">
-        <v>204</v>
-      </c>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C156" s="4"/>
+      <c r="E156" s="4"/>
     </row>
     <row r="157" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E157" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E158" s="4"/>
+        <v>198</v>
+      </c>
+      <c r="H157" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E158" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H158" s="0" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E159" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E160" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H160" s="0" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E161" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="H161" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E162" s="4"/>
+    </row>
+    <row r="163" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E163" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H163" s="0" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="162" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E162" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="H162" s="0" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E163" s="4"/>
     </row>
     <row r="164" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E164" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H164" s="0" t="s">
         <v>207</v>
@@ -2076,141 +2058,164 @@
     </row>
     <row r="165" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E165" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="H165" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H165" s="0" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E166" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E167" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E168" s="4"/>
+        <v>210</v>
+      </c>
+      <c r="H166" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E167" s="4"/>
+    </row>
+    <row r="168" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E168" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H168" s="0" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D169" s="4" t="s">
-        <v>215</v>
-      </c>
       <c r="E169" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E170" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E171" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E172" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E173" s="4"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E172" s="4"/>
+    </row>
+    <row r="173" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D173" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E174" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E175" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E176" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E177" s="4" t="s">
-        <v>223</v>
-      </c>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E177" s="4"/>
     </row>
     <row r="178" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E178" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E179" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E180" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E181" s="4" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E182" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E183" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E184" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E185" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E186" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E187" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E188" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E189" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E190" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E191" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E192" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E189" s="4"/>
-    </row>
-    <row r="191" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E191" s="4"/>
-    </row>
-    <row r="206" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G206" s="4"/>
-    </row>
-    <row r="207" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G207" s="4"/>
-    </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D208" s="4"/>
-      <c r="G208" s="4"/>
-    </row>
-    <row r="1048407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E193" s="4"/>
+    </row>
+    <row r="195" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E195" s="4"/>
+    </row>
+    <row r="210" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G210" s="4"/>
+    </row>
+    <row r="211" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G211" s="4"/>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D212" s="4"/>
+      <c r="G212" s="4"/>
+    </row>
     <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2415,91 +2420,91 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2507,10 +2512,10 @@
         <v>236</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2526,7 +2531,7 @@
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>238</v>
@@ -2537,7 +2542,7 @@
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>239</v>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="245">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -723,6 +723,9 @@
   </si>
   <si>
     <t xml:space="preserve">27、发行：电子邮件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111、命令执行</t>
   </si>
   <si>
     <t xml:space="preserve">result</t>
@@ -876,8 +879,8 @@
   </sheetPr>
   <dimension ref="A2:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A160" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F237" activeCellId="0" sqref="F237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2215,6 +2218,11 @@
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D212" s="4"/>
       <c r="G212" s="4"/>
+    </row>
+    <row r="243" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D243" s="0" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2423,7 +2431,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -2433,7 +2441,7 @@
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>11</v>
@@ -2509,7 +2517,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>31</v>
@@ -2520,10 +2528,10 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>56</v>
@@ -2534,7 +2542,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>57</v>
@@ -2545,7 +2553,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>58</v>
@@ -2553,7 +2561,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>59</v>
@@ -2561,17 +2569,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="246">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -281,10 +281,46 @@
     <t xml:space="preserve">6、设备名称</t>
   </si>
   <si>
-    <t xml:space="preserve">7、设备SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8、二维码</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">7、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">二维码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">设备SN</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">12、数量</t>
@@ -308,13 +344,52 @@
     <t xml:space="preserve">1、系列号（A，B，C）</t>
   </si>
   <si>
-    <t xml:space="preserve">2、副机的数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、modbus地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、版本号</t>
+    <t xml:space="preserve">2、设备模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0：标准 1：RTU  2：级联  3：机柜双电源</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">副机的数量</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">modbus地址</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">5、蜂鸣器开关</t>
@@ -765,7 +840,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -787,6 +862,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -879,8 +960,8 @@
   </sheetPr>
   <dimension ref="A2:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A160" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F237" activeCellId="0" sqref="F237"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F71" activeCellId="0" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1493,51 +1574,54 @@
       <c r="E72" s="0" t="s">
         <v>95</v>
       </c>
+      <c r="H72" s="0" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E73" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E74" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E75" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E76" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E77" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E78" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E79" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E80" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1548,36 +1632,36 @@
     </row>
     <row r="83" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E84" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E85" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E86" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1585,280 +1669,280 @@
     </row>
     <row r="90" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E91" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E92" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E94" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E95" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E96" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E97" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C99" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E100" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E101" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E102" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E107" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E108" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E109" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="4"/>
       <c r="E113" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E114" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E115" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E116" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E117" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E118" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D119" s="4"/>
       <c r="E119" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D120" s="4"/>
       <c r="E120" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D121" s="4"/>
       <c r="E121" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D122" s="4"/>
       <c r="E122" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E123" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E124" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E125" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C127" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E128" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E129" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E130" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E131" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E132" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E133" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E134" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E135" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E136" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1866,13 +1950,13 @@
         <v>15</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1880,16 +1964,16 @@
         <v>15</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1897,33 +1981,33 @@
         <v>15</v>
       </c>
       <c r="D140" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="F140" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E140" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="G140" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C141" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1934,55 +2018,55 @@
         <v>15</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E145" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E146" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E147" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E148" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E149" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E150" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E151" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E152" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E153" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1990,16 +2074,16 @@
     </row>
     <row r="155" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C155" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2008,36 +2092,36 @@
     </row>
     <row r="157" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E157" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E158" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E159" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E160" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E161" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2045,34 +2129,34 @@
     </row>
     <row r="163" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E163" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E164" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H164" s="0" t="s">
         <v>208</v>
-      </c>
-      <c r="H164" s="0" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E165" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E166" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2080,28 +2164,28 @@
     </row>
     <row r="168" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E168" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E169" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E170" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E171" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2109,25 +2193,25 @@
     </row>
     <row r="173" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D173" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E174" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E175" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E176" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2135,72 +2219,72 @@
     </row>
     <row r="178" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E178" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E179" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E180" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E181" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E182" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E183" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E184" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E186" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E187" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E188" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E189" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E190" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E191" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E192" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2221,7 +2305,7 @@
     </row>
     <row r="243" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D243" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2431,7 +2515,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -2441,7 +2525,7 @@
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>11</v>
@@ -2517,7 +2601,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>31</v>
@@ -2528,10 +2612,10 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>56</v>
@@ -2542,7 +2626,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>57</v>
@@ -2553,7 +2637,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>58</v>
@@ -2561,7 +2645,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>59</v>
@@ -2569,17 +2653,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="257">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -281,46 +281,10 @@
     <t xml:space="preserve">6、设备名称</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">7、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">二维码</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">8、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">设备SN</t>
-    </r>
+    <t xml:space="preserve">7、二维码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8、设备SN</t>
   </si>
   <si>
     <t xml:space="preserve">12、数量</t>
@@ -350,46 +314,10 @@
     <t xml:space="preserve">0：标准 1：RTU  2：级联  3：机柜双电源</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">副机的数量</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">modbus地址</t>
-    </r>
+    <t xml:space="preserve">3、副机的数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、modbus地址</t>
   </si>
   <si>
     <t xml:space="preserve">5、蜂鸣器开关</t>
@@ -798,6 +726,39 @@
   </si>
   <si>
     <t xml:space="preserve">27、发行：电子邮件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41、网络连接状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0、使能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0：IPv4  1 IPv6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 禁用、1 使能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、 网络模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 手动设置、1 自动获取</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、IP 地址 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、子网掩码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、网关</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、前缀长度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、DNS 2:</t>
   </si>
   <si>
     <t xml:space="preserve">111、命令执行</t>
@@ -912,7 +873,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -930,6 +891,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -960,8 +925,8 @@
   </sheetPr>
   <dimension ref="A2:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F71" activeCellId="0" sqref="F71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A181" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F208" activeCellId="0" sqref="F208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2293,7 +2258,60 @@
     <row r="195" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E195" s="4"/>
     </row>
-    <row r="210" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D197" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E197" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="G197" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="H197" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E198" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="H198" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E199" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E200" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E201" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E202" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E203" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E204" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E210" s="5"/>
       <c r="G210" s="4"/>
     </row>
     <row r="211" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2305,7 +2323,7 @@
     </row>
     <row r="243" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D243" s="0" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
     </row>
     <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2514,18 +2532,18 @@
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="6" t="s">
-        <v>237</v>
+      <c r="C2" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>11</v>
@@ -2601,7 +2619,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>31</v>
@@ -2612,10 +2630,10 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>56</v>
@@ -2626,7 +2644,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>57</v>
@@ -2637,7 +2655,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>58</v>
@@ -2645,7 +2663,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>59</v>
@@ -2653,17 +2671,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="268">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -263,40 +263,130 @@
     <t xml:space="preserve">11、uut</t>
   </si>
   <si>
-    <t xml:space="preserve">1、idc名称（数据中心）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、机房名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、模块名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、机柜名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、A,B路名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、设备名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7、二维码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8、设备SN</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">机房名称</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2、位置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、设备名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、二维码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、设备SN</t>
   </si>
   <si>
     <t xml:space="preserve">12、数量</t>
   </si>
   <si>
-    <t xml:space="preserve">1、相</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、回路</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、输出位</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1、相</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">数量</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2、回路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">数量</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3、输出位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">数量</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4、执行板数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、副机数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、执行板的输出位数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第几块执行板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、分组功能是否启用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0：禁用， 1：启用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、回路起始</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第几个回路</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、回路结束</t>
   </si>
   <si>
     <t xml:space="preserve">13、配置信息</t>
@@ -344,6 +434,12 @@
     <t xml:space="preserve">单位小时</t>
   </si>
   <si>
+    <t xml:space="preserve">11、是否有断路器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0：没有， 1：有</t>
+  </si>
+  <si>
     <t xml:space="preserve">Addr ＝ 0</t>
   </si>
   <si>
@@ -551,33 +647,33 @@
     <t xml:space="preserve">第几个组</t>
   </si>
   <si>
+    <t xml:space="preserve">22、输出位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第几个</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23、分组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、定时上电</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地址＝0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24、双电源</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、定时下电</t>
+  </si>
+  <si>
     <t xml:space="preserve">0; 1; 2; 3;</t>
   </si>
   <si>
-    <t xml:space="preserve">22、输出位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">第几个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23、分组</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、定时上电</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地址＝0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24、双电源</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、定时下电</t>
-  </si>
-  <si>
     <t xml:space="preserve">30、软件版本号</t>
   </si>
   <si>
@@ -587,16 +683,43 @@
     <t xml:space="preserve">2、核心业务程序编译时间</t>
   </si>
   <si>
-    <t xml:space="preserve">3、守护进程版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、守护进程编译时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、屏幕UI版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、屏幕UI编译时间</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">核心业务程序发布时间</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4、守护进程版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、守护进程编译时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、守护进程发布时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、屏幕UI版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8、屏幕UI编译时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9、屏幕UI发布时间</t>
   </si>
   <si>
     <t xml:space="preserve">11、第一块执行板软件版本</t>
@@ -925,8 +1048,8 @@
   </sheetPr>
   <dimension ref="A2:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A181" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F208" activeCellId="0" sqref="F208"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F76" activeCellId="0" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1480,21 +1603,6 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E61" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E62" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E63" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E64" s="4"/>
     </row>
@@ -1503,125 +1611,139 @@
         <v>15</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E67" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E68" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>92</v>
-      </c>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E69" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E70" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E71" s="0" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E72" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F72" s="5"/>
+      <c r="H72" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E73" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="H72" s="0" t="s">
+      <c r="F73" s="0" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E73" s="0" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E74" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="0" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E75" s="0" t="s">
+      <c r="E76" s="0" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E76" s="0" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E77" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E78" s="0" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E78" s="4" t="s">
+      <c r="H78" s="0" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E79" s="4" t="s">
+      <c r="E79" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="H79" s="0" t="s">
+    </row>
+    <row r="80" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E80" s="0" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E80" s="4" t="s">
+    <row r="81" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E81" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="H80" s="0" t="s">
+    </row>
+    <row r="82" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E82" s="0" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E81" s="4"/>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E82" s="4"/>
-    </row>
     <row r="83" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="4" t="s">
+      <c r="E83" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="D83" s="0" t="s">
+    </row>
+    <row r="84" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E84" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E83" s="0" t="s">
+      <c r="H84" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E85" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E84" s="0" t="s">
+      <c r="H85" s="0" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E85" s="0" t="s">
+    <row r="86" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E86" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E86" s="0" t="s">
+      <c r="H86" s="0" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="4" t="s">
         <v>113</v>
       </c>
@@ -1631,6 +1753,9 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E88" s="4"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E89" s="4"/>
     </row>
     <row r="90" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="4" t="s">
@@ -1652,70 +1777,68 @@
       <c r="E92" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="H92" s="0" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="93" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E94" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H93" s="0" t="s">
+      <c r="H94" s="0" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E94" s="0" t="s">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E95" s="4"/>
+    </row>
+    <row r="97" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C97" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H94" s="0" t="s">
+      <c r="D97" s="0" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E95" s="0" t="s">
+      <c r="E97" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="H95" s="0" t="s">
+    </row>
+    <row r="98" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E98" s="0" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E96" s="0" t="s">
+    <row r="99" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E99" s="0" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E97" s="0" t="s">
+      <c r="H99" s="0" t="s">
         <v>128</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="E99" s="0" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E100" s="0" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="H100" s="0" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E101" s="0" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="H101" s="0" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E102" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="H102" s="0" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1728,18 +1851,18 @@
       <c r="E104" s="0" t="s">
         <v>136</v>
       </c>
+      <c r="H104" s="4" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="4" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="H106" s="0" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1752,136 +1875,136 @@
       <c r="E108" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="H108" s="0" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="109" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E109" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E110" s="0" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C112" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D112" s="0" t="s">
+    <row r="111" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E111" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="E112" s="0" t="s">
+    </row>
+    <row r="113" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C113" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D113" s="0" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="4"/>
-      <c r="E113" s="4" t="s">
+      <c r="E113" s="0" t="s">
         <v>146</v>
+      </c>
+      <c r="H113" s="0" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E114" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E115" s="4" t="s">
-        <v>148</v>
+      <c r="E115" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="H115" s="0" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E116" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E117" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H117" s="0" t="s">
+      <c r="E116" s="0" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E118" s="0" t="s">
+    <row r="119" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C119" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D119" s="0" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="119" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D119" s="4"/>
-      <c r="E119" s="4" t="s">
+      <c r="E119" s="0" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D120" s="4"/>
+      <c r="C120" s="4"/>
       <c r="E120" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D121" s="4"/>
       <c r="E121" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="H121" s="0" t="s">
+    </row>
+    <row r="122" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E122" s="4" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D122" s="4"/>
-      <c r="E122" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E123" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E124" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E124" s="0" t="s">
+      <c r="H124" s="0" t="s">
         <v>159</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E125" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D126" s="4"/>
+      <c r="E126" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C127" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D127" s="0" t="s">
+      <c r="D127" s="4"/>
+      <c r="E127" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E127" s="0" t="s">
+    </row>
+    <row r="128" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D128" s="4"/>
+      <c r="E128" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="H127" s="4" t="s">
+      <c r="H128" s="0" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E128" s="0" t="s">
+    <row r="129" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D129" s="4"/>
+      <c r="E129" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E129" s="0" t="s">
+    <row r="130" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E130" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E130" s="0" t="s">
+    <row r="131" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E131" s="0" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="131" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E131" s="4" t="s">
+      <c r="H131" s="4" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1890,176 +2013,170 @@
         <v>169</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E133" s="0" t="s">
+    <row r="134" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C134" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D134" s="0" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="134" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E134" s="0" t="s">
         <v>171</v>
       </c>
+      <c r="H134" s="4" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E135" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E136" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E137" s="0" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C138" s="4" t="s">
+      <c r="E138" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E139" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E140" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E141" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E142" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E143" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C145" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D138" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H138" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C139" s="4" t="s">
+      <c r="D145" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C146" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D139" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C140" s="4" t="s">
+      <c r="D146" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C147" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D140" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E140" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C141" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D141" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="E141" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G141" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G142" s="4"/>
-    </row>
-    <row r="144" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C144" s="0" t="s">
+      <c r="D147" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C148" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H149" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C151" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D144" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="E144" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E145" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E146" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E147" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E148" s="0" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E149" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E150" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E151" s="4" t="s">
+      <c r="D151" s="0" t="s">
         <v>193</v>
+      </c>
+      <c r="E151" s="0" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E152" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E153" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E154" s="4"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E154" s="0" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C155" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D155" s="0" t="s">
-        <v>196</v>
-      </c>
       <c r="E155" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H155" s="0" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C156" s="4"/>
-      <c r="E156" s="4"/>
+    <row r="156" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E156" s="5" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E157" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="H157" s="0" t="s">
+      <c r="E157" s="0" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2067,116 +2184,120 @@
       <c r="E158" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="H158" s="0" t="s">
+    </row>
+    <row r="159" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E159" s="5" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E159" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="H159" s="0" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E160" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E161" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E162" s="4"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E162" s="4" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E163" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E164" s="4"/>
+    </row>
+    <row r="165" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C165" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D165" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="H163" s="0" t="s">
+      <c r="E165" s="4" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="164" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E164" s="4" t="s">
+      <c r="H165" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="H164" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E165" s="4" t="s">
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C166" s="4"/>
+      <c r="E166" s="4"/>
+    </row>
+    <row r="167" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E167" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="H165" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E166" s="4" t="s">
+      <c r="H167" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="H166" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E167" s="4"/>
     </row>
     <row r="168" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E168" s="4" t="s">
         <v>212</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E169" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H169" s="4" t="s">
-        <v>208</v>
+        <v>214</v>
+      </c>
+      <c r="H169" s="0" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E170" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E171" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E172" s="4"/>
     </row>
     <row r="173" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D173" s="4" t="s">
-        <v>216</v>
-      </c>
       <c r="E173" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
+      </c>
+      <c r="H173" s="0" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E174" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
+      </c>
+      <c r="H174" s="0" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E175" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H175" s="0" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E176" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
+      </c>
+      <c r="H176" s="0" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2184,158 +2305,203 @@
     </row>
     <row r="178" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E178" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
+      </c>
+      <c r="H178" s="0" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E179" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
+      </c>
+      <c r="H179" s="4" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E180" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E181" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E182" s="4" t="s">
-        <v>225</v>
-      </c>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E182" s="4"/>
     </row>
     <row r="183" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D183" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="E183" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E184" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E185" s="4" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E186" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E187" s="4" t="s">
-        <v>229</v>
-      </c>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E187" s="4"/>
     </row>
     <row r="188" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E188" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E189" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E190" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E191" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E192" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E193" s="4"/>
-    </row>
-    <row r="195" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E195" s="4"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E193" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E194" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E196" s="4" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D197" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E197" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="G197" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="H197" s="5" t="s">
-        <v>238</v>
+      <c r="E197" s="4" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E198" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="H198" s="5" t="s">
-        <v>240</v>
+      <c r="E198" s="4" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E199" s="0" t="s">
-        <v>241</v>
+      <c r="E199" s="4" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E200" s="0" t="s">
-        <v>242</v>
+      <c r="E200" s="4" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E201" s="0" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E202" s="0" t="s">
+      <c r="E201" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E203" s="5" t="s">
+    <row r="202" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E202" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E204" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E210" s="5"/>
-      <c r="G210" s="4"/>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E203" s="4"/>
+    </row>
+    <row r="205" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E205" s="4"/>
+    </row>
+    <row r="207" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D207" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E207" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="G207" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="H207" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E208" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="H208" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E209" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E210" s="0" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G211" s="4"/>
-    </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D212" s="4"/>
-      <c r="G212" s="4"/>
-    </row>
-    <row r="243" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D243" s="0" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="E211" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E212" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E213" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E214" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E220" s="4"/>
+      <c r="G220" s="4"/>
+    </row>
+    <row r="221" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G221" s="4"/>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D222" s="4"/>
+      <c r="G222" s="4"/>
+    </row>
+    <row r="253" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D253" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
     <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2533,7 +2699,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -2543,7 +2709,7 @@
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>11</v>
@@ -2619,7 +2785,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>31</v>
@@ -2630,10 +2796,10 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>56</v>
@@ -2644,7 +2810,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>57</v>
@@ -2655,7 +2821,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>58</v>
@@ -2663,7 +2829,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>59</v>
@@ -2671,17 +2837,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="258">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t xml:space="preserve">或者是第几个回路</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0："离线",1："开启",2："关闭"</t>
   </si>
   <si>
     <t xml:space="preserve">3：输出位数据</t>
@@ -801,7 +804,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -823,12 +826,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -873,7 +870,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -891,10 +888,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -925,8 +918,8 @@
   </sheetPr>
   <dimension ref="A2:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A181" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F208" activeCellId="0" sqref="F208"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1077,109 +1070,112 @@
       <c r="G11" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="H11" s="0" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E17" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E20" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E23" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>9</v>
@@ -1197,7 +1193,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1211,7 +1207,7 @@
         <v>17</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1236,7 +1232,7 @@
         <v>23</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>25</v>
@@ -1244,106 +1240,106 @@
     </row>
     <row r="30" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E35" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E36" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E37" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E38" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E39" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E40" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E41" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>14</v>
@@ -1352,66 +1348,66 @@
         <v>11</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E47" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E48" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E49" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E50" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>9</v>
@@ -1420,30 +1416,30 @@
         <v>11</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>9</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1454,45 +1450,45 @@
         <v>15</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E57" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E58" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E59" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E60" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E61" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E62" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E63" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1503,20 +1499,20 @@
         <v>15</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E67" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E68" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1524,69 +1520,69 @@
         <v>15</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E71" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E72" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E73" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E74" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E75" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E76" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E77" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E78" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E79" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E80" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1597,36 +1593,36 @@
     </row>
     <row r="83" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E84" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E85" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E86" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1634,280 +1630,280 @@
     </row>
     <row r="90" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E91" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E92" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E94" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E95" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E96" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E97" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C99" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E100" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E101" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E102" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E107" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E108" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E109" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="4"/>
       <c r="E113" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E114" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E115" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E116" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E117" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E118" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D119" s="4"/>
       <c r="E119" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D120" s="4"/>
       <c r="E120" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D121" s="4"/>
       <c r="E121" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D122" s="4"/>
       <c r="E122" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E123" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E124" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E125" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C127" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E128" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E129" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E130" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E131" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E132" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E133" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E134" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E135" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E136" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1915,13 +1911,13 @@
         <v>15</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1929,16 +1925,16 @@
         <v>15</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1946,33 +1942,33 @@
         <v>15</v>
       </c>
       <c r="D140" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="F140" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E140" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="G140" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C141" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1983,55 +1979,55 @@
         <v>15</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E145" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E146" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E147" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E148" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E149" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E150" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E151" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E152" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E153" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2039,16 +2035,16 @@
     </row>
     <row r="155" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C155" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2057,36 +2053,36 @@
     </row>
     <row r="157" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E157" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E158" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E159" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E160" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E161" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2094,34 +2090,34 @@
     </row>
     <row r="163" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E163" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E164" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="H164" s="0" t="s">
         <v>209</v>
-      </c>
-      <c r="H164" s="0" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E165" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E166" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2129,28 +2125,28 @@
     </row>
     <row r="168" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E168" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E169" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E170" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E171" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2158,25 +2154,25 @@
     </row>
     <row r="173" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D173" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E174" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E175" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E176" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2184,72 +2180,72 @@
     </row>
     <row r="178" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E178" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E179" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E180" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E181" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E182" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E183" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E184" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E186" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E187" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E188" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E189" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E190" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E191" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E192" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2259,59 +2255,59 @@
       <c r="E195" s="4"/>
     </row>
     <row r="197" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D197" s="5" t="s">
-        <v>235</v>
+      <c r="D197" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="G197" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="H197" s="5" t="s">
+      <c r="G197" s="4" t="s">
         <v>238</v>
+      </c>
+      <c r="H197" s="4" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E198" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="H198" s="5" t="s">
         <v>240</v>
+      </c>
+      <c r="H198" s="4" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E199" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E200" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E201" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E202" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E203" s="5" t="s">
-        <v>245</v>
+      <c r="E203" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E204" s="5" t="s">
-        <v>245</v>
+      <c r="E204" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E210" s="5"/>
+      <c r="E210" s="4"/>
       <c r="G210" s="4"/>
     </row>
     <row r="211" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2323,7 +2319,7 @@
     </row>
     <row r="243" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D243" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2532,18 +2528,18 @@
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="C1" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="7" t="s">
-        <v>248</v>
+      <c r="C2" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>11</v>
@@ -2558,7 +2554,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2572,7 +2568,7 @@
         <v>17</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2597,7 +2593,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>25</v>
@@ -2605,83 +2601,83 @@
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -263,25 +263,7 @@
     <t xml:space="preserve">11、uut</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">机房名称</t>
-    </r>
+    <t xml:space="preserve">1、机房名称</t>
   </si>
   <si>
     <t xml:space="preserve">2、位置信息</t>
@@ -299,67 +281,13 @@
     <t xml:space="preserve">12、数量</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1、相</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">数量</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2、回路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">数量</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3、输出位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">数量</t>
-    </r>
+    <t xml:space="preserve">1、相数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、回路数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、输出位数量</t>
   </si>
   <si>
     <t xml:space="preserve">4、执行板数量</t>
@@ -683,25 +611,7 @@
     <t xml:space="preserve">2、核心业务程序编译时间</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">核心业务程序发布时间</t>
-    </r>
+    <t xml:space="preserve">3、核心业务程序发布时间</t>
   </si>
   <si>
     <t xml:space="preserve">4、守护进程版本</t>
@@ -924,7 +834,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -946,12 +856,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -996,7 +900,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1014,10 +918,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1048,8 +948,8 @@
   </sheetPr>
   <dimension ref="A2:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F76" activeCellId="0" sqref="F76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H79" activeCellId="0" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1641,7 +1541,7 @@
       <c r="E71" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1649,8 +1549,8 @@
       <c r="E72" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="F72" s="5"/>
-      <c r="H72" s="5" t="s">
+      <c r="F72" s="4"/>
+      <c r="H72" s="4" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1723,7 +1623,7 @@
       <c r="E84" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H84" s="5" t="s">
+      <c r="H84" s="4" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2171,7 +2071,7 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E156" s="5" t="s">
+      <c r="E156" s="4" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2186,7 +2086,7 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E159" s="5" t="s">
+      <c r="E159" s="4" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2698,17 +2598,17 @@
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>259</v>
       </c>
       <c r="D2" s="0" t="s">

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="267">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -302,7 +302,7 @@
     <t xml:space="preserve">第几块执行板</t>
   </si>
   <si>
-    <t xml:space="preserve">7、分组功能是否启用</t>
+    <t xml:space="preserve">7、</t>
   </si>
   <si>
     <t xml:space="preserve">0：禁用， 1：启用</t>
@@ -329,10 +329,28 @@
     <t xml:space="preserve">2、设备模式</t>
   </si>
   <si>
-    <t xml:space="preserve">0：标准 1：RTU  2：级联  3：机柜双电源</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、副机的数量</t>
+    <t xml:space="preserve">0：标准   1：级联  2：机柜双电源  3：RTU</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3、副机的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">地址</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">4、modbus地址</t>
@@ -344,10 +362,25 @@
     <t xml:space="preserve">6、频率</t>
   </si>
   <si>
-    <t xml:space="preserve">7、执行版的数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8、组开关使能</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">分组功能是否启用</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">9、最近一次运行时间</t>
@@ -834,7 +867,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -856,6 +889,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -948,8 +987,8 @@
   </sheetPr>
   <dimension ref="A2:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H79" activeCellId="0" sqref="H79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F90" activeCellId="0" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1616,12 +1655,12 @@
     </row>
     <row r="83" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E83" s="0" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E84" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>94</v>
@@ -1629,26 +1668,26 @@
     </row>
     <row r="85" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E85" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H85" s="0" t="s">
         <v>109</v>
-      </c>
-      <c r="H85" s="0" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E86" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H86" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="H86" s="0" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H87" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="H87" s="0" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1659,36 +1698,36 @@
     </row>
     <row r="90" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D90" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="E90" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="E90" s="0" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E91" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E92" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E94" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H94" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="H94" s="0" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1696,280 +1735,280 @@
     </row>
     <row r="97" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C97" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D97" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="E97" s="0" t="s">
         <v>124</v>
-      </c>
-      <c r="E97" s="0" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E98" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E99" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H99" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="H99" s="0" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E100" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="H100" s="0" t="s">
         <v>129</v>
-      </c>
-      <c r="H100" s="0" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E101" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H101" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="H101" s="0" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E102" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H102" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="H102" s="0" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H104" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D106" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E106" s="0" t="s">
         <v>138</v>
-      </c>
-      <c r="E106" s="0" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E107" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E108" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E109" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E110" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E111" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D113" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E113" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="E113" s="0" t="s">
+      <c r="H113" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="H113" s="0" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E114" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E115" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="H115" s="0" t="s">
         <v>149</v>
-      </c>
-      <c r="H115" s="0" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E116" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C119" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D119" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E119" s="0" t="s">
         <v>152</v>
-      </c>
-      <c r="E119" s="0" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C120" s="4"/>
       <c r="E120" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E121" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E122" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E123" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E124" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H124" s="0" t="s">
         <v>158</v>
-      </c>
-      <c r="H124" s="0" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E125" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D126" s="4"/>
       <c r="E126" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D127" s="4"/>
       <c r="E127" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D128" s="4"/>
       <c r="E128" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="H128" s="0" t="s">
         <v>163</v>
-      </c>
-      <c r="H128" s="0" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E130" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E131" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="H131" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="H131" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E132" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C134" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D134" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="E134" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="E134" s="0" t="s">
+      <c r="H134" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E135" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E136" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E137" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E138" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E139" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E140" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E141" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E142" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E143" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1977,10 +2016,10 @@
         <v>15</v>
       </c>
       <c r="D145" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E145" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1988,16 +2027,16 @@
         <v>15</v>
       </c>
       <c r="D146" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E146" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E146" s="4" t="s">
+      <c r="F146" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="F146" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="G146" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2005,38 +2044,38 @@
         <v>15</v>
       </c>
       <c r="D147" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E147" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="E147" s="0" t="s">
-        <v>188</v>
-      </c>
       <c r="F147" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C148" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D148" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="D148" s="0" t="s">
+      <c r="E148" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="E148" s="0" t="s">
-        <v>191</v>
-      </c>
       <c r="F148" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H149" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2044,70 +2083,70 @@
         <v>15</v>
       </c>
       <c r="D151" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E151" s="0" t="s">
         <v>193</v>
-      </c>
-      <c r="E151" s="0" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E152" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E153" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E154" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E155" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E156" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E157" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E158" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E159" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E160" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E161" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E162" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E163" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2115,16 +2154,16 @@
     </row>
     <row r="165" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C165" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D165" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E165" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E165" s="4" t="s">
+      <c r="H165" s="0" t="s">
         <v>208</v>
-      </c>
-      <c r="H165" s="0" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2133,36 +2172,36 @@
     </row>
     <row r="167" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E167" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H167" s="0" t="s">
         <v>210</v>
-      </c>
-      <c r="H167" s="0" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E168" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H168" s="0" t="s">
         <v>212</v>
-      </c>
-      <c r="H168" s="0" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E169" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H169" s="0" t="s">
         <v>214</v>
-      </c>
-      <c r="H169" s="0" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E170" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E171" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2170,34 +2209,34 @@
     </row>
     <row r="173" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E173" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H173" s="0" t="s">
         <v>218</v>
-      </c>
-      <c r="H173" s="0" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E174" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E175" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E176" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2205,28 +2244,28 @@
     </row>
     <row r="178" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E178" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E179" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E180" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E181" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2234,25 +2273,25 @@
     </row>
     <row r="183" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D183" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E183" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="E183" s="4" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E184" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E185" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E186" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2260,72 +2299,72 @@
     </row>
     <row r="188" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E188" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E189" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E190" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E191" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E192" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E193" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E194" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E196" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E197" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E198" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E199" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E200" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E201" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E202" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2336,54 +2375,54 @@
     </row>
     <row r="207" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D207" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E207" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="E207" s="0" t="s">
+      <c r="G207" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G207" s="4" t="s">
+      <c r="H207" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="H207" s="4" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E208" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="H208" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="H208" s="4" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E209" s="0" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E210" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E211" s="0" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E212" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E213" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E214" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2399,7 +2438,7 @@
     </row>
     <row r="253" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D253" s="0" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2599,7 +2638,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -2609,7 +2648,7 @@
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>11</v>
@@ -2685,7 +2724,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>31</v>
@@ -2696,10 +2735,10 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>56</v>
@@ -2710,7 +2749,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>57</v>
@@ -2721,7 +2760,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>58</v>
@@ -2729,7 +2768,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>59</v>
@@ -2737,17 +2776,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="274">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -330,6 +330,480 @@
   </si>
   <si>
     <t xml:space="preserve">0：标准   1：级联  2：机柜双电源  3：RTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、副机数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、副机的地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、modbus地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、频率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、蜂鸣器开关</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8、分组功能是否启用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9、最近一次运行时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单位分钟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10、出厂来总运行时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单位小时</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、是否有断路器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0：没有， 1：有</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addr ＝ 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14、用户登录信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、用户名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、预留信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、权限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、登陆验证</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用户名 ;　密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addr ＝ 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15、Modbus配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、RTU是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、RTU地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、波特率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:9600, 1:19200,2:38400,3:57600,4:115200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、校验位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NoParity = 0,        EvenParity = 1,         OddParity = 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、数据位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data5 = 0,Data6 = 1,Data7 = 2,Data8 = 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、停止位</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OneStop = 0, TwoStop=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、TCP是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、TCP端口号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">502,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16、SNMP配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、trap1地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、trap2地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、snmp v3 是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、账号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、密钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17、RPC配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、JSON-RPC是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 不开启 1开启TCP 2开启Websocket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、JSON-RPC端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、XML-RPC是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 不开启 1开启Http</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、XML-RPC端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18、主动推送配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、UDP推送1是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、UDP推送地址1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、UDP推送端口1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、UDP推送2是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、UDP推送地址2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、UDP推送端口2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 不开启 1UDP 2TCP 3Websocket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、设备反控模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8、设备反控端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9、时间间隔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、http推送是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0不开启 1POST 2PUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、http推送地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13、http推送延时时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14、http接收加密是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0不开启 1HTTP 2HTTPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15、http接收端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19、MQTT配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、MQTT是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0不开启 1mqtt 2mqtts 3ws 4 wss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、服务器地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、Client ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、用户名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8、keepAlive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9、QoS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10、连接状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21、各输出位分组信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第几个组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22、输出位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第几个</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23、分组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、定时上电</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地址＝0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24、双电源</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、定时下电</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0; 1; 2; 3;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30、软件版本号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、核心业务程序版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、核心业务程序编译时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、核心业务程序发布时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、守护进程版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、守护进程编译时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、守护进程发布时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、屏幕UI版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8、屏幕UI编译时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9、屏幕UI发布时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、第一块执行板软件版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、第二块执行板软件版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13、第三块执行板软件版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14、第四块执行板软件版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31、数据加密</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、是否开启接收加密</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0、不开启 1、AES加密 2 RSA加密 3 SM4国密 ４SM2加密</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、AES加密模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECB,        CBC,        CFB,        OFB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、填充方法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZERO,       PKCS7,      ISO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13、AES密钥长度</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AES_128,        AES_192,        AES_256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14、AES密钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15、AES偏移量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21、RSA 密钥长度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">只读</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22、RSA 填充格式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23、RSA公钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24、RSA私钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31、SM4加密模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32、SM4填充格式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33、SM4密钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34、SM4偏移量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32、TLS证书</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、序列号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、密钥长度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、之前无效</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、之后无效</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、主题：国家</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、主题：州或省</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13、主题：地方</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14、主题：组织</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15、主题：单位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16、主题：名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17、主题：电子邮件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21、发行：国家</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22、发行：州或省</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23、发行：地方</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24、发行：组织</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25、发行：单位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26、发行：名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27、发行：电子邮件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41、网络连接状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0、使能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0：IPv4  1 IPv6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 禁用、1 使能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、 网络模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 手动设置、1 自动获取</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、IP 地址 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、子网掩码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、网关</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、前缀长度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、DNS :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42、WEB服务设置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、 是否启用http</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、http端口号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、重定向https</t>
   </si>
   <si>
     <r>
@@ -340,7 +814,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3、副机的</t>
+      <t xml:space="preserve">4、</t>
     </r>
     <r>
       <rPr>
@@ -349,17 +823,8 @@
         <rFont val="等线"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">地址</t>
+      <t xml:space="preserve">是否启用https</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">4、modbus地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、蜂鸣器开关</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、频率</t>
   </si>
   <si>
     <r>
@@ -370,7 +835,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8、</t>
+      <t xml:space="preserve">5、</t>
     </r>
     <r>
       <rPr>
@@ -379,452 +844,8 @@
         <rFont val="等线"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">分组功能是否启用</t>
+      <t xml:space="preserve">https端口号</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">9、最近一次运行时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">单位分钟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10、出厂来总运行时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">单位小时</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、是否有断路器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0：没有， 1：有</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Addr ＝ 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14、用户登录信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、用户名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、预留信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、权限</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、登陆验证</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用户名 ;　密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addr ＝ 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15、Modbus配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、RTU是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、RTU地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、波特率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0:9600, 1:19200,2:38400,3:57600,4:115200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、校验位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NoParity = 0,        EvenParity = 1,         OddParity = 2,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、数据位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data5 = 0,Data6 = 1,Data7 = 2,Data8 = 3,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、停止位</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OneStop = 0, TwoStop=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、TCP是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、TCP端口号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">502,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16、SNMP配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、trap1地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、trap2地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、snmp v3 是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、账号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、密钥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17、RPC配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、JSON-RPC是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 不开启 1开启TCP 2开启Websocket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、JSON-RPC端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、XML-RPC是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 不开启 1开启Http</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、XML-RPC端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18、主动推送配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、UDP推送1是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、UDP推送地址1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、UDP推送端口1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、UDP推送2是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、UDP推送地址2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、UDP推送端口2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 不开启 1UDP 2TCP 3Websocket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7、设备反控模式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8、设备反控端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9、时间间隔</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、http推送是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0不开启 1POST 2PUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、http推送地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13、http推送延时时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14、http接收加密是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0不开启 1HTTP 2HTTPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15、http接收端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19、MQTT配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、MQTT是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0不开启 1mqtt 2mqtts 3ws 4 wss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、服务器地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、Client ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、用户名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7、密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8、keepAlive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9、QoS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10、连接状态</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21、各输出位分组信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">第几个组</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22、输出位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">第几个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23、分组</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、定时上电</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地址＝0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24、双电源</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、定时下电</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0; 1; 2; 3;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30、软件版本号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、核心业务程序版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、核心业务程序编译时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、核心业务程序发布时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、守护进程版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、守护进程编译时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、守护进程发布时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7、屏幕UI版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8、屏幕UI编译时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9、屏幕UI发布时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、第一块执行板软件版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、第二块执行板软件版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13、第三块执行板软件版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14、第四块执行板软件版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31、数据加密</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、是否开启接收加密</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0、不开启 1、AES加密 2 RSA加密 3 SM4国密 ４SM2加密</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、AES加密模式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECB,        CBC,        CFB,        OFB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、填充方法</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZERO,       PKCS7,      ISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13、AES密钥长度</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AES_128,        AES_192,        AES_256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14、AES密钥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15、AES偏移量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21、RSA 密钥长度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">只读</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22、RSA 填充格式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23、RSA公钥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24、RSA私钥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31、SM4加密模式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32、SM4填充格式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33、SM4密钥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34、SM4偏移量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32、TLS证书</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、序列号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、密钥长度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、之前无效</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、之后无效</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、主题：国家</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、主题：州或省</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13、主题：地方</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14、主题：组织</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15、主题：单位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16、主题：名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17、主题：电子邮件</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21、发行：国家</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22、发行：州或省</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23、发行：地方</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24、发行：组织</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25、发行：单位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26、发行：名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27、发行：电子邮件</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41、网络连接状态</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0、使能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0：IPv4  1 IPv6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 禁用、1 使能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、 网络模式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 手动设置、1 自动获取</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、IP 地址 :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、子网掩码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、网关</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、前缀长度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、DNS 2:</t>
   </si>
   <si>
     <t xml:space="preserve">111、命令执行</t>
@@ -987,8 +1008,8 @@
   </sheetPr>
   <dimension ref="A2:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F90" activeCellId="0" sqref="F90"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A199" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E224" activeCellId="0" sqref="E224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1647,6 +1668,7 @@
       <c r="E81" s="0" t="s">
         <v>105</v>
       </c>
+      <c r="F81" s="4"/>
     </row>
     <row r="82" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E82" s="0" t="s">
@@ -1655,12 +1677,12 @@
     </row>
     <row r="83" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E83" s="0" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E84" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>94</v>
@@ -1668,26 +1690,26 @@
     </row>
     <row r="85" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E85" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E86" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1698,36 +1720,36 @@
     </row>
     <row r="90" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E91" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E92" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E94" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1735,280 +1757,280 @@
     </row>
     <row r="97" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C97" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E98" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E99" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E100" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E101" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E102" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E107" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E108" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E109" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E110" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E111" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E114" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E115" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E116" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C119" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C120" s="4"/>
       <c r="E120" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E121" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E122" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E123" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E124" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E125" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D126" s="4"/>
       <c r="E126" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D127" s="4"/>
       <c r="E127" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D128" s="4"/>
       <c r="E128" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E130" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E131" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E132" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C134" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E135" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E136" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E137" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E138" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E139" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E140" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E141" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E142" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E143" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2016,10 +2038,10 @@
         <v>15</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2027,16 +2049,16 @@
         <v>15</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2044,38 +2066,38 @@
         <v>15</v>
       </c>
       <c r="D147" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="F147" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E147" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="G147" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C148" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H149" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2083,70 +2105,70 @@
         <v>15</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E152" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E153" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E154" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E155" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E156" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E157" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E158" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E159" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E160" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E161" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E162" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E163" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2154,16 +2176,16 @@
     </row>
     <row r="165" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C165" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2172,36 +2194,36 @@
     </row>
     <row r="167" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E167" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E168" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E169" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E170" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E171" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2209,34 +2231,34 @@
     </row>
     <row r="173" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E173" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E174" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H174" s="0" t="s">
         <v>219</v>
-      </c>
-      <c r="H174" s="0" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E175" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E176" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2244,28 +2266,28 @@
     </row>
     <row r="178" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E178" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E179" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E180" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E181" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2273,25 +2295,25 @@
     </row>
     <row r="183" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D183" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E184" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E185" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E186" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2299,72 +2321,72 @@
     </row>
     <row r="188" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E188" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E189" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E190" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E191" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E192" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E193" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E194" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E196" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E197" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E198" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E199" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E200" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E201" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E202" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2375,54 +2397,80 @@
     </row>
     <row r="207" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D207" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E207" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E208" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E209" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E210" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E211" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E212" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E213" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E214" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E214" s="4"/>
+    </row>
+    <row r="215" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D215" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="E215" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E216" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E217" s="0" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E218" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E219" s="0" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2438,7 +2486,7 @@
     </row>
     <row r="253" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D253" s="0" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2638,7 +2686,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -2648,7 +2696,7 @@
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="6" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>11</v>
@@ -2724,7 +2772,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>31</v>
@@ -2735,10 +2783,10 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>56</v>
@@ -2749,7 +2797,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>57</v>
@@ -2760,7 +2808,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>58</v>
@@ -2768,7 +2816,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>59</v>
@@ -2776,17 +2824,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="275">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -326,484 +326,10 @@
     <t xml:space="preserve">1、系列号（A，B，C）</t>
   </si>
   <si>
-    <t xml:space="preserve">2、设备模式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0：标准   1：级联  2：机柜双电源  3：RTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、副机数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、副机的地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、modbus地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、频率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7、蜂鸣器开关</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8、分组功能是否启用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9、最近一次运行时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">单位分钟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10、出厂来总运行时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">单位小时</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、是否有断路器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0：没有， 1：有</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Addr ＝ 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14、用户登录信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、用户名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、预留信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、权限</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、登陆验证</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用户名 ;　密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addr ＝ 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15、Modbus配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、RTU是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、RTU地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、波特率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0:9600, 1:19200,2:38400,3:57600,4:115200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、校验位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NoParity = 0,        EvenParity = 1,         OddParity = 2,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、数据位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data5 = 0,Data6 = 1,Data7 = 2,Data8 = 3,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、停止位</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OneStop = 0, TwoStop=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、TCP是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、TCP端口号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">502,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16、SNMP配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、trap1地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、trap2地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、snmp v3 是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、账号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、密钥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17、RPC配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、JSON-RPC是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 不开启 1开启TCP 2开启Websocket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、JSON-RPC端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、XML-RPC是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 不开启 1开启Http</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、XML-RPC端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18、主动推送配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、UDP推送1是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、UDP推送地址1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、UDP推送端口1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、UDP推送2是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、UDP推送地址2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、UDP推送端口2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 不开启 1UDP 2TCP 3Websocket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7、设备反控模式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8、设备反控端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9、时间间隔</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、http推送是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0不开启 1POST 2PUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、http推送地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13、http推送延时时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14、http接收加密是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0不开启 1HTTP 2HTTPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15、http接收端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19、MQTT配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、MQTT是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0不开启 1mqtt 2mqtts 3ws 4 wss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、服务器地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、Client ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、用户名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7、密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8、keepAlive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9、QoS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10、连接状态</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21、各输出位分组信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">第几个组</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22、输出位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">第几个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23、分组</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、定时上电</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地址＝0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24、双电源</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、定时下电</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0; 1; 2; 3;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30、软件版本号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、核心业务程序版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、核心业务程序编译时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、核心业务程序发布时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、守护进程版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、守护进程编译时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、守护进程发布时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7、屏幕UI版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8、屏幕UI编译时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9、屏幕UI发布时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、第一块执行板软件版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、第二块执行板软件版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13、第三块执行板软件版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14、第四块执行板软件版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31、数据加密</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、是否开启接收加密</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0、不开启 1、AES加密 2 RSA加密 3 SM4国密 ４SM2加密</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、AES加密模式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECB,        CBC,        CFB,        OFB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、填充方法</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZERO,       PKCS7,      ISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13、AES密钥长度</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AES_128,        AES_192,        AES_256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14、AES密钥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15、AES偏移量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21、RSA 密钥长度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">只读</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22、RSA 填充格式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23、RSA公钥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24、RSA私钥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31、SM4加密模式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32、SM4填充格式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33、SM4密钥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34、SM4偏移量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32、TLS证书</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、序列号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、密钥长度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、之前无效</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、之后无效</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、主题：国家</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、主题：州或省</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13、主题：地方</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14、主题：组织</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15、主题：单位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16、主题：名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17、主题：电子邮件</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21、发行：国家</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22、发行：州或省</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23、发行：地方</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24、发行：组织</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25、发行：单位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26、发行：名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27、发行：电子邮件</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41、网络连接状态</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0、使能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0：IPv4  1 IPv6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 禁用、1 使能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、 网络模式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 手动设置、1 自动获取</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、IP 地址 :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、子网掩码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、网关</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、前缀长度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、DNS :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42、WEB服务设置</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、 是否启用http</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、http端口号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、重定向https</t>
+    <t xml:space="preserve">2、设备状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0：正常   1：告警  2：故障</t>
   </si>
   <si>
     <r>
@@ -814,7 +340,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4、</t>
+      <t xml:space="preserve">3、</t>
     </r>
     <r>
       <rPr>
@@ -823,29 +349,488 @@
         <rFont val="等线"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">是否启用https</t>
+      <t xml:space="preserve">设备模式</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https端口号</t>
-    </r>
+    <t xml:space="preserve">0：标准   1：级联  2：机柜双电源  3：RTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、副机的地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、modbus地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、频率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、蜂鸣器开关</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8、分组功能是否启用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9、最近一次运行时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单位分钟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10、出厂来总运行时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单位小时</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、是否有断路器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0：没有， 1：有</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addr ＝ 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14、用户登录信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、用户名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、预留信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、权限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、登陆验证</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用户名 ;　密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addr ＝ 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15、Modbus配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、RTU是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、RTU地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、波特率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:9600, 1:19200,2:38400,3:57600,4:115200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、校验位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NoParity = 0,        EvenParity = 1,         OddParity = 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、数据位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data5 = 0,Data6 = 1,Data7 = 2,Data8 = 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、停止位</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OneStop = 0, TwoStop=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、TCP是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、TCP端口号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">502,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16、SNMP配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、trap1地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、trap2地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、snmp v3 是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、账号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、密钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17、RPC配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、JSON-RPC是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 不开启 1开启TCP 2开启Websocket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、JSON-RPC端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、XML-RPC是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 不开启 1开启Http</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、XML-RPC端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18、主动推送配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、UDP推送1是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、UDP推送地址1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、UDP推送端口1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、UDP推送2是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、UDP推送地址2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、UDP推送端口2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 不开启 1UDP 2TCP 3Websocket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、设备反控模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8、设备反控端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9、时间间隔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、http推送是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0不开启 1POST 2PUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、http推送地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13、http推送延时时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14、http接收加密是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0不开启 1HTTP 2HTTPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15、http接收端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19、MQTT配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、MQTT是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0不开启 1mqtt 2mqtts 3ws 4 wss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、服务器地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、Client ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、用户名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8、keepAlive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9、QoS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10、连接状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21、各输出位分组信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第几个组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22、输出位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第几个</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23、分组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、定时上电</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地址＝0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24、双电源</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、定时下电</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0; 1; 2; 3;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30、软件版本号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、核心业务程序版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、核心业务程序编译时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、核心业务程序发布时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、守护进程版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、守护进程编译时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、守护进程发布时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、屏幕UI版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8、屏幕UI编译时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9、屏幕UI发布时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、第一块执行板软件版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、第二块执行板软件版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13、第三块执行板软件版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14、第四块执行板软件版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31、数据加密</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、是否开启接收加密</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0、不开启 1、AES加密 2 RSA加密 3 SM4国密 ４SM2加密</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、AES加密模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECB,        CBC,        CFB,        OFB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、填充方法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZERO,       PKCS7,      ISO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13、AES密钥长度</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AES_128,        AES_192,        AES_256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14、AES密钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15、AES偏移量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21、RSA 密钥长度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">只读</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22、RSA 填充格式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23、RSA公钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24、RSA私钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31、SM4加密模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32、SM4填充格式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33、SM4密钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34、SM4偏移量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32、TLS证书</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、序列号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、密钥长度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、之前无效</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、之后无效</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、主题：国家</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、主题：州或省</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13、主题：地方</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14、主题：组织</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15、主题：单位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16、主题：名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17、主题：电子邮件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21、发行：国家</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22、发行：州或省</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23、发行：地方</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24、发行：组织</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25、发行：单位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26、发行：名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27、发行：电子邮件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41、网络连接状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0、使能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0：IPv4  1 IPv6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 禁用、1 使能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、 网络模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 手动设置、1 自动获取</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、IP 地址 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、子网掩码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、网关</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、前缀长度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、DNS :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42、WEB服务设置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、 是否启用http</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、http端口号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、重定向https</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、是否启用https</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、https端口号</t>
   </si>
   <si>
     <t xml:space="preserve">111、命令执行</t>
@@ -1008,8 +993,8 @@
   </sheetPr>
   <dimension ref="A2:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A199" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E224" activeCellId="0" sqref="E224"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I81" activeCellId="0" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1658,31 +1643,34 @@
       <c r="E79" s="0" t="s">
         <v>103</v>
       </c>
+      <c r="H79" s="0" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E80" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E81" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F81" s="4"/>
     </row>
     <row r="82" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E82" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E83" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E84" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>94</v>
@@ -1690,26 +1678,26 @@
     </row>
     <row r="85" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E85" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E86" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1720,36 +1708,36 @@
     </row>
     <row r="90" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E91" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E92" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E94" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1757,280 +1745,280 @@
     </row>
     <row r="97" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C97" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E98" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E99" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E100" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E101" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E102" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E107" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E108" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E109" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E110" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E111" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E114" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E115" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E116" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C119" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C120" s="4"/>
       <c r="E120" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E121" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E122" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E123" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E124" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E125" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D126" s="4"/>
       <c r="E126" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D127" s="4"/>
       <c r="E127" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D128" s="4"/>
       <c r="E128" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E130" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E131" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E132" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C134" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E135" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E136" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E137" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E138" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E139" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E140" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E141" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E142" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E143" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2038,10 +2026,10 @@
         <v>15</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2049,16 +2037,16 @@
         <v>15</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2066,38 +2054,38 @@
         <v>15</v>
       </c>
       <c r="D147" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F147" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E147" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="G147" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C148" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H149" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2105,70 +2093,70 @@
         <v>15</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E152" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E153" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E154" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E155" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E156" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E157" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E158" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E159" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E160" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E161" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E162" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E163" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2176,16 +2164,16 @@
     </row>
     <row r="165" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C165" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2194,36 +2182,36 @@
     </row>
     <row r="167" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E167" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E168" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E169" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E170" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E171" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2231,34 +2219,34 @@
     </row>
     <row r="173" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E173" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E174" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H174" s="0" t="s">
         <v>220</v>
-      </c>
-      <c r="H174" s="0" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E175" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E176" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2266,28 +2254,28 @@
     </row>
     <row r="178" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E178" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E179" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E180" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E181" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2295,25 +2283,25 @@
     </row>
     <row r="183" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D183" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E184" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E185" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E186" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2321,72 +2309,72 @@
     </row>
     <row r="188" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E188" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E189" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E190" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E191" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E192" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E193" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E194" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E196" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E197" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E198" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E199" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E200" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E201" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E202" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2397,49 +2385,49 @@
     </row>
     <row r="207" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D207" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E207" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E208" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E209" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E210" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E211" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E212" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E213" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2447,30 +2435,30 @@
     </row>
     <row r="215" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D215" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E216" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E217" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E218" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E219" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2486,7 +2474,7 @@
     </row>
     <row r="253" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D253" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2686,7 +2674,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -2696,7 +2684,7 @@
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>11</v>
@@ -2772,7 +2760,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>31</v>
@@ -2783,10 +2771,10 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>56</v>
@@ -2797,7 +2785,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>57</v>
@@ -2808,7 +2796,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>58</v>
@@ -2816,7 +2804,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>59</v>
@@ -2824,17 +2812,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="281">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -332,25 +332,7 @@
     <t xml:space="preserve">0：正常   1：告警  2：故障</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">设备模式</t>
-    </r>
+    <t xml:space="preserve">3、设备模式</t>
   </si>
   <si>
     <t xml:space="preserve">0：标准   1：级联  2：机柜双电源  3：RTU</t>
@@ -831,6 +813,24 @@
   </si>
   <si>
     <t xml:space="preserve">5、https端口号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43、时间设置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、设备时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、启用UDP设置时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、NTP服务器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、时区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、NTP同步</t>
   </si>
   <si>
     <t xml:space="preserve">111、命令执行</t>
@@ -873,7 +873,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -895,12 +895,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -993,8 +987,8 @@
   </sheetPr>
   <dimension ref="A2:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I81" activeCellId="0" sqref="I81"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A199" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F228" activeCellId="0" sqref="F228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2466,15 +2460,39 @@
       <c r="G220" s="4"/>
     </row>
     <row r="221" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D221" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="E221" s="0" t="s">
+        <v>265</v>
+      </c>
       <c r="G221" s="4"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D222" s="4"/>
+      <c r="E222" s="0" t="s">
+        <v>266</v>
+      </c>
       <c r="G222" s="4"/>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E223" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E224" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E225" s="0" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="253" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D253" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2674,7 +2692,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -2684,7 +2702,7 @@
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="6" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>11</v>
@@ -2760,7 +2778,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>31</v>
@@ -2771,10 +2789,10 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>56</v>
@@ -2785,7 +2803,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>57</v>
@@ -2796,7 +2814,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>58</v>
@@ -2804,7 +2822,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>59</v>
@@ -2812,17 +2830,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="291">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -831,6 +831,54 @@
   </si>
   <si>
     <t xml:space="preserve">5、NTP同步</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44、SMTP服务</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、 是否启用smtp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、发件箱服务器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、发件箱账号</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">发件箱密码</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">5、收件用户账号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、SMTP端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、工作模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0：TCP 1：SSL 2：TLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8、错误状态</t>
   </si>
   <si>
     <t xml:space="preserve">111、命令执行</t>
@@ -873,7 +921,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -895,6 +943,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -939,7 +993,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -957,6 +1011,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -987,8 +1045,8 @@
   </sheetPr>
   <dimension ref="A2:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A199" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F228" activeCellId="0" sqref="F228"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A208" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E238" activeCellId="0" sqref="E238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2490,9 +2548,55 @@
         <v>269</v>
       </c>
     </row>
+    <row r="227" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D227" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E228" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E229" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E230" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E231" s="0" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E232" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E233" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="G233" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E234" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
     <row r="253" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D253" s="0" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2691,18 +2795,18 @@
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="6" t="s">
-        <v>272</v>
+      <c r="C2" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>11</v>
@@ -2778,7 +2882,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>31</v>
@@ -2789,10 +2893,10 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>56</v>
@@ -2803,7 +2907,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>57</v>
@@ -2814,7 +2918,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>58</v>
@@ -2822,7 +2926,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>59</v>
@@ -2830,17 +2934,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -578,6 +578,9 @@
     <t xml:space="preserve">第几个组</t>
   </si>
   <si>
+    <t xml:space="preserve">0; 1; 2; 3;</t>
+  </si>
+  <si>
     <t xml:space="preserve">22、输出位</t>
   </si>
   <si>
@@ -602,9 +605,6 @@
     <t xml:space="preserve">3、定时下电</t>
   </si>
   <si>
-    <t xml:space="preserve">0; 1; 2; 3;</t>
-  </si>
-  <si>
     <t xml:space="preserve">30、软件版本号</t>
   </si>
   <si>
@@ -845,25 +845,7 @@
     <t xml:space="preserve">3、发件箱账号</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">发件箱密码</t>
-    </r>
+    <t xml:space="preserve">4、发件箱密码</t>
   </si>
   <si>
     <t xml:space="preserve">5、收件用户账号</t>
@@ -921,13 +903,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -943,12 +924,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -993,7 +968,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1011,10 +986,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1043,13 +1014,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:L1048576"/>
+  <dimension ref="A2:L253"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A208" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E238" activeCellId="0" sqref="E238"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F149" activeCellId="0" sqref="F149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.73"/>
@@ -1062,6 +1033,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="29.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="13" style="0" width="8.6"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1234,7 +1206,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0" t="s">
         <v>36</v>
       </c>
@@ -1245,7 +1217,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="0" t="s">
         <v>39</v>
       </c>
@@ -1256,7 +1228,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E17" s="0" t="s">
         <v>42</v>
       </c>
@@ -1376,7 +1348,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="0" t="s">
         <v>30</v>
       </c>
@@ -1387,7 +1359,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="0" t="s">
         <v>33</v>
       </c>
@@ -1461,7 +1433,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="3" t="s">
         <v>60</v>
       </c>
@@ -1481,7 +1453,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
         <v>64</v>
       </c>
@@ -1498,7 +1470,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="0" t="s">
         <v>69</v>
       </c>
@@ -1506,7 +1478,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E47" s="0" t="s">
         <v>71</v>
       </c>
@@ -1514,17 +1486,17 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E48" s="0" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E49" s="0" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E50" s="0" t="s">
         <v>75</v>
       </c>
@@ -1552,7 +1524,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="4" t="s">
         <v>77</v>
       </c>
@@ -1569,7 +1541,7 @@
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E55" s="4"/>
     </row>
-    <row r="56" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="4" t="s">
         <v>15</v>
       </c>
@@ -1580,22 +1552,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E57" s="0" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E58" s="0" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E59" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E60" s="0" t="s">
         <v>84</v>
       </c>
@@ -1603,7 +1575,7 @@
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E64" s="4"/>
     </row>
-    <row r="66" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="4" t="s">
         <v>15</v>
       </c>
@@ -1614,27 +1586,27 @@
         <v>86</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E67" s="0" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E68" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E69" s="0" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E70" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E71" s="0" t="s">
         <v>91</v>
       </c>
@@ -1642,7 +1614,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E72" s="0" t="s">
         <v>93</v>
       </c>
@@ -1651,7 +1623,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E73" s="0" t="s">
         <v>95</v>
       </c>
@@ -1659,7 +1631,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E74" s="0" t="s">
         <v>97</v>
       </c>
@@ -1667,7 +1639,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="4" t="s">
         <v>15</v>
       </c>
@@ -1678,12 +1650,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E77" s="0" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E78" s="0" t="s">
         <v>101</v>
       </c>
@@ -1691,7 +1663,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E79" s="0" t="s">
         <v>103</v>
       </c>
@@ -1699,28 +1671,28 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E80" s="0" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E81" s="0" t="s">
         <v>106</v>
       </c>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E82" s="0" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E83" s="0" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E84" s="4" t="s">
         <v>109</v>
       </c>
@@ -1728,7 +1700,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E85" s="4" t="s">
         <v>110</v>
       </c>
@@ -1736,7 +1708,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E86" s="4" t="s">
         <v>112</v>
       </c>
@@ -1744,7 +1716,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="4" t="s">
         <v>114</v>
       </c>
@@ -1758,7 +1730,7 @@
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E89" s="4"/>
     </row>
-    <row r="90" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="4" t="s">
         <v>116</v>
       </c>
@@ -1769,22 +1741,22 @@
         <v>118</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E91" s="0" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E92" s="0" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="0" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E94" s="4" t="s">
         <v>122</v>
       </c>
@@ -1795,7 +1767,7 @@
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E95" s="4"/>
     </row>
-    <row r="97" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C97" s="4" t="s">
         <v>124</v>
       </c>
@@ -1806,12 +1778,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E98" s="0" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E99" s="0" t="s">
         <v>128</v>
       </c>
@@ -1819,7 +1791,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E100" s="0" t="s">
         <v>130</v>
       </c>
@@ -1827,7 +1799,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E101" s="0" t="s">
         <v>132</v>
       </c>
@@ -1835,7 +1807,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E102" s="0" t="s">
         <v>134</v>
       </c>
@@ -1843,12 +1815,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="0" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="0" t="s">
         <v>137</v>
       </c>
@@ -1856,7 +1828,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="4" t="s">
         <v>124</v>
       </c>
@@ -1867,32 +1839,32 @@
         <v>140</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E107" s="0" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E108" s="0" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E109" s="0" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E110" s="0" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E111" s="0" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="4" t="s">
         <v>124</v>
       </c>
@@ -1906,12 +1878,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E114" s="0" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E115" s="0" t="s">
         <v>150</v>
       </c>
@@ -1919,12 +1891,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E116" s="0" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C119" s="4" t="s">
         <v>124</v>
       </c>
@@ -1935,28 +1907,28 @@
         <v>154</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C120" s="4"/>
       <c r="E120" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E121" s="0" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E122" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E123" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E124" s="4" t="s">
         <v>159</v>
       </c>
@@ -1964,24 +1936,24 @@
         <v>160</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E125" s="0" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D126" s="4"/>
       <c r="E126" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D127" s="4"/>
       <c r="E127" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D128" s="4"/>
       <c r="E128" s="0" t="s">
         <v>164</v>
@@ -1990,18 +1962,18 @@
         <v>165</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E130" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E131" s="0" t="s">
         <v>168</v>
       </c>
@@ -2009,12 +1981,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E132" s="0" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C134" s="4" t="s">
         <v>124</v>
       </c>
@@ -2028,52 +2000,52 @@
         <v>173</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E135" s="0" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E136" s="0" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E137" s="0" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E138" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E139" s="0" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E140" s="0" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E141" s="0" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E142" s="0" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E143" s="0" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C145" s="4" t="s">
         <v>15</v>
       </c>
@@ -2083,64 +2055,65 @@
       <c r="E145" s="4" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="146" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H145" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C146" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C147" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D147" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="F147" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E147" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="G147" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C148" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H149" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H149" s="4"/>
+    </row>
+    <row r="151" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C151" s="0" t="s">
         <v>15</v>
       </c>
@@ -2151,62 +2124,62 @@
         <v>195</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E152" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E153" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E154" s="0" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E155" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E156" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E157" s="0" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E158" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E159" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E160" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E161" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E162" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E163" s="4" t="s">
         <v>207</v>
       </c>
@@ -2214,7 +2187,7 @@
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E164" s="4"/>
     </row>
-    <row r="165" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C165" s="4" t="s">
         <v>116</v>
       </c>
@@ -2232,7 +2205,7 @@
       <c r="C166" s="4"/>
       <c r="E166" s="4"/>
     </row>
-    <row r="167" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E167" s="4" t="s">
         <v>211</v>
       </c>
@@ -2240,7 +2213,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E168" s="4" t="s">
         <v>213</v>
       </c>
@@ -2248,7 +2221,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E169" s="4" t="s">
         <v>215</v>
       </c>
@@ -2256,12 +2229,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E170" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E171" s="4" t="s">
         <v>218</v>
       </c>
@@ -2269,7 +2242,7 @@
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E172" s="4"/>
     </row>
-    <row r="173" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E173" s="4" t="s">
         <v>219</v>
       </c>
@@ -2277,7 +2250,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E174" s="4" t="s">
         <v>221</v>
       </c>
@@ -2285,7 +2258,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E175" s="4" t="s">
         <v>222</v>
       </c>
@@ -2293,7 +2266,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E176" s="4" t="s">
         <v>223</v>
       </c>
@@ -2304,7 +2277,7 @@
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E177" s="4"/>
     </row>
-    <row r="178" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E178" s="4" t="s">
         <v>224</v>
       </c>
@@ -2312,7 +2285,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E179" s="4" t="s">
         <v>225</v>
       </c>
@@ -2320,12 +2293,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E180" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E181" s="4" t="s">
         <v>227</v>
       </c>
@@ -2333,7 +2306,7 @@
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E182" s="4"/>
     </row>
-    <row r="183" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D183" s="4" t="s">
         <v>228</v>
       </c>
@@ -2341,17 +2314,17 @@
         <v>229</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E184" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E185" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E186" s="4" t="s">
         <v>232</v>
       </c>
@@ -2359,72 +2332,72 @@
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E187" s="4"/>
     </row>
-    <row r="188" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E188" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E189" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E190" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E191" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E192" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E193" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E194" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E196" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E197" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E198" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E199" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E200" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E201" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E202" s="4" t="s">
         <v>246</v>
       </c>
@@ -2432,10 +2405,10 @@
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E203" s="4"/>
     </row>
-    <row r="205" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E205" s="4"/>
     </row>
-    <row r="207" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D207" s="4" t="s">
         <v>247</v>
       </c>
@@ -2449,7 +2422,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E208" s="0" t="s">
         <v>251</v>
       </c>
@@ -2457,17 +2430,17 @@
         <v>252</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E209" s="0" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E210" s="0" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E211" s="0" t="s">
         <v>255</v>
       </c>
@@ -2477,7 +2450,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E213" s="4" t="s">
         <v>257</v>
       </c>
@@ -2485,7 +2458,7 @@
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E214" s="4"/>
     </row>
-    <row r="215" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D215" s="0" t="s">
         <v>258</v>
       </c>
@@ -2493,22 +2466,22 @@
         <v>259</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E216" s="0" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E217" s="0" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E218" s="0" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E219" s="0" t="s">
         <v>263</v>
       </c>
@@ -2517,7 +2490,7 @@
       <c r="E220" s="4"/>
       <c r="G220" s="4"/>
     </row>
-    <row r="221" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D221" s="0" t="s">
         <v>264</v>
       </c>
@@ -2526,62 +2499,62 @@
       </c>
       <c r="G221" s="4"/>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D222" s="4"/>
       <c r="E222" s="0" t="s">
         <v>266</v>
       </c>
       <c r="G222" s="4"/>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E223" s="0" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E224" s="0" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E225" s="0" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D227" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="E227" s="5" t="s">
+      <c r="E227" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E228" s="0" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E229" s="0" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E230" s="0" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E231" s="0" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E232" s="0" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E233" s="0" t="s">
         <v>277</v>
       </c>
@@ -2589,172 +2562,16 @@
         <v>278</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E234" s="0" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D253" s="0" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C2:G2"/>
@@ -2781,11 +2598,12 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="0" width="20.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="9" style="0" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2795,17 +2613,17 @@
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>282</v>
       </c>
       <c r="D2" s="0" t="s">

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="296">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -371,6 +371,15 @@
     <t xml:space="preserve">0：没有， 1：有</t>
   </si>
   <si>
+    <t xml:space="preserve">12、垂直、水平</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:垂直 1:水平</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13、屏幕方位角</t>
+  </si>
+  <si>
     <t xml:space="preserve">Addr ＝ 0</t>
   </si>
   <si>
@@ -513,6 +522,12 @@
   </si>
   <si>
     <t xml:space="preserve">9、时间间隔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10、数据内容</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0：自动 1：最多 2：最少</t>
   </si>
   <si>
     <t xml:space="preserve">11、http推送是否开启</t>
@@ -909,6 +924,7 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1014,13 +1030,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:L253"/>
+  <dimension ref="A2:L258"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F149" activeCellId="0" sqref="F149"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I134" activeCellId="0" sqref="I134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.73"/>
@@ -1725,303 +1741,306 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E88" s="4"/>
+      <c r="E88" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H88" s="0" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E89" s="4"/>
-    </row>
-    <row r="90" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="E90" s="0" t="s">
+      <c r="E89" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E91" s="0" t="s">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E90" s="4"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C94" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E92" s="0" t="s">
+      <c r="D94" s="0" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E93" s="0" t="s">
+      <c r="E94" s="0" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E94" s="4" t="s">
+    <row r="95" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E95" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="H94" s="0" t="s">
+    </row>
+    <row r="96" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E96" s="0" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E95" s="4"/>
-    </row>
     <row r="97" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="4" t="s">
+      <c r="E97" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="D97" s="0" t="s">
+    </row>
+    <row r="98" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E98" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E97" s="0" t="s">
+      <c r="H98" s="0" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E98" s="0" t="s">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E99" s="4"/>
+    </row>
+    <row r="101" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C101" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E99" s="0" t="s">
+      <c r="D101" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="H99" s="0" t="s">
+      <c r="E101" s="0" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E100" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="H100" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E101" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="H101" s="0" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E102" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="H102" s="0" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="0" t="s">
-        <v>136</v>
+        <v>131</v>
+      </c>
+      <c r="H103" s="0" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="H104" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E105" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H105" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E106" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="H104" s="4" t="s">
+      <c r="H106" s="0" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D106" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="E106" s="0" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E107" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E108" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C110" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D110" s="0" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E109" s="0" t="s">
+      <c r="E110" s="0" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E110" s="0" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E111" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E112" s="0" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D113" s="0" t="s">
+      <c r="E113" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="E113" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="H113" s="0" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E114" s="0" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E115" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C117" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E117" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="H115" s="0" t="s">
+      <c r="H117" s="0" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E116" s="0" t="s">
+    <row r="118" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E118" s="0" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D119" s="0" t="s">
+      <c r="E119" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="E119" s="0" t="s">
+      <c r="H119" s="0" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="4"/>
-      <c r="E120" s="4" t="s">
+      <c r="E120" s="0" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E121" s="0" t="s">
+    <row r="123" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C123" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D123" s="0" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="122" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E122" s="4" t="s">
+      <c r="E123" s="0" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E123" s="4" t="s">
+    <row r="124" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C124" s="4"/>
+      <c r="E124" s="4" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E124" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H124" s="0" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E125" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E126" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E127" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D126" s="4"/>
-      <c r="E126" s="4" t="s">
+    <row r="128" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E128" s="4" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="127" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D127" s="4"/>
-      <c r="E127" s="4" t="s">
+      <c r="H128" s="0" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D128" s="4"/>
-      <c r="E128" s="0" t="s">
+    <row r="129" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E129" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="H128" s="0" t="s">
+    </row>
+    <row r="130" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D130" s="4"/>
+      <c r="E130" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D129" s="4"/>
-      <c r="E129" s="4" t="s">
+    <row r="131" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D131" s="4"/>
+      <c r="E131" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E130" s="4" t="s">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D132" s="4"/>
+      <c r="E132" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="131" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E131" s="0" t="s">
+      <c r="H132" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="H131" s="4" t="s">
+    </row>
+    <row r="133" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D133" s="4"/>
+      <c r="E133" s="0" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="132" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E132" s="0" t="s">
+      <c r="H133" s="0" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C134" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D134" s="0" t="s">
+      <c r="D134" s="4"/>
+      <c r="E134" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E134" s="0" t="s">
+    </row>
+    <row r="135" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E135" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E135" s="0" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E136" s="0" t="s">
-        <v>175</v>
+        <v>173</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E137" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C139" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D139" s="0" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="138" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E138" s="4" t="s">
+      <c r="E139" s="0" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="139" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E139" s="0" t="s">
+      <c r="H139" s="4" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2041,116 +2060,116 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E143" s="0" t="s">
+      <c r="E143" s="4" t="s">
         <v>182</v>
       </c>
     </row>
+    <row r="144" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E144" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
     <row r="145" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C145" s="4" t="s">
+      <c r="E145" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E146" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E147" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E148" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C150" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D145" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H145" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C146" s="4" t="s">
+      <c r="D150" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C151" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D146" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G146" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C147" s="4" t="s">
+      <c r="D151" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C152" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D147" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E147" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G147" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C148" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D148" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="E148" s="0" t="s">
+      <c r="D152" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E152" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="F152" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F148" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H149" s="4"/>
-    </row>
-    <row r="151" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C151" s="0" t="s">
+      <c r="G152" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C153" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H154" s="4"/>
+    </row>
+    <row r="156" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C156" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D151" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="E151" s="0" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E152" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E153" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E154" s="0" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E155" s="4" t="s">
+      <c r="D156" s="0" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="156" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E156" s="4" t="s">
+      <c r="E156" s="0" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E157" s="0" t="s">
+      <c r="E157" s="4" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2160,7 +2179,7 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E159" s="4" t="s">
+      <c r="E159" s="0" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2175,7 +2194,7 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E162" s="4" t="s">
+      <c r="E162" s="0" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2184,95 +2203,85 @@
         <v>207</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E164" s="4"/>
+    <row r="164" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E164" s="4" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C165" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D165" s="0" t="s">
-        <v>208</v>
-      </c>
       <c r="E165" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="H165" s="0" t="s">
+    </row>
+    <row r="166" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E166" s="4" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C166" s="4"/>
-      <c r="E166" s="4"/>
     </row>
     <row r="167" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E167" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="H167" s="0" t="s">
-        <v>212</v>
-      </c>
     </row>
     <row r="168" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E168" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E169" s="4"/>
+    </row>
+    <row r="170" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C170" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D170" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="H168" s="0" t="s">
+      <c r="E170" s="4" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="169" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E169" s="4" t="s">
+      <c r="H170" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="H169" s="0" t="s">
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C171" s="4"/>
+      <c r="E171" s="4"/>
+    </row>
+    <row r="172" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E172" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="170" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E170" s="4" t="s">
+      <c r="H172" s="0" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="171" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E171" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E172" s="4"/>
     </row>
     <row r="173" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E173" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H173" s="0" t="s">
         <v>219</v>
-      </c>
-      <c r="H173" s="0" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E174" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H174" s="0" t="s">
         <v>221</v>
-      </c>
-      <c r="H174" s="0" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E175" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="H175" s="0" t="s">
-        <v>220</v>
-      </c>
     </row>
     <row r="176" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E176" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="H176" s="0" t="s">
-        <v>220</v>
-      </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E177" s="4"/>
@@ -2282,42 +2291,51 @@
         <v>224</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E179" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H179" s="0" t="s">
         <v>225</v>
-      </c>
-      <c r="H179" s="4" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E180" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="H180" s="0" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E181" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="H181" s="0" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E182" s="4"/>
     </row>
     <row r="183" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D183" s="4" t="s">
-        <v>228</v>
-      </c>
       <c r="E183" s="4" t="s">
         <v>229</v>
+      </c>
+      <c r="H183" s="0" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E184" s="4" t="s">
         <v>230</v>
       </c>
+      <c r="H184" s="4" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E185" s="4" t="s">
@@ -2333,29 +2351,30 @@
       <c r="E187" s="4"/>
     </row>
     <row r="188" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D188" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="E188" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E189" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E190" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E191" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E192" s="4" t="s">
         <v>237</v>
       </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E192" s="4"/>
     </row>
     <row r="193" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E193" s="4" t="s">
@@ -2367,28 +2386,28 @@
         <v>239</v>
       </c>
     </row>
+    <row r="195" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E195" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
     <row r="196" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E196" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E197" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E198" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E199" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E200" s="4" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2402,66 +2421,65 @@
         <v>246</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E203" s="4"/>
-    </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E205" s="4"/>
+    <row r="203" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E203" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E204" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E205" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E206" s="4" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D207" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="E207" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="G207" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="H207" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E208" s="0" t="s">
+      <c r="E207" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="H208" s="4" t="s">
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E208" s="4"/>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E210" s="4"/>
+    </row>
+    <row r="212" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D212" s="4" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="209" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E209" s="0" t="s">
+      <c r="E212" s="0" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="210" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E210" s="0" t="s">
+      <c r="G212" s="4" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="211" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E211" s="0" t="s">
+      <c r="H212" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E212" s="0" t="s">
+    <row r="213" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E213" s="0" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="213" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E213" s="4" t="s">
+      <c r="H213" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E214" s="4"/>
+    <row r="214" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E214" s="0" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D215" s="0" t="s">
-        <v>258</v>
-      </c>
       <c r="E215" s="0" t="s">
         <v>259</v>
       </c>
@@ -2477,34 +2495,30 @@
       </c>
     </row>
     <row r="218" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E218" s="0" t="s">
+      <c r="E218" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E219" s="0" t="s">
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E219" s="4"/>
+    </row>
+    <row r="220" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D220" s="0" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E220" s="4"/>
-      <c r="G220" s="4"/>
+      <c r="E220" s="0" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="221" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D221" s="0" t="s">
-        <v>264</v>
-      </c>
       <c r="E221" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="G221" s="4"/>
     </row>
     <row r="222" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D222" s="4"/>
       <c r="E222" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="G222" s="4"/>
     </row>
     <row r="223" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E223" s="0" t="s">
@@ -2516,18 +2530,25 @@
         <v>268</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E225" s="0" t="s">
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E225" s="4"/>
+      <c r="G225" s="4"/>
+    </row>
+    <row r="226" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D226" s="0" t="s">
         <v>269</v>
       </c>
+      <c r="E226" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="G226" s="4"/>
     </row>
     <row r="227" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D227" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="E227" s="4" t="s">
+      <c r="D227" s="4"/>
+      <c r="E227" s="0" t="s">
         <v>271</v>
       </c>
+      <c r="G227" s="4"/>
     </row>
     <row r="228" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E228" s="0" t="s">
@@ -2544,13 +2565,11 @@
         <v>274</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E231" s="0" t="s">
+    <row r="232" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D232" s="0" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="232" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E232" s="0" t="s">
+      <c r="E232" s="4" t="s">
         <v>276</v>
       </c>
     </row>
@@ -2558,18 +2577,43 @@
       <c r="E233" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="G233" s="0" t="s">
-        <v>278</v>
-      </c>
     </row>
     <row r="234" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E234" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E235" s="0" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D253" s="0" t="s">
+    <row r="236" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E236" s="0" t="s">
         <v>280</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E237" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E238" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="G238" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E239" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D258" s="0" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2642,7 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.25"/>
@@ -2614,7 +2658,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -2624,7 +2668,7 @@
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="6" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>11</v>
@@ -2700,7 +2744,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>31</v>
@@ -2711,10 +2755,10 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>56</v>
@@ -2725,7 +2769,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>57</v>
@@ -2736,7 +2780,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>58</v>
@@ -2744,7 +2788,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>59</v>
@@ -2752,17 +2796,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="299">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -587,7 +587,31 @@
     <t xml:space="preserve">10、连接状态</t>
   </si>
   <si>
-    <t xml:space="preserve">21、各输出位分组信息</t>
+    <t xml:space="preserve">22、输出位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第几个</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23、分组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、定时上电</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地址＝0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24、双电源</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、定时下电</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25、各输出位分组信息</t>
   </si>
   <si>
     <t xml:space="preserve">第几个组</t>
@@ -596,28 +620,13 @@
     <t xml:space="preserve">0; 1; 2; 3;</t>
   </si>
   <si>
-    <t xml:space="preserve">22、输出位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">第几个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23、分组</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、定时上电</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地址＝0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24、双电源</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、定时下电</t>
+    <t xml:space="preserve">26、输出位分组设置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第几组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0取消 1设置</t>
   </si>
   <si>
     <t xml:space="preserve">30、软件版本号</t>
@@ -918,7 +927,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -940,6 +949,20 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -984,7 +1007,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1002,6 +1025,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1030,13 +1061,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:L258"/>
+  <dimension ref="A2:L260"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I134" activeCellId="0" sqref="I134"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H161" activeCellId="0" sqref="H161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.73"/>
@@ -2089,35 +2120,21 @@
         <v>187</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C150" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D150" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="H150" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
     <row r="151" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C151" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2125,156 +2142,177 @@
         <v>15</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C153" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="154" s="5" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C154" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D153" s="0" t="s">
+      <c r="E154" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E153" s="0" t="s">
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F153" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G153" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H154" s="4"/>
-    </row>
-    <row r="156" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C156" s="0" t="s">
+    </row>
+    <row r="155" s="5" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C155" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D156" s="0" t="s">
+      <c r="D155" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E156" s="0" t="s">
+      <c r="E155" s="4" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="157" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E157" s="4" t="s">
+      <c r="F155" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G155" s="4"/>
+      <c r="H155" s="4" t="s">
         <v>201</v>
       </c>
     </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H156" s="4"/>
+    </row>
     <row r="158" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E158" s="4" t="s">
+      <c r="C158" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" s="0" t="s">
         <v>202</v>
       </c>
+      <c r="E158" s="0" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E159" s="0" t="s">
-        <v>203</v>
+      <c r="E159" s="4" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E160" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E161" s="4" t="s">
-        <v>205</v>
+      <c r="E161" s="0" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E162" s="0" t="s">
-        <v>206</v>
+      <c r="E162" s="4" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E163" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E164" s="4" t="s">
-        <v>208</v>
+      <c r="E164" s="0" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E165" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E166" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E167" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E168" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E169" s="4"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E169" s="4" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C170" s="4" t="s">
+      <c r="E170" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E171" s="4"/>
+    </row>
+    <row r="172" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C172" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D170" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="H170" s="0" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C171" s="4"/>
-      <c r="E171" s="4"/>
-    </row>
-    <row r="172" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D172" s="0" t="s">
+        <v>216</v>
+      </c>
       <c r="E172" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E173" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="H173" s="0" t="s">
-        <v>219</v>
-      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C173" s="4"/>
+      <c r="E173" s="4"/>
     </row>
     <row r="174" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E174" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="H174" s="0" t="s">
         <v>220</v>
-      </c>
-      <c r="H174" s="0" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E175" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H175" s="0" t="s">
         <v>222</v>
       </c>
     </row>
@@ -2282,200 +2320,200 @@
       <c r="E176" s="4" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E177" s="4"/>
+      <c r="H176" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E177" s="4" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E178" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H178" s="0" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E179" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="H179" s="0" t="s">
-        <v>225</v>
-      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E179" s="4"/>
     </row>
     <row r="180" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E180" s="4" t="s">
         <v>227</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E181" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H181" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="H181" s="0" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E182" s="4"/>
+    </row>
+    <row r="182" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E182" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H182" s="0" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E183" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E184" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="H184" s="4" t="s">
-        <v>225</v>
-      </c>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E184" s="4"/>
     </row>
     <row r="185" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E185" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
+      </c>
+      <c r="H185" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E186" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E187" s="4"/>
+        <v>233</v>
+      </c>
+      <c r="H186" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E187" s="4" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D188" s="4" t="s">
-        <v>233</v>
-      </c>
       <c r="E188" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E189" s="4" t="s">
         <v>235</v>
       </c>
     </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E189" s="4"/>
+    </row>
     <row r="190" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D190" s="4" t="s">
+        <v>236</v>
+      </c>
       <c r="E190" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E191" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E192" s="4"/>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E192" s="4" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E193" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E194" s="4" t="s">
-        <v>239</v>
-      </c>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E194" s="4"/>
     </row>
     <row r="195" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E195" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E196" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E197" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E198" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E199" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E200" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E201" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E202" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E203" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E204" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E205" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E206" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E207" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E208" s="4"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E208" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E209" s="4" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E210" s="4"/>
     </row>
-    <row r="212" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D212" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E212" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="G212" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="H212" s="4" t="s">
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E212" s="4"/>
+    </row>
+    <row r="214" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D214" s="4" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="213" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E213" s="0" t="s">
+      <c r="E214" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="H213" s="4" t="s">
+      <c r="G214" s="4" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="214" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E214" s="0" t="s">
+      <c r="H214" s="4" t="s">
         <v>258</v>
       </c>
     </row>
@@ -2483,126 +2521,126 @@
       <c r="E215" s="0" t="s">
         <v>259</v>
       </c>
+      <c r="H215" s="4" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E216" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E217" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E218" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E219" s="4"/>
+      <c r="E218" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E219" s="0" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D220" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="E220" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E221" s="0" t="s">
+      <c r="E220" s="4" t="s">
         <v>265</v>
       </c>
     </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E221" s="4"/>
+    </row>
     <row r="222" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D222" s="0" t="s">
+        <v>266</v>
+      </c>
       <c r="E222" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E223" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E224" s="0" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E225" s="4"/>
-      <c r="G225" s="4"/>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E225" s="0" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D226" s="0" t="s">
-        <v>269</v>
-      </c>
       <c r="E226" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="G226" s="4"/>
-    </row>
-    <row r="227" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D227" s="4"/>
-      <c r="E227" s="0" t="s">
         <v>271</v>
       </c>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E227" s="4"/>
       <c r="G227" s="4"/>
     </row>
     <row r="228" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D228" s="0" t="s">
+        <v>272</v>
+      </c>
       <c r="E228" s="0" t="s">
-        <v>272</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G228" s="4"/>
     </row>
     <row r="229" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D229" s="4"/>
       <c r="E229" s="0" t="s">
-        <v>273</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G229" s="4"/>
     </row>
     <row r="230" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E230" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E231" s="0" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D232" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="E232" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E233" s="0" t="s">
+      <c r="E232" s="0" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E234" s="0" t="s">
+      <c r="D234" s="0" t="s">
         <v>278</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E235" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E236" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E237" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E238" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="G238" s="0" t="s">
         <v>283</v>
       </c>
     </row>
@@ -2611,9 +2649,22 @@
         <v>284</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D258" s="0" t="s">
+    <row r="240" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E240" s="0" t="s">
         <v>285</v>
+      </c>
+      <c r="G240" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E241" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D260" s="0" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2622,8 +2673,8 @@
     <mergeCell ref="C3:G3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2642,7 +2693,7 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.25"/>
@@ -2657,18 +2708,18 @@
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="C1" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="6" t="s">
-        <v>287</v>
+      <c r="C2" s="8" t="s">
+        <v>290</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>11</v>
@@ -2744,7 +2795,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>31</v>
@@ -2755,10 +2806,10 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>56</v>
@@ -2769,7 +2820,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>57</v>
@@ -2780,7 +2831,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>58</v>
@@ -2788,7 +2839,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>59</v>
@@ -2796,17 +2847,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -2814,8 +2865,8 @@
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -927,7 +927,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -957,12 +957,6 @@
       <name val="等线"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1007,7 +1001,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1029,10 +1023,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1067,7 +1057,7 @@
       <selection pane="topLeft" activeCell="H161" activeCellId="0" sqref="H161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.73"/>
@@ -2197,7 +2187,7 @@
       <c r="E155" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F155" s="6" t="s">
+      <c r="F155" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G155" s="4"/>
@@ -2673,8 +2663,8 @@
     <mergeCell ref="C3:G3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2693,7 +2683,7 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.25"/>
@@ -2708,17 +2698,17 @@
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>290</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -2865,8 +2855,8 @@
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">addr</t>
   </si>
   <si>
-    <t xml:space="preserve">pduReadData</t>
+    <t xml:space="preserve">pduDataGet</t>
   </si>
   <si>
     <t xml:space="preserve">type</t>
@@ -176,7 +176,35 @@
     <t xml:space="preserve">24：烟雾</t>
   </si>
   <si>
-    <t xml:space="preserve">pduSetData</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">pdu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Set</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">value</t>
@@ -251,10 +279,10 @@
     <t xml:space="preserve">6、软件升级记录</t>
   </si>
   <si>
-    <t xml:space="preserve">pduReadParam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pduSetParam</t>
+    <t xml:space="preserve">pduCfgGet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduCfgSet</t>
   </si>
   <si>
     <t xml:space="preserve">10、输出位名称</t>
@@ -927,7 +955,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -949,6 +977,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1022,7 +1056,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1053,11 +1087,11 @@
   </sheetPr>
   <dimension ref="A2:L260"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H161" activeCellId="0" sqref="H161"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.73"/>
@@ -1306,7 +1340,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
         <v>51</v>
       </c>
@@ -1555,7 +1589,7 @@
         <v>9</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>52</v>
@@ -2663,8 +2697,8 @@
     <mergeCell ref="C3:G3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2683,7 +2717,7 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.25"/>
@@ -2855,8 +2889,8 @@
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="308">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -174,6 +174,186 @@
   </si>
   <si>
     <t xml:space="preserve">24：烟雾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduDataSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">具体值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1：当前值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2：额定值 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4：最大值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5：最小值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6：下临界值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7：上临界值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduLogFun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">从第几条开始</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81、日志信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、报警 日志 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、日志数量 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">读取多少条</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、操作日志 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、读日志 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、系统日志 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、清除日志</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、电能记录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、硬件故障记录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、软件升级记录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduCfgGet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pduCfgSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10、输出位名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、uut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、机房名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、位置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、设备名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、二维码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、设备SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、相数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、回路数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、输出位数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、执行板数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、副机数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、执行板的输出位数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第几块执行板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0：禁用， 1：启用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、回路起始</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第几个回路</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、回路结束</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13、配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0、离线标识</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、系列号（A，B，C）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、设备状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0：正常   1：告警  2：故障</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、设备模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0：标准   1：级联  2：机柜双电源  3：RTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、副机的地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、modbus地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、频率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、蜂鸣器开关</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8、分组功能是否启用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9、电能记录功能是否启用</t>
   </si>
   <si>
     <r>
@@ -184,7 +364,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">pdu</t>
+      <t xml:space="preserve">10、总功率</t>
     </r>
     <r>
       <rPr>
@@ -193,8 +373,535 @@
         <rFont val="等线"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Data</t>
+      <t xml:space="preserve">记录功能是否启用</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">11、是否有断路器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0：没有， 1：有</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、垂直、水平</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:垂直 1:水平</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13、屏幕方位角</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addr ＝ 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14、用户登录信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、用户名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、预留信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、权限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、登陆验证</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用户名 ;　密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addr ＝ 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15、Modbus配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、RTU是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、RTU地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、波特率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:9600, 1:19200,2:38400,3:57600,4:115200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、校验位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NoParity = 0,        EvenParity = 1,         OddParity = 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、数据位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data5 = 0,Data6 = 1,Data7 = 2,Data8 = 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、停止位</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OneStop = 0, TwoStop=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、TCP是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、TCP端口号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">502,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16、SNMP配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、trap1地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、trap2地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、snmp v3 是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、账号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、密钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17、RPC配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、JSON-RPC是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 不开启 1开启TCP 2开启Websocket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、JSON-RPC端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、XML-RPC是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 不开启 1开启Http</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、XML-RPC端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18、主动推送配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、UDP推送1是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、UDP推送地址1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、UDP推送端口1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、UDP推送2是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、UDP推送地址2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、UDP推送端口2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 不开启 1UDP 2TCP 3Websocket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、设备反控模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8、设备反控端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9、时间间隔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10、数据内容</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0：自动 1：最多 2：最少</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、http推送是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0不开启 1POST 2PUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、http推送地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13、http推送延时时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14、http接收加密是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0不开启 1HTTP 2HTTPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15、http接收端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19、MQTT配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、MQTT是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0不开启 1mqtt 2mqtts 3ws 4 wss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、服务器地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、Client ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、用户名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8、keepAlive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9、QoS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10、连接状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22、输出位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第几个</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23、分组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、定时上电</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地址＝0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24、双电源</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、定时下电</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25、各输出位分组信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第几个组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0; 1; 2; 3;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26、输出位分组设置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第几组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0取消 1设置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30、软件版本号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、核心业务程序版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、核心业务程序编译时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、核心业务程序发布时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、守护进程版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、守护进程编译时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、守护进程发布时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、屏幕UI版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8、屏幕UI编译时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9、屏幕UI发布时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、第一块执行板软件版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、第二块执行板软件版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13、第三块执行板软件版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14、第四块执行板软件版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31、数据加密</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、是否开启接收加密</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0、不开启 1、AES加密 2 RSA加密 3 SM4国密 ４SM2加密</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、AES加密模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECB,        CBC,        CFB,        OFB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、填充方法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZERO,       PKCS7,      ISO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13、AES密钥长度</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AES_128,        AES_192,        AES_256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14、AES密钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15、AES偏移量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21、RSA 密钥长度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">只读</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22、RSA 填充格式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23、RSA公钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24、RSA私钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31、SM4加密模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32、SM4填充格式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33、SM4密钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34、SM4偏移量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32、TLS证书</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、序列号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、密钥长度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、之前无效</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、之后无效</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、主题：国家</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12、主题：州或省</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13、主题：地方</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14、主题：组织</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15、主题：单位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16、主题：名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17、主题：电子邮件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21、发行：国家</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22、发行：州或省</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23、发行：地方</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24、发行：组织</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25、发行：单位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26、发行：名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27、发行：电子邮件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41、网络连接状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0、使能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0：IPv4  1 IPv6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 禁用、1 使能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、 网络模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 手动设置、1 自动获取</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、IP 地址 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、子网掩码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、网关</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、前缀长度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、DNS :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42、WEB服务设置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、 是否启用http</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、http端口号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、重定向https</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、是否启用https</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、https端口号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43、时间设置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、设备时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、启用UDP设置时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、NTP服务器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、时区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、NTP同步</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44、SMTP服务</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、 是否启用smtp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、发件箱服务器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、发件箱账号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、发件箱密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、收件用户账号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、SMTP端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7、工作模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0：TCP 1：SSL 2：TLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8、错误状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82、进程启动信息</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -203,716 +910,116 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Set</t>
+      <t xml:space="preserve">1、</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">具体值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1：当前值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2：额定值 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4：最大值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5：最小值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6：下临界值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7：上临界值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pduLogFun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">从第几条开始</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81、日志信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、报警 日志 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、日志数量 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">读取多少条</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、操作日志 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、读日志 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、系统日志 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、清除日志</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、电能记录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、硬件故障记录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、软件升级记录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pduCfgGet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pduCfgSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10、输出位名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、uut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、机房名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、位置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、设备名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、二维码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、设备SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、相数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、回路数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、输出位数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、执行板数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、副机数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、执行板的输出位数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">第几块执行板</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7、</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0：禁用， 1：启用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、回路起始</t>
-  </si>
-  <si>
-    <t xml:space="preserve">第几个回路</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、回路结束</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13、配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0、离线标识</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、系列号（A，B，C）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、设备状态</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0：正常   1：告警  2：故障</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、设备模式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0：标准   1：级联  2：机柜双电源  3：RTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、副机的地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、modbus地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、频率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7、蜂鸣器开关</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8、分组功能是否启用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9、最近一次运行时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">单位分钟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10、出厂来总运行时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">单位小时</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、是否有断路器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0：没有， 1：有</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、垂直、水平</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0:垂直 1:水平</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13、屏幕方位角</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Addr ＝ 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14、用户登录信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、用户名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、预留信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、权限</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、登陆验证</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用户名 ;　密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addr ＝ 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15、Modbus配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、RTU是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、RTU地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、波特率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0:9600, 1:19200,2:38400,3:57600,4:115200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、校验位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NoParity = 0,        EvenParity = 1,         OddParity = 2,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、数据位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data5 = 0,Data6 = 1,Data7 = 2,Data8 = 3,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、停止位</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OneStop = 0, TwoStop=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、TCP是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、TCP端口号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">502,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16、SNMP配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、trap1地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、trap2地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、snmp v3 是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、账号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、密钥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17、RPC配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、JSON-RPC是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 不开启 1开启TCP 2开启Websocket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、JSON-RPC端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、XML-RPC是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 不开启 1开启Http</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、XML-RPC端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18、主动推送配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、UDP推送1是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、UDP推送地址1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、UDP推送端口1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、UDP推送2是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、UDP推送地址2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、UDP推送端口2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 不开启 1UDP 2TCP 3Websocket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7、设备反控模式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8、设备反控端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9、时间间隔</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10、数据内容</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0：自动 1：最多 2：最少</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、http推送是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0不开启 1POST 2PUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、http推送地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13、http推送延时时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14、http接收加密是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0不开启 1HTTP 2HTTPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15、http接收端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19、MQTT配置信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、MQTT是否开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0不开启 1mqtt 2mqtts 3ws 4 wss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、服务器地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、Client ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、用户名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7、密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8、keepAlive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9、QoS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10、连接状态</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22、输出位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">第几个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23、分组</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、定时上电</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地址＝0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24、双电源</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、定时下电</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25、各输出位分组信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">第几个组</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0; 1; 2; 3;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26、输出位分组设置</t>
-  </si>
-  <si>
-    <t xml:space="preserve">第几组</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0取消 1设置</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30、软件版本号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、核心业务程序版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、核心业务程序编译时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、核心业务程序发布时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、守护进程版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、守护进程编译时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、守护进程发布时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7、屏幕UI版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8、屏幕UI编译时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9、屏幕UI发布时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、第一块执行板软件版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、第二块执行板软件版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13、第三块执行板软件版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14、第四块执行板软件版本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31、数据加密</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、是否开启接收加密</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0、不开启 1、AES加密 2 RSA加密 3 SM4国密 ４SM2加密</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、AES加密模式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECB,        CBC,        CFB,        OFB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、填充方法</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZERO,       PKCS7,      ISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13、AES密钥长度</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AES_128,        AES_192,        AES_256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14、AES密钥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15、AES偏移量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21、RSA 密钥长度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">只读</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22、RSA 填充格式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23、RSA公钥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24、RSA私钥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31、SM4加密模式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32、SM4填充格式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33、SM4密钥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34、SM4偏移量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32、TLS证书</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、序列号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、密钥长度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、之前无效</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、之后无效</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11、主题：国家</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12、主题：州或省</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13、主题：地方</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14、主题：组织</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15、主题：单位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16、主题：名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17、主题：电子邮件</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21、发行：国家</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22、发行：州或省</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23、发行：地方</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24、发行：组织</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25、发行：单位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26、发行：名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27、发行：电子邮件</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41、网络连接状态</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0、使能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0：IPv4  1 IPv6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 禁用、1 使能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、 网络模式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 手动设置、1 自动获取</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、IP 地址 :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、子网掩码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、网关</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、前缀长度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、DNS :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42、WEB服务设置</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、 是否启用http</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、http端口号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、重定向https</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、是否启用https</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、https端口号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43、时间设置</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、设备时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、启用UDP设置时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、NTP服务器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、时区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、NTP同步</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44、SMTP服务</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、 是否启用smtp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2、发件箱服务器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3、发件箱账号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4、发件箱密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、收件用户账号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、SMTP端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7、工作模式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0：TCP 1：SSL 2：TLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8、错误状态</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">主进程</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">持续运行时间</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">单位秒钟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、守护进程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、进程启动时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日期和时间</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">屏幕进程</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">传感器进程</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">操作系统</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">10、启动记录信息</t>
   </si>
   <si>
     <t xml:space="preserve">111、命令执行</t>
@@ -1035,7 +1142,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1053,6 +1160,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1087,11 +1198,11 @@
   </sheetPr>
   <dimension ref="A2:L260"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F91" activeCellId="0" sqref="F91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.73"/>
@@ -1572,7 +1683,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
         <v>76</v>
       </c>
@@ -1585,11 +1696,11 @@
       <c r="E53" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="G53" s="0" t="s">
-        <v>14</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>52</v>
@@ -1771,41 +1882,35 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E85" s="4" t="s">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E85" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="H85" s="0" t="s">
+    </row>
+    <row r="86" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E86" s="0" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E86" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H86" s="0" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E88" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E89" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1822,36 +1927,36 @@
     </row>
     <row r="94" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E94" s="0" t="s">
         <v>119</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="E94" s="0" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E95" s="0" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E96" s="0" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E97" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E98" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1859,289 +1964,289 @@
     </row>
     <row r="101" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C101" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E101" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="D101" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="E101" s="0" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E102" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="0" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E105" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E106" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E107" s="0" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E108" s="0" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C110" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E111" s="0" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E112" s="0" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E113" s="0" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E114" s="0" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E115" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C117" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D117" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="H117" s="0" t="s">
         <v>149</v>
-      </c>
-      <c r="E117" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H117" s="0" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E118" s="0" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E119" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E120" s="0" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C123" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C124" s="4"/>
       <c r="E124" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E125" s="0" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E126" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E127" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E128" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E129" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D130" s="4"/>
       <c r="E130" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D131" s="4"/>
       <c r="E131" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D132" s="4"/>
       <c r="E132" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D133" s="4"/>
       <c r="E133" s="0" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D134" s="4"/>
       <c r="E134" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E135" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E136" s="0" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E137" s="0" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C139" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D139" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="H139" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="E139" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="H139" s="4" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E140" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E141" s="0" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E142" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E143" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E144" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E145" s="0" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E146" s="0" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E147" s="0" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E148" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2149,84 +2254,78 @@
         <v>15</v>
       </c>
       <c r="D151" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F151" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E151" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="G151" s="4" t="s">
-        <v>190</v>
-      </c>
+      <c r="G151" s="4"/>
     </row>
     <row r="152" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C152" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="G152" s="4" t="s">
-        <v>190</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G152" s="4"/>
     </row>
     <row r="153" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C153" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E153" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="D153" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="E153" s="0" t="s">
-        <v>195</v>
-      </c>
       <c r="F153" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="G153" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="154" s="5" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>188</v>
+      </c>
+      <c r="G153" s="4"/>
+    </row>
+    <row r="154" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C154" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
       <c r="H154" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="155" s="5" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="155" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C155" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F155" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G155" s="4"/>
       <c r="H155" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2237,70 +2336,70 @@
         <v>15</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E159" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E160" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E161" s="0" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E162" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E163" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E164" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E165" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E166" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E167" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E168" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E169" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E170" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2308,16 +2407,16 @@
     </row>
     <row r="172" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C172" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D172" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H172" s="0" t="s">
         <v>216</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="H172" s="0" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2326,36 +2425,36 @@
     </row>
     <row r="174" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E174" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E175" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E176" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E177" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E178" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2363,34 +2462,34 @@
     </row>
     <row r="180" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E180" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E181" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E182" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E183" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2398,28 +2497,28 @@
     </row>
     <row r="185" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E185" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E186" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E187" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E188" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2427,25 +2526,25 @@
     </row>
     <row r="190" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D190" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E191" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E192" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E193" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2453,72 +2552,72 @@
     </row>
     <row r="195" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E195" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E196" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E197" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E198" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E199" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E200" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E201" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E203" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E204" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E205" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E206" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E207" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E208" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E209" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2529,49 +2628,50 @@
     </row>
     <row r="214" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D214" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E214" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="F214" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E214" s="0" t="s">
+      <c r="G214" s="4"/>
+      <c r="H214" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="G214" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="H214" s="4" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E215" s="0" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E216" s="0" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E217" s="0" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E218" s="0" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E219" s="0" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E220" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2579,30 +2679,30 @@
     </row>
     <row r="222" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D222" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E222" s="0" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E223" s="0" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E224" s="0" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E225" s="0" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E226" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2611,84 +2711,134 @@
     </row>
     <row r="228" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D228" s="0" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E228" s="0" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G228" s="4"/>
     </row>
     <row r="229" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D229" s="4"/>
       <c r="E229" s="0" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G229" s="4"/>
     </row>
     <row r="230" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E230" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E231" s="0" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E232" s="0" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D234" s="0" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E235" s="0" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E236" s="0" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E237" s="0" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E238" s="0" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E239" s="0" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E240" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="G240" s="0" t="s">
-        <v>286</v>
+        <v>283</v>
+      </c>
+      <c r="H240" s="0" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E241" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D251" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E251" s="0" t="s">
         <v>287</v>
       </c>
+      <c r="F251" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="H251" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E252" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="F252" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="H252" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E253" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="F253" s="5"/>
+    </row>
+    <row r="254" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E254" s="0" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E255" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E256" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E257" s="4"/>
+      <c r="G257" s="5"/>
     </row>
     <row r="260" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D260" s="0" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -2717,7 +2867,7 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.25"/>
@@ -2732,18 +2882,18 @@
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="C1" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="7" t="s">
-        <v>290</v>
+      <c r="C2" s="8" t="s">
+        <v>299</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>11</v>
@@ -2819,7 +2969,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>31</v>
@@ -2830,10 +2980,10 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>56</v>
@@ -2844,7 +2994,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>57</v>
@@ -2855,7 +3005,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>58</v>
@@ -2863,7 +3013,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>59</v>
@@ -2871,17 +3021,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -260,7 +260,7 @@
     <t xml:space="preserve">10、输出位名称</t>
   </si>
   <si>
-    <t xml:space="preserve">11、uut</t>
+    <t xml:space="preserve">11、位置信息uut</t>
   </si>
   <si>
     <t xml:space="preserve">1、机房名称</t>
@@ -338,10 +338,10 @@
     <t xml:space="preserve">0：标准   1：级联  2：机柜双电源  3：RTU</t>
   </si>
   <si>
-    <t xml:space="preserve">4、副机的地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5、modbus地址</t>
+    <t xml:space="preserve">4、级联地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、</t>
   </si>
   <si>
     <t xml:space="preserve">6、频率</t>
@@ -356,25 +356,7 @@
     <t xml:space="preserve">9、电能记录功能是否启用</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">10、总功率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">记录功能是否启用</t>
-    </r>
+    <t xml:space="preserve">10、总功率记录功能是否启用</t>
   </si>
   <si>
     <t xml:space="preserve">11、是否有断路器</t>
@@ -902,46 +884,10 @@
     <t xml:space="preserve">82、进程启动信息</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">主进程</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">持续运行时间</t>
-    </r>
+    <t xml:space="preserve">1、主进程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、持续运行时间</t>
   </si>
   <si>
     <t xml:space="preserve">单位秒钟</t>
@@ -956,67 +902,13 @@
     <t xml:space="preserve">日期和时间</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">屏幕进程</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">传感器进程</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">操作系统</t>
-    </r>
+    <t xml:space="preserve">3、屏幕进程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、传感器进程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、操作系统</t>
   </si>
   <si>
     <t xml:space="preserve">10、启动记录信息</t>
@@ -1062,7 +954,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1084,12 +976,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1142,7 +1028,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1164,10 +1050,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1198,11 +1080,11 @@
   </sheetPr>
   <dimension ref="A2:L260"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F91" activeCellId="0" sqref="F91"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A262" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F85" activeCellId="0" sqref="F85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.73"/>
@@ -1696,10 +1578,10 @@
       <c r="E53" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H53" s="0" t="s">
@@ -2294,7 +2176,7 @@
       </c>
       <c r="G153" s="4"/>
     </row>
-    <row r="154" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" s="5" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C154" s="4" t="s">
         <v>15</v>
       </c>
@@ -2310,7 +2192,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="155" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" s="5" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C155" s="4" t="s">
         <v>15</v>
       </c>
@@ -2633,7 +2515,7 @@
       <c r="E214" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="F214" s="5" t="s">
+      <c r="F214" s="4" t="s">
         <v>255</v>
       </c>
       <c r="G214" s="4"/>
@@ -2787,7 +2669,7 @@
       </c>
     </row>
     <row r="251" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D251" s="5" t="s">
+      <c r="D251" s="4" t="s">
         <v>286</v>
       </c>
       <c r="E251" s="0" t="s">
@@ -2796,7 +2678,7 @@
       <c r="F251" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="H251" s="5" t="s">
+      <c r="H251" s="4" t="s">
         <v>289</v>
       </c>
     </row>
@@ -2804,7 +2686,7 @@
       <c r="E252" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="F252" s="5" t="s">
+      <c r="F252" s="4" t="s">
         <v>291</v>
       </c>
       <c r="H252" s="0" t="s">
@@ -2815,7 +2697,7 @@
       <c r="E253" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="F253" s="5"/>
+      <c r="F253" s="4"/>
     </row>
     <row r="254" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E254" s="0" t="s">
@@ -2828,13 +2710,13 @@
       </c>
     </row>
     <row r="256" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E256" s="5" t="s">
+      <c r="E256" s="4" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E257" s="4"/>
-      <c r="G257" s="5"/>
+      <c r="G257" s="4"/>
     </row>
     <row r="260" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D260" s="0" t="s">
@@ -2867,7 +2749,7 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.25"/>
@@ -2882,17 +2764,17 @@
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>299</v>
       </c>
       <c r="D2" s="0" t="s">

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -356,25 +356,7 @@
     <t xml:space="preserve">9、电能记录功能是否启用</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">10、总功率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">记录功能是否启用</t>
-    </r>
+    <t xml:space="preserve">10、总功率记录功能是否启用</t>
   </si>
   <si>
     <t xml:space="preserve">11、是否有断路器</t>
@@ -902,46 +884,10 @@
     <t xml:space="preserve">82、进程启动信息</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">主进程</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">持续运行时间</t>
-    </r>
+    <t xml:space="preserve">1、主进程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、持续运行时间</t>
   </si>
   <si>
     <t xml:space="preserve">单位秒钟</t>
@@ -956,67 +902,13 @@
     <t xml:space="preserve">日期和时间</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">屏幕进程</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">传感器进程</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">操作系统</t>
-    </r>
+    <t xml:space="preserve">3、屏幕进程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、传感器进程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、操作系统</t>
   </si>
   <si>
     <t xml:space="preserve">10、启动记录信息</t>
@@ -1062,7 +954,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1084,12 +976,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1142,7 +1028,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1164,10 +1050,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1198,11 +1080,11 @@
   </sheetPr>
   <dimension ref="A2:L260"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F91" activeCellId="0" sqref="F91"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E83" activeCellId="0" sqref="E83:E86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.73"/>
@@ -1696,10 +1578,10 @@
       <c r="E53" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H53" s="0" t="s">
@@ -2294,7 +2176,7 @@
       </c>
       <c r="G153" s="4"/>
     </row>
-    <row r="154" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" s="5" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C154" s="4" t="s">
         <v>15</v>
       </c>
@@ -2310,7 +2192,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="155" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" s="5" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C155" s="4" t="s">
         <v>15</v>
       </c>
@@ -2633,7 +2515,7 @@
       <c r="E214" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="F214" s="5" t="s">
+      <c r="F214" s="4" t="s">
         <v>255</v>
       </c>
       <c r="G214" s="4"/>
@@ -2787,7 +2669,7 @@
       </c>
     </row>
     <row r="251" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D251" s="5" t="s">
+      <c r="D251" s="4" t="s">
         <v>286</v>
       </c>
       <c r="E251" s="0" t="s">
@@ -2796,7 +2678,7 @@
       <c r="F251" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="H251" s="5" t="s">
+      <c r="H251" s="4" t="s">
         <v>289</v>
       </c>
     </row>
@@ -2804,7 +2686,7 @@
       <c r="E252" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="F252" s="5" t="s">
+      <c r="F252" s="4" t="s">
         <v>291</v>
       </c>
       <c r="H252" s="0" t="s">
@@ -2815,7 +2697,7 @@
       <c r="E253" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="F253" s="5"/>
+      <c r="F253" s="4"/>
     </row>
     <row r="254" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E254" s="0" t="s">
@@ -2828,13 +2710,13 @@
       </c>
     </row>
     <row r="256" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E256" s="5" t="s">
+      <c r="E256" s="4" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E257" s="4"/>
-      <c r="G257" s="5"/>
+      <c r="G257" s="4"/>
     </row>
     <row r="260" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D260" s="0" t="s">
@@ -2847,8 +2729,8 @@
     <mergeCell ref="C3:G3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2864,10 +2746,10 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="E83:E86 D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.25"/>
@@ -2882,17 +2764,17 @@
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>299</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -3039,8 +2921,8 @@
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="315">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -434,6 +434,27 @@
     <t xml:space="preserve"> OneStop = 0, TwoStop=1</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">7、RTU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">设置生效</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">11、TCP是否开启</t>
   </si>
   <si>
@@ -443,6 +464,9 @@
     <t xml:space="preserve">502,</t>
   </si>
   <si>
+    <t xml:space="preserve">13、TCP设置生效</t>
+  </si>
+  <si>
     <t xml:space="preserve">16、SNMP配置信息</t>
   </si>
   <si>
@@ -464,6 +488,9 @@
     <t xml:space="preserve">6、密钥</t>
   </si>
   <si>
+    <t xml:space="preserve">7、生效</t>
+  </si>
+  <si>
     <t xml:space="preserve">17、RPC配置信息</t>
   </si>
   <si>
@@ -476,6 +503,27 @@
     <t xml:space="preserve">2、JSON-RPC端口</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">JSON-RPC生效</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">4、XML-RPC是否开启</t>
   </si>
   <si>
@@ -485,6 +533,9 @@
     <t xml:space="preserve">5、XML-RPC端口</t>
   </si>
   <si>
+    <t xml:space="preserve">6、XML-RPC生效</t>
+  </si>
+  <si>
     <t xml:space="preserve">18、主动推送配置信息</t>
   </si>
   <si>
@@ -509,16 +560,16 @@
     <t xml:space="preserve">0 不开启 1UDP 2TCP 3Websocket</t>
   </si>
   <si>
-    <t xml:space="preserve">7、设备反控模式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8、设备反控端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9、时间间隔</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10、数据内容</t>
+    <t xml:space="preserve">7、时间间隔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8、设备反控模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9、设备反控端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10、设备反控生效</t>
   </si>
   <si>
     <t xml:space="preserve">0：自动 1：最多 2：最少</t>
@@ -545,6 +596,9 @@
     <t xml:space="preserve">15、http接收端口</t>
   </si>
   <si>
+    <t xml:space="preserve">16、http接收生效 </t>
+  </si>
+  <si>
     <t xml:space="preserve">19、MQTT配置信息</t>
   </si>
   <si>
@@ -579,6 +633,9 @@
   </si>
   <si>
     <t xml:space="preserve">10、连接状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、MQTT生效</t>
   </si>
   <si>
     <t xml:space="preserve">22、输出位</t>
@@ -954,7 +1011,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -976,6 +1033,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1028,7 +1091,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1050,6 +1113,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1078,13 +1145,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:L260"/>
+  <dimension ref="A2:L266"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A262" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F85" activeCellId="0" sqref="F85"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E119" activeCellId="0" sqref="E119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.73"/>
@@ -1901,27 +1968,28 @@
       <c r="E108" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="H108" s="4" t="s">
+    </row>
+    <row r="109" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E109" s="0" t="s">
         <v>139</v>
       </c>
+      <c r="H109" s="4" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D110" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="E110" s="0" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E111" s="0" t="s">
+      <c r="H110" s="4"/>
+    </row>
+    <row r="112" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C112" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D112" s="0" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E112" s="0" t="s">
         <v>143</v>
       </c>
@@ -1941,75 +2009,77 @@
         <v>146</v>
       </c>
     </row>
+    <row r="116" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E116" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
     <row r="117" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D117" s="0" t="s">
-        <v>147</v>
-      </c>
       <c r="E117" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="H117" s="0" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="118" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E118" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C120" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D120" s="0" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="119" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E119" s="0" t="s">
+      <c r="E120" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="H119" s="0" t="s">
+      <c r="H120" s="0" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E120" s="0" t="s">
+    <row r="121" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E121" s="0" t="s">
         <v>153</v>
       </c>
     </row>
+    <row r="122" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E122" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
     <row r="123" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C123" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D123" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="E123" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="H123" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C124" s="4"/>
-      <c r="E124" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E125" s="0" t="s">
+      <c r="E124" s="0" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E126" s="4" t="s">
+    <row r="125" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E125" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E127" s="4" t="s">
+      <c r="C127" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D127" s="0" t="s">
         <v>159</v>
       </c>
+      <c r="E127" s="0" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C128" s="4"/>
       <c r="E128" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H128" s="0" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2019,19 +2089,16 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D130" s="4"/>
       <c r="E130" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D131" s="4"/>
       <c r="E131" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D132" s="4"/>
+    <row r="132" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E132" s="4" t="s">
         <v>165</v>
       </c>
@@ -2040,79 +2107,84 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D133" s="4"/>
-      <c r="E133" s="0" t="s">
+      <c r="E133" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H133" s="0" t="s">
+    </row>
+    <row r="134" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E134" s="0" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D134" s="4"/>
-      <c r="E134" s="4" t="s">
+    <row r="135" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D135" s="4"/>
+      <c r="E135" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E135" s="4" t="s">
+    <row r="136" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D136" s="4"/>
+      <c r="E136" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E136" s="0" t="s">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="H137" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="H136" s="4" t="s">
+    </row>
+    <row r="138" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D138" s="4"/>
+      <c r="E138" s="0" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="137" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E137" s="0" t="s">
+      <c r="H138" s="0" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C139" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D139" s="0" t="s">
+      <c r="D139" s="4"/>
+      <c r="E139" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E139" s="0" t="s">
+    </row>
+    <row r="140" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E140" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="H139" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E140" s="0" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E141" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E142" s="5" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="142" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E142" s="0" t="s">
+      <c r="H142" s="4"/>
+    </row>
+    <row r="143" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E143" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E143" s="4" t="s">
+    <row r="145" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C145" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D145" s="0" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="144" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E144" s="0" t="s">
+      <c r="E145" s="0" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="145" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E145" s="0" t="s">
+      <c r="H145" s="4" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2131,185 +2203,181 @@
         <v>185</v>
       </c>
     </row>
+    <row r="149" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E149" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E150" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
     <row r="151" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C151" s="4" t="s">
+      <c r="E151" s="0" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E152" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E153" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E154" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E155" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C157" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D151" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G151" s="4"/>
-    </row>
-    <row r="152" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C152" s="4" t="s">
+      <c r="D157" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G157" s="4"/>
+    </row>
+    <row r="158" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C158" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D152" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E152" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G152" s="4"/>
-    </row>
-    <row r="153" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C153" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D153" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="E153" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G153" s="4"/>
-    </row>
-    <row r="154" s="5" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C154" s="4" t="s">
+      <c r="D158" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E158" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G158" s="4"/>
+    </row>
+    <row r="159" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C159" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="E159" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G159" s="4"/>
+    </row>
+    <row r="160" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C160" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D154" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
-      <c r="H154" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="155" s="5" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C155" s="4" t="s">
+      <c r="D160" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="161" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C161" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D155" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F155" s="4" t="s">
+      <c r="D161" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F161" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G155" s="4"/>
-      <c r="H155" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H156" s="4"/>
-    </row>
-    <row r="158" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C158" s="0" t="s">
+      <c r="G161" s="4"/>
+      <c r="H161" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H162" s="4"/>
+    </row>
+    <row r="164" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C164" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D158" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="E158" s="0" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E159" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E160" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E161" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E162" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E163" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D164" s="0" t="s">
+        <v>207</v>
+      </c>
       <c r="E164" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E165" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E166" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E167" s="4" t="s">
-        <v>210</v>
+      <c r="E167" s="0" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E168" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E169" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E170" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E171" s="4"/>
+      <c r="E170" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E171" s="4" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C172" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D172" s="0" t="s">
-        <v>214</v>
-      </c>
       <c r="E172" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="H172" s="0" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C173" s="4"/>
-      <c r="E173" s="4"/>
+    <row r="173" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E173" s="4" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E174" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="H174" s="0" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2317,45 +2385,47 @@
       <c r="E175" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="H175" s="0" t="s">
-        <v>220</v>
-      </c>
     </row>
     <row r="176" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E176" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E177" s="4"/>
+    </row>
+    <row r="178" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C178" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D178" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="H176" s="0" t="s">
+      <c r="E178" s="4" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="177" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E177" s="4" t="s">
+      <c r="H178" s="0" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E178" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C179" s="4"/>
       <c r="E179" s="4"/>
     </row>
     <row r="180" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E180" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H180" s="0" t="s">
         <v>225</v>
-      </c>
-      <c r="H180" s="0" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E181" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H181" s="0" t="s">
         <v>227</v>
-      </c>
-      <c r="H181" s="0" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2363,303 +2433,307 @@
         <v>228</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E183" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="H183" s="0" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E184" s="4"/>
-    </row>
-    <row r="185" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E185" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H185" s="0" t="s">
-        <v>226</v>
-      </c>
+    </row>
+    <row r="184" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E184" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E185" s="4"/>
     </row>
     <row r="186" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E186" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="H186" s="4" t="s">
-        <v>226</v>
+        <v>232</v>
+      </c>
+      <c r="H186" s="0" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E187" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
+      </c>
+      <c r="H187" s="0" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E188" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H188" s="0" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E189" s="4"/>
-    </row>
-    <row r="190" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D190" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E190" s="4" t="s">
-        <v>235</v>
-      </c>
+    <row r="189" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E189" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H189" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E190" s="4"/>
     </row>
     <row r="191" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E191" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="H191" s="0" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E192" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
+      </c>
+      <c r="H192" s="4" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E193" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E194" s="4"/>
-    </row>
-    <row r="195" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E195" s="4" t="s">
         <v>239</v>
       </c>
     </row>
+    <row r="194" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E194" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E195" s="4"/>
+    </row>
     <row r="196" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D196" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="E196" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E197" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E198" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E199" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E200" s="4" t="s">
-        <v>244</v>
-      </c>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E200" s="4"/>
     </row>
     <row r="201" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E201" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E202" s="4" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E203" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E204" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E205" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E206" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E207" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E208" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E209" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E210" s="4"/>
-    </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E212" s="4"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E210" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E211" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E212" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E213" s="4" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D214" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E214" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="F214" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G214" s="4"/>
-      <c r="H214" s="4" t="s">
-        <v>256</v>
+      <c r="E214" s="4" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E215" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="H215" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E216" s="0" t="s">
+      <c r="E215" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E217" s="0" t="s">
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E216" s="4"/>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E218" s="4"/>
+    </row>
+    <row r="220" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D220" s="4" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="218" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E218" s="0" t="s">
+      <c r="E220" s="0" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="219" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E219" s="0" t="s">
+      <c r="F220" s="4" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="220" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E220" s="4" t="s">
+      <c r="G220" s="4"/>
+      <c r="H220" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E221" s="4"/>
+    <row r="221" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E221" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="H221" s="4" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="222" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D222" s="0" t="s">
-        <v>264</v>
-      </c>
       <c r="E222" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E223" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E224" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E225" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E226" s="0" t="s">
-        <v>269</v>
+      <c r="E226" s="4" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E227" s="4"/>
-      <c r="G227" s="4"/>
     </row>
     <row r="228" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D228" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E228" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="G228" s="4"/>
+        <v>272</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D229" s="4"/>
       <c r="E229" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="G229" s="4"/>
+        <v>273</v>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E230" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E231" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E232" s="0" t="s">
-        <v>275</v>
-      </c>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E233" s="4"/>
+      <c r="G233" s="4"/>
     </row>
     <row r="234" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D234" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="E234" s="4" t="s">
         <v>277</v>
       </c>
+      <c r="E234" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="G234" s="4"/>
     </row>
     <row r="235" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D235" s="4"/>
       <c r="E235" s="0" t="s">
-        <v>278</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G235" s="4"/>
     </row>
     <row r="236" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E236" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E237" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E238" s="0" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E239" s="0" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E240" s="0" t="s">
+      <c r="D240" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="H240" s="0" t="s">
+      <c r="E240" s="4" t="s">
         <v>284</v>
       </c>
     </row>
@@ -2668,59 +2742,92 @@
         <v>285</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D251" s="4" t="s">
+    <row r="242" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E242" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="E251" s="0" t="s">
+    </row>
+    <row r="243" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E243" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="F251" s="0" t="s">
+    </row>
+    <row r="244" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E244" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="H251" s="4" t="s">
+    </row>
+    <row r="245" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E245" s="0" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E252" s="0" t="s">
+    <row r="246" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E246" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="F252" s="4" t="s">
+      <c r="H246" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="H252" s="0" t="s">
+    </row>
+    <row r="247" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E247" s="0" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E253" s="0" t="s">
+    <row r="257" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D257" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="F253" s="4"/>
-    </row>
-    <row r="254" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E254" s="0" t="s">
+      <c r="E257" s="0" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="255" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E255" s="0" t="s">
+      <c r="F257" s="0" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="256" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E256" s="4" t="s">
+      <c r="H257" s="4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E257" s="4"/>
-      <c r="G257" s="4"/>
+    <row r="258" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E258" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="F258" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H258" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E259" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="F259" s="4"/>
     </row>
     <row r="260" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D260" s="0" t="s">
-        <v>297</v>
+      <c r="E260" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E261" s="0" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E262" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E263" s="4"/>
+      <c r="G263" s="4"/>
+    </row>
+    <row r="266" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D266" s="0" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -2749,7 +2856,7 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.25"/>
@@ -2764,18 +2871,18 @@
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="C1" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="7" t="s">
-        <v>299</v>
+      <c r="C2" s="8" t="s">
+        <v>306</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>11</v>
@@ -2851,7 +2958,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>31</v>
@@ -2862,10 +2969,10 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>56</v>
@@ -2876,7 +2983,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>57</v>
@@ -2887,7 +2994,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>58</v>
@@ -2895,7 +3002,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>59</v>
@@ -2903,17 +3010,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="316">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -341,7 +341,10 @@
     <t xml:space="preserve">4、级联地址</t>
   </si>
   <si>
-    <t xml:space="preserve">5、</t>
+    <t xml:space="preserve">5、运行时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单位天</t>
   </si>
   <si>
     <t xml:space="preserve">6、频率</t>
@@ -434,25 +437,7 @@
     <t xml:space="preserve"> OneStop = 0, TwoStop=1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">7、RTU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">设置生效</t>
-    </r>
+    <t xml:space="preserve">7、RTU设置生效</t>
   </si>
   <si>
     <t xml:space="preserve">11、TCP是否开启</t>
@@ -503,25 +488,7 @@
     <t xml:space="preserve">2、JSON-RPC端口</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">JSON-RPC生效</t>
-    </r>
+    <t xml:space="preserve">3、JSON-RPC生效</t>
   </si>
   <si>
     <t xml:space="preserve">4、XML-RPC是否开启</t>
@@ -1011,7 +978,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1033,12 +1000,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1091,7 +1052,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1113,10 +1074,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1147,11 +1104,11 @@
   </sheetPr>
   <dimension ref="A2:L266"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E119" activeCellId="0" sqref="E119"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G84" activeCellId="0" sqref="G84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.73"/>
@@ -1812,20 +1769,23 @@
         <v>106</v>
       </c>
       <c r="F81" s="4"/>
+      <c r="H81" s="0" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E82" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E83" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E84" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>94</v>
@@ -1833,33 +1793,33 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E85" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E86" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E88" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E89" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1876,36 +1836,36 @@
     </row>
     <row r="94" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E95" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E96" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E97" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E98" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1913,329 +1873,329 @@
     </row>
     <row r="101" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C101" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E102" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E105" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E106" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E107" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E108" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E109" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E110" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H110" s="4"/>
     </row>
     <row r="112" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E113" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E114" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E115" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E116" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E117" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E118" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C120" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E121" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E122" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E123" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E124" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E125" s="5" t="s">
-        <v>158</v>
+      <c r="E125" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C127" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C128" s="4"/>
       <c r="E128" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E129" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E130" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E131" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E132" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E133" s="5" t="s">
-        <v>167</v>
+      <c r="E133" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E134" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D135" s="4"/>
       <c r="E135" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D136" s="4"/>
-      <c r="E136" s="5" t="s">
-        <v>170</v>
+      <c r="E136" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="H137" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D138" s="4"/>
       <c r="E138" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D139" s="4"/>
       <c r="E139" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E140" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E141" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E142" s="5" t="s">
-        <v>178</v>
+      <c r="E142" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="H142" s="4"/>
     </row>
     <row r="143" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E143" s="5" t="s">
-        <v>179</v>
+      <c r="E143" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C145" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E146" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E147" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E148" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E149" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E150" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E151" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E152" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E153" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E154" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E155" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2243,13 +2203,13 @@
         <v>15</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G157" s="4"/>
     </row>
@@ -2258,63 +2218,63 @@
         <v>15</v>
       </c>
       <c r="D158" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E158" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="F158" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="E158" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="G158" s="4"/>
     </row>
     <row r="159" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C159" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G159" s="4"/>
     </row>
-    <row r="160" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" s="5" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C160" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
       <c r="H160" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="161" s="6" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="161" s="5" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C161" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G161" s="4"/>
       <c r="H161" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2325,70 +2285,70 @@
         <v>15</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E165" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E166" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E167" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E168" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E169" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E170" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E171" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E172" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E173" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E174" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E175" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E176" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2396,16 +2356,16 @@
     </row>
     <row r="178" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C178" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2414,36 +2374,36 @@
     </row>
     <row r="180" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E180" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E181" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E182" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E183" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E184" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2451,34 +2411,34 @@
     </row>
     <row r="186" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E186" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E187" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H187" s="0" t="s">
         <v>234</v>
-      </c>
-      <c r="H187" s="0" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E188" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E189" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2486,28 +2446,28 @@
     </row>
     <row r="191" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E191" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H191" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E192" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E193" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E194" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2515,25 +2475,25 @@
     </row>
     <row r="196" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D196" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E197" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E198" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E199" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2541,72 +2501,72 @@
     </row>
     <row r="201" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E201" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E202" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E203" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E204" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E205" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E206" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E207" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E209" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E210" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E211" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E212" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E213" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E214" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E215" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2617,50 +2577,50 @@
     </row>
     <row r="220" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D220" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E220" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G220" s="4"/>
       <c r="H220" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E221" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E222" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E223" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E224" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E225" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E226" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2668,30 +2628,30 @@
     </row>
     <row r="228" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D228" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E228" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E229" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E230" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E231" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E232" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2700,125 +2660,125 @@
     </row>
     <row r="234" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D234" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E234" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G234" s="4"/>
     </row>
     <row r="235" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D235" s="4"/>
       <c r="E235" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G235" s="4"/>
     </row>
     <row r="236" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E236" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E237" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E238" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D240" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E241" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E242" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E243" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E244" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E245" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E246" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H246" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E247" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D257" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E257" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H257" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E258" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H258" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E259" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F259" s="4"/>
     </row>
     <row r="260" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E260" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E261" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E262" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2827,7 +2787,7 @@
     </row>
     <row r="266" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D266" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2856,7 +2816,7 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.25"/>
@@ -2871,18 +2831,18 @@
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="C1" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="8" t="s">
-        <v>306</v>
+      <c r="C2" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>11</v>
@@ -2958,7 +2918,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>31</v>
@@ -2969,10 +2929,10 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>56</v>
@@ -2983,7 +2943,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>57</v>
@@ -2994,7 +2954,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>58</v>
@@ -3002,7 +2962,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>59</v>
@@ -3010,17 +2970,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="319">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -377,6 +377,12 @@
     <t xml:space="preserve">13、屏幕方位角</t>
   </si>
   <si>
+    <t xml:space="preserve">14、数据内容</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0：自动 1：最多 2：最少</t>
+  </si>
+  <si>
     <t xml:space="preserve">Addr ＝ 0</t>
   </si>
   <si>
@@ -539,9 +545,6 @@
     <t xml:space="preserve">10、设备反控生效</t>
   </si>
   <si>
-    <t xml:space="preserve">0：自动 1：最多 2：最少</t>
-  </si>
-  <si>
     <t xml:space="preserve">11、http推送是否开启</t>
   </si>
   <si>
@@ -837,6 +840,12 @@
   </si>
   <si>
     <t xml:space="preserve">6、DNS :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10、网卡名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11、Mac地址</t>
   </si>
   <si>
     <t xml:space="preserve">42、WEB服务设置</t>
@@ -1102,13 +1111,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:L266"/>
+  <dimension ref="A2:L268"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G84" activeCellId="0" sqref="G84"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A211" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E227" activeCellId="0" sqref="E227"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.73"/>
@@ -1823,7 +1832,12 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E90" s="4"/>
+      <c r="E90" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E91" s="4"/>
@@ -1836,36 +1850,36 @@
     </row>
     <row r="94" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E95" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E96" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E97" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E98" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1873,329 +1887,329 @@
     </row>
     <row r="101" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C101" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E102" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E105" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E106" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E107" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E108" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E109" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E110" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H110" s="4"/>
     </row>
     <row r="112" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E113" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E114" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E115" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E116" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E117" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E118" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C120" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E121" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E122" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E123" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E124" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E125" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C127" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C128" s="4"/>
       <c r="E128" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E129" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E130" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E131" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E132" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E133" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E134" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D135" s="4"/>
       <c r="E135" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D136" s="4"/>
       <c r="E136" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="H137" s="0" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D138" s="4"/>
       <c r="E138" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D139" s="4"/>
       <c r="E139" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E140" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E141" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E142" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H142" s="4"/>
     </row>
     <row r="143" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E143" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C145" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E146" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E147" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E148" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E149" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E150" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E151" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E152" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E153" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E154" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E155" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2203,13 +2217,13 @@
         <v>15</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G157" s="4"/>
     </row>
@@ -2218,28 +2232,28 @@
         <v>15</v>
       </c>
       <c r="D158" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E158" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F158" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="E158" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="G158" s="4"/>
     </row>
     <row r="159" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C159" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G159" s="4"/>
     </row>
@@ -2248,15 +2262,15 @@
         <v>15</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
       <c r="H160" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="161" s="5" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2264,17 +2278,17 @@
         <v>15</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G161" s="4"/>
       <c r="H161" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2285,70 +2299,70 @@
         <v>15</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E165" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E166" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E167" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E168" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E169" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E170" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E171" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E172" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E173" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E174" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E175" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E176" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2356,16 +2370,16 @@
     </row>
     <row r="178" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C178" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2374,36 +2388,36 @@
     </row>
     <row r="180" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E180" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E181" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E182" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E183" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E184" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2411,34 +2425,34 @@
     </row>
     <row r="186" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E186" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E187" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H187" s="0" t="s">
         <v>235</v>
-      </c>
-      <c r="H187" s="0" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E188" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E189" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2446,28 +2460,28 @@
     </row>
     <row r="191" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E191" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H191" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E192" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E193" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E194" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2475,25 +2489,25 @@
     </row>
     <row r="196" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D196" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E197" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E198" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E199" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2501,72 +2515,72 @@
     </row>
     <row r="201" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E201" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E202" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E203" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E204" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E205" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E206" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E207" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E209" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E210" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E211" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E212" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E213" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E214" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E215" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2577,156 +2591,153 @@
     </row>
     <row r="220" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D220" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E220" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G220" s="4"/>
       <c r="H220" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E221" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E222" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E223" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E224" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E225" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E226" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E227" s="4"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E227" s="4" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D228" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="E228" s="0" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E229" s="0" t="s">
+      <c r="E228" s="4" t="s">
         <v>274</v>
       </c>
     </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E229" s="4"/>
+    </row>
     <row r="230" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D230" s="0" t="s">
+        <v>275</v>
+      </c>
       <c r="E230" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E231" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E232" s="0" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E233" s="4"/>
-      <c r="G233" s="4"/>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E233" s="0" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D234" s="0" t="s">
-        <v>278</v>
-      </c>
       <c r="E234" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="G234" s="4"/>
-    </row>
-    <row r="235" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D235" s="4"/>
-      <c r="E235" s="0" t="s">
         <v>280</v>
       </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E235" s="4"/>
       <c r="G235" s="4"/>
     </row>
     <row r="236" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D236" s="0" t="s">
+        <v>281</v>
+      </c>
       <c r="E236" s="0" t="s">
-        <v>281</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G236" s="4"/>
     </row>
     <row r="237" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D237" s="4"/>
       <c r="E237" s="0" t="s">
-        <v>282</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="G237" s="4"/>
     </row>
     <row r="238" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E238" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E239" s="0" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D240" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="E240" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E241" s="0" t="s">
+      <c r="E240" s="0" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E242" s="0" t="s">
+      <c r="D242" s="0" t="s">
         <v>287</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E243" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E244" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E245" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E246" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="H246" s="0" t="s">
         <v>292</v>
       </c>
     </row>
@@ -2735,59 +2746,72 @@
         <v>293</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D257" s="4" t="s">
+    <row r="248" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E248" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="E257" s="0" t="s">
+      <c r="H248" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="F257" s="0" t="s">
+    </row>
+    <row r="249" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E249" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="H257" s="4" t="s">
+    </row>
+    <row r="259" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D259" s="4" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="258" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E258" s="0" t="s">
+      <c r="E259" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="F258" s="4" t="s">
+      <c r="F259" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="H258" s="0" t="s">
+      <c r="H259" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E259" s="0" t="s">
+    <row r="260" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E260" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="F259" s="4"/>
-    </row>
-    <row r="260" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E260" s="0" t="s">
+      <c r="F260" s="4" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="261" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H260" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E261" s="0" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E262" s="4" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E263" s="4"/>
-      <c r="G263" s="4"/>
-    </row>
-    <row r="266" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D266" s="0" t="s">
+      <c r="F261" s="4"/>
+    </row>
+    <row r="262" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E262" s="0" t="s">
         <v>305</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E263" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E264" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E265" s="4"/>
+      <c r="G265" s="4"/>
+    </row>
+    <row r="268" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D268" s="0" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -2816,7 +2840,7 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.25"/>
@@ -2832,7 +2856,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -2842,7 +2866,7 @@
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>11</v>
@@ -2918,7 +2942,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>31</v>
@@ -2929,10 +2953,10 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>56</v>
@@ -2943,7 +2967,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>57</v>
@@ -2954,7 +2978,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>58</v>
@@ -2962,7 +2986,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>59</v>
@@ -2970,17 +2994,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="320">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t xml:space="preserve">addr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">execute</t>
   </si>
   <si>
     <t xml:space="preserve">pduDataGet</t>
@@ -1113,11 +1116,11 @@
   </sheetPr>
   <dimension ref="A2:L268"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A211" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E227" activeCellId="0" sqref="E227"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.73"/>
@@ -1185,6 +1188,9 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>10</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1210,429 +1216,429 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E17" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E20" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E23" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E35" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E36" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E37" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E38" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E39" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E40" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E41" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E47" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E48" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E49" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E50" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1640,33 +1646,33 @@
     </row>
     <row r="56" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E57" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E58" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E59" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E60" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1674,169 +1680,169 @@
     </row>
     <row r="66" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E67" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E68" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E69" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E70" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E71" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E72" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F72" s="4"/>
       <c r="H72" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E73" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E74" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="F74" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="F74" s="0" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E77" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E78" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E79" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E80" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E81" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F81" s="4"/>
       <c r="H81" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E82" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E83" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E84" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E85" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E86" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E88" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E89" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E90" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1850,36 +1856,36 @@
     </row>
     <row r="94" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E95" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E96" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E97" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E98" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1887,408 +1893,408 @@
     </row>
     <row r="101" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C101" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E102" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E105" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E106" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E107" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E108" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E109" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E110" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H110" s="4"/>
     </row>
     <row r="112" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E113" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E114" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E115" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E116" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E117" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E118" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C120" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E121" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E122" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E123" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E124" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E125" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C127" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C128" s="4"/>
       <c r="E128" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E129" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E130" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E131" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E132" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E133" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E134" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D135" s="4"/>
       <c r="E135" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D136" s="4"/>
       <c r="E136" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="H137" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D138" s="4"/>
       <c r="E138" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D139" s="4"/>
       <c r="E139" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E140" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E141" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E142" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H142" s="4"/>
     </row>
     <row r="143" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E143" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C145" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E146" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E147" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E148" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E149" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E150" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E151" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E152" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E153" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E154" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E155" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C157" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G157" s="4"/>
     </row>
     <row r="158" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C158" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D158" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E158" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="F158" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="E158" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="G158" s="4"/>
     </row>
     <row r="159" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C159" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G159" s="4"/>
     </row>
     <row r="160" s="5" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C160" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
       <c r="H160" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="161" s="5" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C161" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G161" s="4"/>
       <c r="H161" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2296,73 +2302,73 @@
     </row>
     <row r="164" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C164" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E165" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E166" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E167" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E168" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E169" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E170" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E171" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E172" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E173" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E174" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E175" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E176" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2370,16 +2376,16 @@
     </row>
     <row r="178" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C178" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2388,36 +2394,36 @@
     </row>
     <row r="180" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E180" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E181" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E182" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E183" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E184" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2425,34 +2431,34 @@
     </row>
     <row r="186" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E186" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E187" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H187" s="0" t="s">
         <v>236</v>
-      </c>
-      <c r="H187" s="0" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E188" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E189" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2460,28 +2466,28 @@
     </row>
     <row r="191" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E191" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H191" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E192" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E193" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E194" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2489,25 +2495,25 @@
     </row>
     <row r="196" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D196" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E197" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E198" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E199" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2515,72 +2521,72 @@
     </row>
     <row r="201" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E201" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E202" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E203" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E204" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E205" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E206" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E207" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E209" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E210" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E211" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E212" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E213" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E214" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E215" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2591,60 +2597,60 @@
     </row>
     <row r="220" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D220" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E220" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G220" s="4"/>
       <c r="H220" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E221" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E222" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E223" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E224" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E225" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E226" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E227" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E228" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2652,30 +2658,30 @@
     </row>
     <row r="230" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D230" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E230" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E231" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E232" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E233" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E234" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2684,125 +2690,125 @@
     </row>
     <row r="236" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D236" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E236" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G236" s="4"/>
     </row>
     <row r="237" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D237" s="4"/>
       <c r="E237" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G237" s="4"/>
     </row>
     <row r="238" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E238" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E239" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E240" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D242" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E243" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E244" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E245" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E246" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E247" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E248" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E249" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D259" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E259" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F259" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H259" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E260" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H260" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E261" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F261" s="4"/>
     </row>
     <row r="262" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E262" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E263" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E264" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2811,7 +2817,7 @@
     </row>
     <row r="268" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D268" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -2840,7 +2846,7 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.25"/>
@@ -2853,10 +2859,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -2866,145 +2872,145 @@
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="327">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -810,6 +810,27 @@
   </si>
   <si>
     <t xml:space="preserve">27、发行：电子邮件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33、网络控制白名单设置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、是否开启网络连接控制</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、白名单 MAC 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、白名单 MAC 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4、白名单 IP 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5、白名单 IP 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、立即生效</t>
   </si>
   <si>
     <t xml:space="preserve">41、网络连接状态</t>
@@ -990,7 +1011,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1020,6 +1041,12 @@
       <name val="等线"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1064,7 +1091,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1086,6 +1113,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1114,13 +1145,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:L268"/>
+  <dimension ref="A2:L274"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A202" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E225" activeCellId="0" sqref="E225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.73"/>
@@ -2592,171 +2623,171 @@
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E216" s="4"/>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E218" s="4"/>
-    </row>
-    <row r="220" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D220" s="4" t="s">
+    <row r="217" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D217" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="E220" s="0" t="s">
+      <c r="E217" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="F220" s="4" t="s">
+    </row>
+    <row r="218" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E218" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="G220" s="4"/>
-      <c r="H220" s="4" t="s">
+    </row>
+    <row r="219" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E219" s="6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E221" s="0" t="s">
+    <row r="220" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E220" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H221" s="4" t="s">
+    </row>
+    <row r="221" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E221" s="6" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E222" s="0" t="s">
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E222" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E223" s="0" t="s">
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E224" s="4"/>
+    </row>
+    <row r="226" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D226" s="4" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="224" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E224" s="0" t="s">
+      <c r="E226" s="0" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="225" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E225" s="0" t="s">
+      <c r="F226" s="4" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="226" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E226" s="4" t="s">
+      <c r="G226" s="4"/>
+      <c r="H226" s="4" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E227" s="4" t="s">
+      <c r="E227" s="0" t="s">
         <v>274</v>
       </c>
+      <c r="H227" s="4" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E228" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E229" s="4"/>
+      <c r="E228" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E229" s="0" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D230" s="0" t="s">
-        <v>276</v>
-      </c>
       <c r="E230" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E231" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E232" s="0" t="s">
-        <v>279</v>
+      <c r="E232" s="4" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E233" s="0" t="s">
-        <v>280</v>
+      <c r="E233" s="4" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E234" s="0" t="s">
-        <v>281</v>
+      <c r="E234" s="4" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E235" s="4"/>
-      <c r="G235" s="4"/>
     </row>
     <row r="236" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D236" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E236" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="G236" s="4"/>
+        <v>284</v>
+      </c>
     </row>
     <row r="237" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D237" s="4"/>
       <c r="E237" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="G237" s="4"/>
+        <v>285</v>
+      </c>
     </row>
     <row r="238" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E238" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E239" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E240" s="0" t="s">
-        <v>287</v>
-      </c>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E241" s="4"/>
+      <c r="G241" s="4"/>
     </row>
     <row r="242" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D242" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="E242" s="4" t="s">
         <v>289</v>
       </c>
+      <c r="E242" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="G242" s="4"/>
     </row>
     <row r="243" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D243" s="4"/>
       <c r="E243" s="0" t="s">
-        <v>290</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G243" s="4"/>
     </row>
     <row r="244" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E244" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E245" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E246" s="0" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E247" s="0" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E248" s="0" t="s">
+      <c r="D248" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="H248" s="0" t="s">
+      <c r="E248" s="4" t="s">
         <v>296</v>
       </c>
     </row>
@@ -2765,59 +2796,95 @@
         <v>297</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D259" s="4" t="s">
+    <row r="250" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E250" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="E259" s="0" t="s">
+    </row>
+    <row r="251" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E251" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="F259" s="0" t="s">
+    </row>
+    <row r="252" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E252" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="H259" s="4" t="s">
+    </row>
+    <row r="253" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E253" s="0" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E260" s="0" t="s">
+    <row r="254" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E254" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="F260" s="4" t="s">
+      <c r="H254" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="H260" s="0" t="s">
+    </row>
+    <row r="255" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E255" s="0" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E261" s="0" t="s">
+    <row r="262" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E262" s="6"/>
+    </row>
+    <row r="265" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D265" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="F261" s="4"/>
-    </row>
-    <row r="262" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E262" s="0" t="s">
+      <c r="E265" s="0" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="263" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E263" s="0" t="s">
+      <c r="F265" s="0" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="264" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E264" s="4" t="s">
+      <c r="H265" s="4" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E265" s="4"/>
-      <c r="G265" s="4"/>
+    <row r="266" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E266" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="F266" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H266" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E267" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="F267" s="4"/>
     </row>
     <row r="268" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D268" s="0" t="s">
-        <v>309</v>
+      <c r="E268" s="0" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E269" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E270" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E271" s="4"/>
+      <c r="G271" s="4"/>
+    </row>
+    <row r="274" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D274" s="0" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -2846,7 +2913,7 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.25"/>
@@ -2861,18 +2928,18 @@
       <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="C1" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="7" t="s">
-        <v>311</v>
+      <c r="C2" s="8" t="s">
+        <v>318</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>12</v>
@@ -2948,7 +3015,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>32</v>
@@ -2959,10 +3026,10 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>57</v>
@@ -2973,7 +3040,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>58</v>
@@ -2984,7 +3051,7 @@
         <v>40</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>59</v>
@@ -2992,7 +3059,7 @@
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>60</v>
@@ -3000,17 +3067,17 @@
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="328">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -533,15 +533,15 @@
     <t xml:space="preserve">6、UDP推送端口2</t>
   </si>
   <si>
+    <t xml:space="preserve">7、时间间隔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8、设备反控模式</t>
+  </si>
+  <si>
     <t xml:space="preserve">0 不开启 1UDP 2TCP 3Websocket</t>
   </si>
   <si>
-    <t xml:space="preserve">7、时间间隔</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8、设备反控模式</t>
-  </si>
-  <si>
     <t xml:space="preserve">9、设备反控端口</t>
   </si>
   <si>
@@ -870,6 +870,9 @@
   </si>
   <si>
     <t xml:space="preserve">11、Mac地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15、设置生效</t>
   </si>
   <si>
     <t xml:space="preserve">42、WEB服务设置</t>
@@ -1035,18 +1038,18 @@
       <family val="0"/>
     </f